--- a/DOC/基本設計/基本設計_ems_有給状況.xlsx
+++ b/DOC/基本設計/基本設計_ems_有給状況.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\workspace\2020\ems\DOC\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE60EE93-62F5-4B0C-9122-71C37DA481D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A915D50-D97E-458E-B7C4-84022AF3F08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="833" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="833" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="9" r:id="rId1"/>
@@ -8687,7 +8687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CECF286-7D3E-4E7D-89AA-59D17E178F88}">
   <dimension ref="A1:BN45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
@@ -10846,7 +10846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51FF22C-9BFE-4E7B-8440-025525AE6A6B}">
   <dimension ref="A1:BM21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="AJ16" sqref="AJ16"/>
     </sheetView>
   </sheetViews>
@@ -12534,8 +12534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A36C11-62C1-42C6-8B6F-4B217536EE87}">
   <dimension ref="A1:BL35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AD39" sqref="AD39"/>
+    <sheetView showGridLines="0" topLeftCell="AL1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:BL18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -13451,7 +13451,7 @@
       <c r="K11" s="203"/>
       <c r="L11" s="355"/>
       <c r="M11" s="356" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="N11" s="357"/>
       <c r="O11" s="357"/>
@@ -14243,8 +14243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FE8741-F49C-42F2-BC06-F1CBE4CC8F10}">
   <dimension ref="A1:BC11"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/DOC/基本設計/基本設計_ems_有給状況.xlsx
+++ b/DOC/基本設計/基本設計_ems_有給状況.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\workspace\2020\ems\DOC\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A915D50-D97E-458E-B7C4-84022AF3F08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A4F47D-DFEF-42F5-9C97-1F12B5144B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="833" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="833" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="9" r:id="rId1"/>
@@ -2901,6 +2901,96 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="42" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="42" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="3" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="3" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="3" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2943,109 +3033,121 @@
     <xf numFmtId="0" fontId="45" fillId="3" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="42" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="3" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="3" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="3" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="36" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3090,107 +3192,122 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="36" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="2" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="2" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3228,122 +3345,215 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="2" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="2" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3402,215 +3612,26 @@
     <xf numFmtId="14" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3623,27 +3644,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5680,34 +5680,34 @@
       <c r="BN1" s="95"/>
     </row>
     <row r="2" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="159"/>
-      <c r="R2" s="159"/>
-      <c r="S2" s="159"/>
-      <c r="T2" s="159"/>
-      <c r="U2" s="159"/>
-      <c r="V2" s="159"/>
-      <c r="W2" s="159"/>
-      <c r="X2" s="159"/>
-      <c r="Y2" s="159"/>
-      <c r="Z2" s="159"/>
+      <c r="B2" s="189"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="189"/>
+      <c r="N2" s="189"/>
+      <c r="O2" s="189"/>
+      <c r="P2" s="189"/>
+      <c r="Q2" s="189"/>
+      <c r="R2" s="189"/>
+      <c r="S2" s="189"/>
+      <c r="T2" s="189"/>
+      <c r="U2" s="189"/>
+      <c r="V2" s="189"/>
+      <c r="W2" s="189"/>
+      <c r="X2" s="189"/>
+      <c r="Y2" s="189"/>
+      <c r="Z2" s="189"/>
       <c r="AA2" s="74"/>
       <c r="AB2" s="74"/>
       <c r="AC2" s="74"/>
@@ -5750,32 +5750,32 @@
       <c r="BN2" s="98"/>
     </row>
     <row r="3" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="158"/>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="159"/>
-      <c r="S3" s="159"/>
-      <c r="T3" s="159"/>
-      <c r="U3" s="159"/>
-      <c r="V3" s="159"/>
-      <c r="W3" s="159"/>
-      <c r="X3" s="159"/>
-      <c r="Y3" s="159"/>
-      <c r="Z3" s="159"/>
+      <c r="A3" s="188"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="189"/>
+      <c r="J3" s="189"/>
+      <c r="K3" s="189"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="189"/>
+      <c r="N3" s="189"/>
+      <c r="O3" s="189"/>
+      <c r="P3" s="189"/>
+      <c r="Q3" s="189"/>
+      <c r="R3" s="189"/>
+      <c r="S3" s="189"/>
+      <c r="T3" s="189"/>
+      <c r="U3" s="189"/>
+      <c r="V3" s="189"/>
+      <c r="W3" s="189"/>
+      <c r="X3" s="189"/>
+      <c r="Y3" s="189"/>
+      <c r="Z3" s="189"/>
       <c r="AA3" s="74"/>
       <c r="AB3" s="74"/>
       <c r="AC3" s="74"/>
@@ -5818,166 +5818,166 @@
       <c r="BN3" s="99"/>
     </row>
     <row r="4" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="160" t="s">
+      <c r="A4" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="161"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="163" t="s">
+      <c r="B4" s="191"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="192"/>
+      <c r="G4" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="164"/>
-      <c r="I4" s="164"/>
-      <c r="J4" s="164"/>
-      <c r="K4" s="164"/>
-      <c r="L4" s="164"/>
-      <c r="M4" s="164"/>
-      <c r="N4" s="165"/>
-      <c r="O4" s="166" t="s">
+      <c r="H4" s="194"/>
+      <c r="I4" s="194"/>
+      <c r="J4" s="194"/>
+      <c r="K4" s="194"/>
+      <c r="L4" s="194"/>
+      <c r="M4" s="194"/>
+      <c r="N4" s="195"/>
+      <c r="O4" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="167"/>
-      <c r="Q4" s="167"/>
-      <c r="R4" s="167"/>
-      <c r="S4" s="167"/>
-      <c r="T4" s="168"/>
-      <c r="U4" s="169" t="s">
+      <c r="P4" s="197"/>
+      <c r="Q4" s="197"/>
+      <c r="R4" s="197"/>
+      <c r="S4" s="197"/>
+      <c r="T4" s="198"/>
+      <c r="U4" s="199" t="s">
         <v>77</v>
       </c>
-      <c r="V4" s="170"/>
-      <c r="W4" s="170"/>
-      <c r="X4" s="170"/>
-      <c r="Y4" s="170"/>
-      <c r="Z4" s="170"/>
-      <c r="AA4" s="170"/>
-      <c r="AB4" s="170"/>
-      <c r="AC4" s="170"/>
-      <c r="AD4" s="170"/>
-      <c r="AE4" s="170"/>
-      <c r="AF4" s="170"/>
-      <c r="AG4" s="170"/>
-      <c r="AH4" s="170"/>
-      <c r="AI4" s="170"/>
-      <c r="AJ4" s="170"/>
-      <c r="AK4" s="170"/>
-      <c r="AL4" s="170"/>
-      <c r="AM4" s="170"/>
-      <c r="AN4" s="170"/>
-      <c r="AO4" s="170"/>
-      <c r="AP4" s="170"/>
-      <c r="AQ4" s="170"/>
-      <c r="AR4" s="170"/>
-      <c r="AS4" s="170"/>
-      <c r="AT4" s="170"/>
-      <c r="AU4" s="170"/>
-      <c r="AV4" s="171"/>
-      <c r="AW4" s="172" t="s">
+      <c r="V4" s="200"/>
+      <c r="W4" s="200"/>
+      <c r="X4" s="200"/>
+      <c r="Y4" s="200"/>
+      <c r="Z4" s="200"/>
+      <c r="AA4" s="200"/>
+      <c r="AB4" s="200"/>
+      <c r="AC4" s="200"/>
+      <c r="AD4" s="200"/>
+      <c r="AE4" s="200"/>
+      <c r="AF4" s="200"/>
+      <c r="AG4" s="200"/>
+      <c r="AH4" s="200"/>
+      <c r="AI4" s="200"/>
+      <c r="AJ4" s="200"/>
+      <c r="AK4" s="200"/>
+      <c r="AL4" s="200"/>
+      <c r="AM4" s="200"/>
+      <c r="AN4" s="200"/>
+      <c r="AO4" s="200"/>
+      <c r="AP4" s="200"/>
+      <c r="AQ4" s="200"/>
+      <c r="AR4" s="200"/>
+      <c r="AS4" s="200"/>
+      <c r="AT4" s="200"/>
+      <c r="AU4" s="200"/>
+      <c r="AV4" s="201"/>
+      <c r="AW4" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="AX4" s="173"/>
-      <c r="AY4" s="174"/>
-      <c r="AZ4" s="175">
+      <c r="AX4" s="170"/>
+      <c r="AY4" s="171"/>
+      <c r="AZ4" s="172">
         <v>45427</v>
       </c>
-      <c r="BA4" s="176"/>
-      <c r="BB4" s="176"/>
-      <c r="BC4" s="176"/>
-      <c r="BD4" s="176"/>
-      <c r="BE4" s="176"/>
-      <c r="BF4" s="172" t="s">
+      <c r="BA4" s="173"/>
+      <c r="BB4" s="173"/>
+      <c r="BC4" s="173"/>
+      <c r="BD4" s="173"/>
+      <c r="BE4" s="173"/>
+      <c r="BF4" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="BG4" s="173"/>
-      <c r="BH4" s="174"/>
-      <c r="BI4" s="177" t="s">
+      <c r="BG4" s="170"/>
+      <c r="BH4" s="171"/>
+      <c r="BI4" s="174" t="s">
         <v>84</v>
       </c>
-      <c r="BJ4" s="176"/>
-      <c r="BK4" s="176"/>
-      <c r="BL4" s="176"/>
-      <c r="BM4" s="176"/>
-      <c r="BN4" s="178"/>
+      <c r="BJ4" s="173"/>
+      <c r="BK4" s="173"/>
+      <c r="BL4" s="173"/>
+      <c r="BM4" s="173"/>
+      <c r="BN4" s="175"/>
     </row>
     <row r="5" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="179" t="s">
+      <c r="A5" s="176" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="182" t="s">
+      <c r="B5" s="177"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
-      <c r="J5" s="182"/>
-      <c r="K5" s="182"/>
-      <c r="L5" s="182"/>
-      <c r="M5" s="182"/>
-      <c r="N5" s="183"/>
-      <c r="O5" s="179" t="s">
+      <c r="H5" s="179"/>
+      <c r="I5" s="179"/>
+      <c r="J5" s="179"/>
+      <c r="K5" s="179"/>
+      <c r="L5" s="179"/>
+      <c r="M5" s="179"/>
+      <c r="N5" s="180"/>
+      <c r="O5" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="180"/>
-      <c r="Q5" s="180"/>
-      <c r="R5" s="180"/>
-      <c r="S5" s="180"/>
-      <c r="T5" s="181"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="185"/>
-      <c r="W5" s="185"/>
-      <c r="X5" s="185"/>
-      <c r="Y5" s="185"/>
-      <c r="Z5" s="185"/>
-      <c r="AA5" s="185"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="185"/>
-      <c r="AD5" s="185"/>
-      <c r="AE5" s="185"/>
-      <c r="AF5" s="185"/>
-      <c r="AG5" s="185"/>
-      <c r="AH5" s="185"/>
-      <c r="AI5" s="185"/>
-      <c r="AJ5" s="185"/>
-      <c r="AK5" s="185"/>
-      <c r="AL5" s="185"/>
-      <c r="AM5" s="185"/>
-      <c r="AN5" s="185"/>
-      <c r="AO5" s="185"/>
-      <c r="AP5" s="185"/>
-      <c r="AQ5" s="185"/>
-      <c r="AR5" s="185"/>
-      <c r="AS5" s="185"/>
-      <c r="AT5" s="185"/>
-      <c r="AU5" s="185"/>
-      <c r="AV5" s="186"/>
-      <c r="AW5" s="187" t="s">
+      <c r="P5" s="177"/>
+      <c r="Q5" s="177"/>
+      <c r="R5" s="177"/>
+      <c r="S5" s="177"/>
+      <c r="T5" s="178"/>
+      <c r="U5" s="181"/>
+      <c r="V5" s="182"/>
+      <c r="W5" s="182"/>
+      <c r="X5" s="182"/>
+      <c r="Y5" s="182"/>
+      <c r="Z5" s="182"/>
+      <c r="AA5" s="182"/>
+      <c r="AB5" s="182"/>
+      <c r="AC5" s="182"/>
+      <c r="AD5" s="182"/>
+      <c r="AE5" s="182"/>
+      <c r="AF5" s="182"/>
+      <c r="AG5" s="182"/>
+      <c r="AH5" s="182"/>
+      <c r="AI5" s="182"/>
+      <c r="AJ5" s="182"/>
+      <c r="AK5" s="182"/>
+      <c r="AL5" s="182"/>
+      <c r="AM5" s="182"/>
+      <c r="AN5" s="182"/>
+      <c r="AO5" s="182"/>
+      <c r="AP5" s="182"/>
+      <c r="AQ5" s="182"/>
+      <c r="AR5" s="182"/>
+      <c r="AS5" s="182"/>
+      <c r="AT5" s="182"/>
+      <c r="AU5" s="182"/>
+      <c r="AV5" s="183"/>
+      <c r="AW5" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="AX5" s="187"/>
-      <c r="AY5" s="188"/>
-      <c r="AZ5" s="187"/>
-      <c r="BA5" s="187"/>
-      <c r="BB5" s="187"/>
-      <c r="BC5" s="187"/>
-      <c r="BD5" s="187"/>
-      <c r="BE5" s="187"/>
-      <c r="BF5" s="189" t="s">
+      <c r="AX5" s="184"/>
+      <c r="AY5" s="185"/>
+      <c r="AZ5" s="184"/>
+      <c r="BA5" s="184"/>
+      <c r="BB5" s="184"/>
+      <c r="BC5" s="184"/>
+      <c r="BD5" s="184"/>
+      <c r="BE5" s="184"/>
+      <c r="BF5" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="BG5" s="187"/>
-      <c r="BH5" s="188"/>
-      <c r="BI5" s="187"/>
-      <c r="BJ5" s="190"/>
-      <c r="BK5" s="190"/>
-      <c r="BL5" s="190"/>
-      <c r="BM5" s="190"/>
-      <c r="BN5" s="186"/>
+      <c r="BG5" s="184"/>
+      <c r="BH5" s="185"/>
+      <c r="BI5" s="184"/>
+      <c r="BJ5" s="187"/>
+      <c r="BK5" s="187"/>
+      <c r="BL5" s="187"/>
+      <c r="BM5" s="187"/>
+      <c r="BN5" s="183"/>
     </row>
     <row r="6" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="100"/>
@@ -6028,25 +6028,25 @@
       <c r="AT6" s="74"/>
       <c r="AU6" s="74"/>
       <c r="AV6" s="81"/>
-      <c r="AW6" s="191" t="s">
+      <c r="AW6" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="AX6" s="192"/>
-      <c r="AY6" s="192"/>
-      <c r="AZ6" s="192"/>
-      <c r="BA6" s="192"/>
-      <c r="BB6" s="192"/>
-      <c r="BC6" s="192"/>
-      <c r="BD6" s="192"/>
-      <c r="BE6" s="192"/>
-      <c r="BF6" s="192"/>
-      <c r="BG6" s="192"/>
-      <c r="BH6" s="192"/>
-      <c r="BI6" s="192"/>
-      <c r="BJ6" s="192"/>
-      <c r="BK6" s="192"/>
-      <c r="BL6" s="192"/>
-      <c r="BM6" s="193"/>
+      <c r="AX6" s="164"/>
+      <c r="AY6" s="164"/>
+      <c r="AZ6" s="164"/>
+      <c r="BA6" s="164"/>
+      <c r="BB6" s="164"/>
+      <c r="BC6" s="164"/>
+      <c r="BD6" s="164"/>
+      <c r="BE6" s="164"/>
+      <c r="BF6" s="164"/>
+      <c r="BG6" s="164"/>
+      <c r="BH6" s="164"/>
+      <c r="BI6" s="164"/>
+      <c r="BJ6" s="164"/>
+      <c r="BK6" s="164"/>
+      <c r="BL6" s="164"/>
+      <c r="BM6" s="165"/>
       <c r="BN6" s="81"/>
     </row>
     <row r="7" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -6098,23 +6098,23 @@
       <c r="AT7" s="74"/>
       <c r="AU7" s="74"/>
       <c r="AV7" s="81"/>
-      <c r="AW7" s="194"/>
-      <c r="AX7" s="195"/>
-      <c r="AY7" s="195"/>
-      <c r="AZ7" s="195"/>
-      <c r="BA7" s="195"/>
-      <c r="BB7" s="195"/>
-      <c r="BC7" s="195"/>
-      <c r="BD7" s="195"/>
-      <c r="BE7" s="195"/>
-      <c r="BF7" s="195"/>
-      <c r="BG7" s="195"/>
-      <c r="BH7" s="195"/>
-      <c r="BI7" s="195"/>
-      <c r="BJ7" s="195"/>
-      <c r="BK7" s="195"/>
-      <c r="BL7" s="195"/>
-      <c r="BM7" s="196"/>
+      <c r="AW7" s="166"/>
+      <c r="AX7" s="167"/>
+      <c r="AY7" s="167"/>
+      <c r="AZ7" s="167"/>
+      <c r="BA7" s="167"/>
+      <c r="BB7" s="167"/>
+      <c r="BC7" s="167"/>
+      <c r="BD7" s="167"/>
+      <c r="BE7" s="167"/>
+      <c r="BF7" s="167"/>
+      <c r="BG7" s="167"/>
+      <c r="BH7" s="167"/>
+      <c r="BI7" s="167"/>
+      <c r="BJ7" s="167"/>
+      <c r="BK7" s="167"/>
+      <c r="BL7" s="167"/>
+      <c r="BM7" s="168"/>
       <c r="BN7" s="81"/>
     </row>
     <row r="8" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -6176,15 +6176,15 @@
       <c r="BB8" s="74"/>
       <c r="BC8" s="74"/>
       <c r="BD8" s="74"/>
-      <c r="BE8" s="197"/>
-      <c r="BF8" s="198"/>
-      <c r="BG8" s="198"/>
-      <c r="BH8" s="198"/>
-      <c r="BI8" s="198"/>
-      <c r="BJ8" s="198"/>
-      <c r="BK8" s="198"/>
-      <c r="BL8" s="198"/>
-      <c r="BM8" s="199"/>
+      <c r="BE8" s="162"/>
+      <c r="BF8" s="160"/>
+      <c r="BG8" s="160"/>
+      <c r="BH8" s="160"/>
+      <c r="BI8" s="160"/>
+      <c r="BJ8" s="160"/>
+      <c r="BK8" s="160"/>
+      <c r="BL8" s="160"/>
+      <c r="BM8" s="161"/>
       <c r="BN8" s="81"/>
     </row>
     <row r="9" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -6246,15 +6246,15 @@
       <c r="BB9" s="74"/>
       <c r="BC9" s="74"/>
       <c r="BD9" s="74"/>
-      <c r="BE9" s="197"/>
-      <c r="BF9" s="198"/>
-      <c r="BG9" s="198"/>
-      <c r="BH9" s="198"/>
-      <c r="BI9" s="198"/>
-      <c r="BJ9" s="198"/>
-      <c r="BK9" s="198"/>
-      <c r="BL9" s="198"/>
-      <c r="BM9" s="199"/>
+      <c r="BE9" s="162"/>
+      <c r="BF9" s="160"/>
+      <c r="BG9" s="160"/>
+      <c r="BH9" s="160"/>
+      <c r="BI9" s="160"/>
+      <c r="BJ9" s="160"/>
+      <c r="BK9" s="160"/>
+      <c r="BL9" s="160"/>
+      <c r="BM9" s="161"/>
       <c r="BN9" s="81"/>
     </row>
     <row r="10" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7401,15 +7401,15 @@
       <c r="BB26" s="74"/>
       <c r="BC26" s="74"/>
       <c r="BD26" s="74"/>
-      <c r="BE26" s="197"/>
-      <c r="BF26" s="198"/>
-      <c r="BG26" s="198"/>
-      <c r="BH26" s="198"/>
-      <c r="BI26" s="198"/>
-      <c r="BJ26" s="198"/>
-      <c r="BK26" s="198"/>
-      <c r="BL26" s="198"/>
-      <c r="BM26" s="199"/>
+      <c r="BE26" s="162"/>
+      <c r="BF26" s="160"/>
+      <c r="BG26" s="160"/>
+      <c r="BH26" s="160"/>
+      <c r="BI26" s="160"/>
+      <c r="BJ26" s="160"/>
+      <c r="BK26" s="160"/>
+      <c r="BL26" s="160"/>
+      <c r="BM26" s="161"/>
       <c r="BN26" s="81"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7469,15 +7469,15 @@
       <c r="BB27" s="74"/>
       <c r="BC27" s="74"/>
       <c r="BD27" s="74"/>
-      <c r="BE27" s="197"/>
-      <c r="BF27" s="198"/>
-      <c r="BG27" s="198"/>
-      <c r="BH27" s="198"/>
-      <c r="BI27" s="198"/>
-      <c r="BJ27" s="198"/>
-      <c r="BK27" s="198"/>
-      <c r="BL27" s="198"/>
-      <c r="BM27" s="199"/>
+      <c r="BE27" s="162"/>
+      <c r="BF27" s="160"/>
+      <c r="BG27" s="160"/>
+      <c r="BH27" s="160"/>
+      <c r="BI27" s="160"/>
+      <c r="BJ27" s="160"/>
+      <c r="BK27" s="160"/>
+      <c r="BL27" s="160"/>
+      <c r="BM27" s="161"/>
       <c r="BN27" s="81"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7537,15 +7537,15 @@
       <c r="BB28" s="74"/>
       <c r="BC28" s="74"/>
       <c r="BD28" s="74"/>
-      <c r="BE28" s="197"/>
-      <c r="BF28" s="198"/>
-      <c r="BG28" s="198"/>
-      <c r="BH28" s="198"/>
-      <c r="BI28" s="198"/>
-      <c r="BJ28" s="198"/>
-      <c r="BK28" s="198"/>
-      <c r="BL28" s="198"/>
-      <c r="BM28" s="199"/>
+      <c r="BE28" s="162"/>
+      <c r="BF28" s="160"/>
+      <c r="BG28" s="160"/>
+      <c r="BH28" s="160"/>
+      <c r="BI28" s="160"/>
+      <c r="BJ28" s="160"/>
+      <c r="BK28" s="160"/>
+      <c r="BL28" s="160"/>
+      <c r="BM28" s="161"/>
       <c r="BN28" s="81"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7605,15 +7605,15 @@
       <c r="BB29" s="74"/>
       <c r="BC29" s="74"/>
       <c r="BD29" s="74"/>
-      <c r="BE29" s="197"/>
-      <c r="BF29" s="198"/>
-      <c r="BG29" s="198"/>
-      <c r="BH29" s="198"/>
-      <c r="BI29" s="198"/>
-      <c r="BJ29" s="198"/>
-      <c r="BK29" s="198"/>
-      <c r="BL29" s="198"/>
-      <c r="BM29" s="199"/>
+      <c r="BE29" s="162"/>
+      <c r="BF29" s="160"/>
+      <c r="BG29" s="160"/>
+      <c r="BH29" s="160"/>
+      <c r="BI29" s="160"/>
+      <c r="BJ29" s="160"/>
+      <c r="BK29" s="160"/>
+      <c r="BL29" s="160"/>
+      <c r="BM29" s="161"/>
       <c r="BN29" s="81"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7673,15 +7673,15 @@
       <c r="BB30" s="74"/>
       <c r="BC30" s="74"/>
       <c r="BD30" s="74"/>
-      <c r="BE30" s="198"/>
-      <c r="BF30" s="198"/>
-      <c r="BG30" s="198"/>
-      <c r="BH30" s="198"/>
-      <c r="BI30" s="198"/>
-      <c r="BJ30" s="198"/>
-      <c r="BK30" s="198"/>
-      <c r="BL30" s="198"/>
-      <c r="BM30" s="199"/>
+      <c r="BE30" s="160"/>
+      <c r="BF30" s="160"/>
+      <c r="BG30" s="160"/>
+      <c r="BH30" s="160"/>
+      <c r="BI30" s="160"/>
+      <c r="BJ30" s="160"/>
+      <c r="BK30" s="160"/>
+      <c r="BL30" s="160"/>
+      <c r="BM30" s="161"/>
       <c r="BN30" s="81"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7741,15 +7741,15 @@
       <c r="BB31" s="74"/>
       <c r="BC31" s="74"/>
       <c r="BD31" s="74"/>
-      <c r="BE31" s="198"/>
-      <c r="BF31" s="198"/>
-      <c r="BG31" s="198"/>
-      <c r="BH31" s="198"/>
-      <c r="BI31" s="198"/>
-      <c r="BJ31" s="198"/>
-      <c r="BK31" s="198"/>
-      <c r="BL31" s="198"/>
-      <c r="BM31" s="199"/>
+      <c r="BE31" s="160"/>
+      <c r="BF31" s="160"/>
+      <c r="BG31" s="160"/>
+      <c r="BH31" s="160"/>
+      <c r="BI31" s="160"/>
+      <c r="BJ31" s="160"/>
+      <c r="BK31" s="160"/>
+      <c r="BL31" s="160"/>
+      <c r="BM31" s="161"/>
       <c r="BN31" s="81"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7809,15 +7809,15 @@
       <c r="BB32" s="74"/>
       <c r="BC32" s="74"/>
       <c r="BD32" s="74"/>
-      <c r="BE32" s="198"/>
-      <c r="BF32" s="198"/>
-      <c r="BG32" s="198"/>
-      <c r="BH32" s="198"/>
-      <c r="BI32" s="198"/>
-      <c r="BJ32" s="198"/>
-      <c r="BK32" s="198"/>
-      <c r="BL32" s="198"/>
-      <c r="BM32" s="199"/>
+      <c r="BE32" s="160"/>
+      <c r="BF32" s="160"/>
+      <c r="BG32" s="160"/>
+      <c r="BH32" s="160"/>
+      <c r="BI32" s="160"/>
+      <c r="BJ32" s="160"/>
+      <c r="BK32" s="160"/>
+      <c r="BL32" s="160"/>
+      <c r="BM32" s="161"/>
       <c r="BN32" s="81"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7877,15 +7877,15 @@
       <c r="BB33" s="74"/>
       <c r="BC33" s="74"/>
       <c r="BD33" s="74"/>
-      <c r="BE33" s="197"/>
-      <c r="BF33" s="198"/>
-      <c r="BG33" s="198"/>
-      <c r="BH33" s="198"/>
-      <c r="BI33" s="198"/>
-      <c r="BJ33" s="198"/>
-      <c r="BK33" s="198"/>
-      <c r="BL33" s="198"/>
-      <c r="BM33" s="199"/>
+      <c r="BE33" s="162"/>
+      <c r="BF33" s="160"/>
+      <c r="BG33" s="160"/>
+      <c r="BH33" s="160"/>
+      <c r="BI33" s="160"/>
+      <c r="BJ33" s="160"/>
+      <c r="BK33" s="160"/>
+      <c r="BL33" s="160"/>
+      <c r="BM33" s="161"/>
       <c r="BN33" s="81"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7945,15 +7945,15 @@
       <c r="BB34" s="74"/>
       <c r="BC34" s="74"/>
       <c r="BD34" s="74"/>
-      <c r="BE34" s="198"/>
-      <c r="BF34" s="198"/>
-      <c r="BG34" s="198"/>
-      <c r="BH34" s="198"/>
-      <c r="BI34" s="198"/>
-      <c r="BJ34" s="198"/>
-      <c r="BK34" s="198"/>
-      <c r="BL34" s="198"/>
-      <c r="BM34" s="199"/>
+      <c r="BE34" s="160"/>
+      <c r="BF34" s="160"/>
+      <c r="BG34" s="160"/>
+      <c r="BH34" s="160"/>
+      <c r="BI34" s="160"/>
+      <c r="BJ34" s="160"/>
+      <c r="BK34" s="160"/>
+      <c r="BL34" s="160"/>
+      <c r="BM34" s="161"/>
       <c r="BN34" s="81"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8013,15 +8013,15 @@
       <c r="BB35" s="74"/>
       <c r="BC35" s="74"/>
       <c r="BD35" s="74"/>
-      <c r="BE35" s="198"/>
-      <c r="BF35" s="198"/>
-      <c r="BG35" s="198"/>
-      <c r="BH35" s="198"/>
-      <c r="BI35" s="198"/>
-      <c r="BJ35" s="198"/>
-      <c r="BK35" s="198"/>
-      <c r="BL35" s="198"/>
-      <c r="BM35" s="199"/>
+      <c r="BE35" s="160"/>
+      <c r="BF35" s="160"/>
+      <c r="BG35" s="160"/>
+      <c r="BH35" s="160"/>
+      <c r="BI35" s="160"/>
+      <c r="BJ35" s="160"/>
+      <c r="BK35" s="160"/>
+      <c r="BL35" s="160"/>
+      <c r="BM35" s="161"/>
       <c r="BN35" s="81"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8081,15 +8081,15 @@
       <c r="BB36" s="74"/>
       <c r="BC36" s="74"/>
       <c r="BD36" s="74"/>
-      <c r="BE36" s="198"/>
-      <c r="BF36" s="198"/>
-      <c r="BG36" s="198"/>
-      <c r="BH36" s="198"/>
-      <c r="BI36" s="198"/>
-      <c r="BJ36" s="198"/>
-      <c r="BK36" s="198"/>
-      <c r="BL36" s="198"/>
-      <c r="BM36" s="199"/>
+      <c r="BE36" s="160"/>
+      <c r="BF36" s="160"/>
+      <c r="BG36" s="160"/>
+      <c r="BH36" s="160"/>
+      <c r="BI36" s="160"/>
+      <c r="BJ36" s="160"/>
+      <c r="BK36" s="160"/>
+      <c r="BL36" s="160"/>
+      <c r="BM36" s="161"/>
       <c r="BN36" s="81"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8149,15 +8149,15 @@
       <c r="BB37" s="74"/>
       <c r="BC37" s="74"/>
       <c r="BD37" s="74"/>
-      <c r="BE37" s="198"/>
-      <c r="BF37" s="198"/>
-      <c r="BG37" s="198"/>
-      <c r="BH37" s="198"/>
-      <c r="BI37" s="198"/>
-      <c r="BJ37" s="198"/>
-      <c r="BK37" s="198"/>
-      <c r="BL37" s="198"/>
-      <c r="BM37" s="199"/>
+      <c r="BE37" s="160"/>
+      <c r="BF37" s="160"/>
+      <c r="BG37" s="160"/>
+      <c r="BH37" s="160"/>
+      <c r="BI37" s="160"/>
+      <c r="BJ37" s="160"/>
+      <c r="BK37" s="160"/>
+      <c r="BL37" s="160"/>
+      <c r="BM37" s="161"/>
       <c r="BN37" s="81"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8217,15 +8217,15 @@
       <c r="BB38" s="74"/>
       <c r="BC38" s="74"/>
       <c r="BD38" s="74"/>
-      <c r="BE38" s="198"/>
-      <c r="BF38" s="198"/>
-      <c r="BG38" s="198"/>
-      <c r="BH38" s="198"/>
-      <c r="BI38" s="198"/>
-      <c r="BJ38" s="198"/>
-      <c r="BK38" s="198"/>
-      <c r="BL38" s="198"/>
-      <c r="BM38" s="199"/>
+      <c r="BE38" s="160"/>
+      <c r="BF38" s="160"/>
+      <c r="BG38" s="160"/>
+      <c r="BH38" s="160"/>
+      <c r="BI38" s="160"/>
+      <c r="BJ38" s="160"/>
+      <c r="BK38" s="160"/>
+      <c r="BL38" s="160"/>
+      <c r="BM38" s="161"/>
       <c r="BN38" s="81"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8285,15 +8285,15 @@
       <c r="BB39" s="74"/>
       <c r="BC39" s="74"/>
       <c r="BD39" s="74"/>
-      <c r="BE39" s="198"/>
-      <c r="BF39" s="198"/>
-      <c r="BG39" s="198"/>
-      <c r="BH39" s="198"/>
-      <c r="BI39" s="198"/>
-      <c r="BJ39" s="198"/>
-      <c r="BK39" s="198"/>
-      <c r="BL39" s="198"/>
-      <c r="BM39" s="199"/>
+      <c r="BE39" s="160"/>
+      <c r="BF39" s="160"/>
+      <c r="BG39" s="160"/>
+      <c r="BH39" s="160"/>
+      <c r="BI39" s="160"/>
+      <c r="BJ39" s="160"/>
+      <c r="BK39" s="160"/>
+      <c r="BL39" s="160"/>
+      <c r="BM39" s="161"/>
       <c r="BN39" s="81"/>
     </row>
     <row r="40" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8353,15 +8353,15 @@
       <c r="BB40" s="74"/>
       <c r="BC40" s="74"/>
       <c r="BD40" s="74"/>
-      <c r="BE40" s="198"/>
-      <c r="BF40" s="198"/>
-      <c r="BG40" s="198"/>
-      <c r="BH40" s="198"/>
-      <c r="BI40" s="198"/>
-      <c r="BJ40" s="198"/>
-      <c r="BK40" s="198"/>
-      <c r="BL40" s="198"/>
-      <c r="BM40" s="199"/>
+      <c r="BE40" s="160"/>
+      <c r="BF40" s="160"/>
+      <c r="BG40" s="160"/>
+      <c r="BH40" s="160"/>
+      <c r="BI40" s="160"/>
+      <c r="BJ40" s="160"/>
+      <c r="BK40" s="160"/>
+      <c r="BL40" s="160"/>
+      <c r="BM40" s="161"/>
       <c r="BN40" s="81"/>
     </row>
     <row r="41" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8421,15 +8421,15 @@
       <c r="BB41" s="74"/>
       <c r="BC41" s="74"/>
       <c r="BD41" s="74"/>
-      <c r="BE41" s="198"/>
-      <c r="BF41" s="198"/>
-      <c r="BG41" s="198"/>
-      <c r="BH41" s="198"/>
-      <c r="BI41" s="198"/>
-      <c r="BJ41" s="198"/>
-      <c r="BK41" s="198"/>
-      <c r="BL41" s="198"/>
-      <c r="BM41" s="199"/>
+      <c r="BE41" s="160"/>
+      <c r="BF41" s="160"/>
+      <c r="BG41" s="160"/>
+      <c r="BH41" s="160"/>
+      <c r="BI41" s="160"/>
+      <c r="BJ41" s="160"/>
+      <c r="BK41" s="160"/>
+      <c r="BL41" s="160"/>
+      <c r="BM41" s="161"/>
       <c r="BN41" s="81"/>
     </row>
     <row r="42" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8489,15 +8489,15 @@
       <c r="BB42" s="74"/>
       <c r="BC42" s="74"/>
       <c r="BD42" s="74"/>
-      <c r="BE42" s="198"/>
-      <c r="BF42" s="198"/>
-      <c r="BG42" s="198"/>
-      <c r="BH42" s="198"/>
-      <c r="BI42" s="198"/>
-      <c r="BJ42" s="198"/>
-      <c r="BK42" s="198"/>
-      <c r="BL42" s="198"/>
-      <c r="BM42" s="199"/>
+      <c r="BE42" s="160"/>
+      <c r="BF42" s="160"/>
+      <c r="BG42" s="160"/>
+      <c r="BH42" s="160"/>
+      <c r="BI42" s="160"/>
+      <c r="BJ42" s="160"/>
+      <c r="BK42" s="160"/>
+      <c r="BL42" s="160"/>
+      <c r="BM42" s="161"/>
       <c r="BN42" s="81"/>
     </row>
     <row r="43" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8557,15 +8557,15 @@
       <c r="BB43" s="103"/>
       <c r="BC43" s="103"/>
       <c r="BD43" s="103"/>
-      <c r="BE43" s="200"/>
-      <c r="BF43" s="200"/>
-      <c r="BG43" s="200"/>
-      <c r="BH43" s="200"/>
-      <c r="BI43" s="200"/>
-      <c r="BJ43" s="200"/>
-      <c r="BK43" s="200"/>
-      <c r="BL43" s="200"/>
-      <c r="BM43" s="201"/>
+      <c r="BE43" s="158"/>
+      <c r="BF43" s="158"/>
+      <c r="BG43" s="158"/>
+      <c r="BH43" s="158"/>
+      <c r="BI43" s="158"/>
+      <c r="BJ43" s="158"/>
+      <c r="BK43" s="158"/>
+      <c r="BL43" s="158"/>
+      <c r="BM43" s="159"/>
       <c r="BN43" s="104"/>
     </row>
     <row r="44" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8638,27 +8638,11 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="BE43:BM43"/>
-    <mergeCell ref="BE38:BM38"/>
-    <mergeCell ref="BE39:BM39"/>
-    <mergeCell ref="BE40:BM40"/>
-    <mergeCell ref="BE41:BM41"/>
-    <mergeCell ref="BE42:BM42"/>
-    <mergeCell ref="BE33:BM33"/>
-    <mergeCell ref="BE34:BM34"/>
-    <mergeCell ref="BE35:BM35"/>
-    <mergeCell ref="BE36:BM36"/>
-    <mergeCell ref="BE37:BM37"/>
-    <mergeCell ref="BE28:BM28"/>
-    <mergeCell ref="BE29:BM29"/>
-    <mergeCell ref="BE30:BM30"/>
-    <mergeCell ref="BE31:BM31"/>
-    <mergeCell ref="BE32:BM32"/>
-    <mergeCell ref="AW6:BM7"/>
-    <mergeCell ref="BE8:BM8"/>
-    <mergeCell ref="BE9:BM9"/>
-    <mergeCell ref="BE26:BM26"/>
-    <mergeCell ref="BE27:BM27"/>
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
     <mergeCell ref="AW4:AY4"/>
     <mergeCell ref="AZ4:BE4"/>
     <mergeCell ref="BF4:BH4"/>
@@ -8671,11 +8655,27 @@
     <mergeCell ref="AZ5:BE5"/>
     <mergeCell ref="BF5:BH5"/>
     <mergeCell ref="BI5:BN5"/>
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="AW6:BM7"/>
+    <mergeCell ref="BE8:BM8"/>
+    <mergeCell ref="BE9:BM9"/>
+    <mergeCell ref="BE26:BM26"/>
+    <mergeCell ref="BE27:BM27"/>
+    <mergeCell ref="BE28:BM28"/>
+    <mergeCell ref="BE29:BM29"/>
+    <mergeCell ref="BE30:BM30"/>
+    <mergeCell ref="BE31:BM31"/>
+    <mergeCell ref="BE32:BM32"/>
+    <mergeCell ref="BE33:BM33"/>
+    <mergeCell ref="BE34:BM34"/>
+    <mergeCell ref="BE35:BM35"/>
+    <mergeCell ref="BE36:BM36"/>
+    <mergeCell ref="BE37:BM37"/>
+    <mergeCell ref="BE43:BM43"/>
+    <mergeCell ref="BE38:BM38"/>
+    <mergeCell ref="BE39:BM39"/>
+    <mergeCell ref="BE40:BM40"/>
+    <mergeCell ref="BE41:BM41"/>
+    <mergeCell ref="BE42:BM42"/>
   </mergeCells>
   <phoneticPr fontId="47"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8891,34 +8891,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="241" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
-      <c r="M1" s="208"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="208"/>
-      <c r="P1" s="208"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="208"/>
-      <c r="S1" s="208"/>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="208"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="242"/>
+      <c r="O1" s="242"/>
+      <c r="P1" s="242"/>
+      <c r="Q1" s="242"/>
+      <c r="R1" s="242"/>
+      <c r="S1" s="242"/>
+      <c r="T1" s="242"/>
+      <c r="U1" s="242"/>
+      <c r="V1" s="242"/>
+      <c r="W1" s="242"/>
+      <c r="X1" s="242"/>
+      <c r="Y1" s="242"/>
+      <c r="Z1" s="242"/>
       <c r="AQ1" s="25"/>
       <c r="AR1" s="25"/>
       <c r="AS1" s="25"/>
@@ -8945,166 +8945,166 @@
       <c r="BN1" s="27"/>
     </row>
     <row r="2" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="243" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="211"/>
-      <c r="G2" s="212" t="s">
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="245"/>
+      <c r="G2" s="246" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="213"/>
-      <c r="K2" s="213"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="213"/>
-      <c r="N2" s="214"/>
-      <c r="O2" s="215" t="s">
+      <c r="H2" s="247"/>
+      <c r="I2" s="247"/>
+      <c r="J2" s="247"/>
+      <c r="K2" s="247"/>
+      <c r="L2" s="247"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="248"/>
+      <c r="O2" s="249" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="216"/>
-      <c r="Q2" s="216"/>
-      <c r="R2" s="216"/>
-      <c r="S2" s="216"/>
-      <c r="T2" s="217"/>
-      <c r="U2" s="218" t="s">
+      <c r="P2" s="250"/>
+      <c r="Q2" s="250"/>
+      <c r="R2" s="250"/>
+      <c r="S2" s="250"/>
+      <c r="T2" s="251"/>
+      <c r="U2" s="252" t="s">
         <v>80</v>
       </c>
-      <c r="V2" s="219"/>
-      <c r="W2" s="219"/>
-      <c r="X2" s="219"/>
-      <c r="Y2" s="219"/>
-      <c r="Z2" s="219"/>
-      <c r="AA2" s="219"/>
-      <c r="AB2" s="219"/>
-      <c r="AC2" s="219"/>
-      <c r="AD2" s="219"/>
-      <c r="AE2" s="219"/>
-      <c r="AF2" s="219"/>
-      <c r="AG2" s="219"/>
-      <c r="AH2" s="219"/>
-      <c r="AI2" s="219"/>
-      <c r="AJ2" s="219"/>
-      <c r="AK2" s="219"/>
-      <c r="AL2" s="219"/>
-      <c r="AM2" s="219"/>
-      <c r="AN2" s="219"/>
-      <c r="AO2" s="219"/>
-      <c r="AP2" s="219"/>
-      <c r="AQ2" s="219"/>
-      <c r="AR2" s="219"/>
-      <c r="AS2" s="219"/>
-      <c r="AT2" s="219"/>
-      <c r="AU2" s="219"/>
-      <c r="AV2" s="220"/>
-      <c r="AW2" s="223" t="s">
+      <c r="V2" s="253"/>
+      <c r="W2" s="253"/>
+      <c r="X2" s="253"/>
+      <c r="Y2" s="253"/>
+      <c r="Z2" s="253"/>
+      <c r="AA2" s="253"/>
+      <c r="AB2" s="253"/>
+      <c r="AC2" s="253"/>
+      <c r="AD2" s="253"/>
+      <c r="AE2" s="253"/>
+      <c r="AF2" s="253"/>
+      <c r="AG2" s="253"/>
+      <c r="AH2" s="253"/>
+      <c r="AI2" s="253"/>
+      <c r="AJ2" s="253"/>
+      <c r="AK2" s="253"/>
+      <c r="AL2" s="253"/>
+      <c r="AM2" s="253"/>
+      <c r="AN2" s="253"/>
+      <c r="AO2" s="253"/>
+      <c r="AP2" s="253"/>
+      <c r="AQ2" s="253"/>
+      <c r="AR2" s="253"/>
+      <c r="AS2" s="253"/>
+      <c r="AT2" s="253"/>
+      <c r="AU2" s="253"/>
+      <c r="AV2" s="254"/>
+      <c r="AW2" s="225" t="s">
         <v>11</v>
       </c>
-      <c r="AX2" s="224"/>
-      <c r="AY2" s="225"/>
-      <c r="AZ2" s="221">
+      <c r="AX2" s="226"/>
+      <c r="AY2" s="227"/>
+      <c r="AZ2" s="223">
         <v>45427</v>
       </c>
-      <c r="BA2" s="222"/>
-      <c r="BB2" s="222"/>
-      <c r="BC2" s="222"/>
-      <c r="BD2" s="222"/>
-      <c r="BE2" s="222"/>
-      <c r="BF2" s="223" t="s">
+      <c r="BA2" s="224"/>
+      <c r="BB2" s="224"/>
+      <c r="BC2" s="224"/>
+      <c r="BD2" s="224"/>
+      <c r="BE2" s="224"/>
+      <c r="BF2" s="225" t="s">
         <v>12</v>
       </c>
-      <c r="BG2" s="224"/>
-      <c r="BH2" s="225"/>
-      <c r="BI2" s="226" t="s">
+      <c r="BG2" s="226"/>
+      <c r="BH2" s="227"/>
+      <c r="BI2" s="228" t="s">
         <v>83</v>
       </c>
-      <c r="BJ2" s="222"/>
-      <c r="BK2" s="222"/>
-      <c r="BL2" s="222"/>
-      <c r="BM2" s="222"/>
-      <c r="BN2" s="227"/>
+      <c r="BJ2" s="224"/>
+      <c r="BK2" s="224"/>
+      <c r="BL2" s="224"/>
+      <c r="BM2" s="224"/>
+      <c r="BN2" s="229"/>
     </row>
     <row r="3" spans="1:66" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="228" t="s">
+      <c r="A3" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="229"/>
-      <c r="C3" s="229"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="229"/>
-      <c r="F3" s="230"/>
-      <c r="G3" s="231" t="s">
+      <c r="B3" s="231"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="231"/>
+      <c r="E3" s="231"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="233" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="231"/>
-      <c r="I3" s="231"/>
-      <c r="J3" s="231"/>
-      <c r="K3" s="231"/>
-      <c r="L3" s="231"/>
-      <c r="M3" s="231"/>
-      <c r="N3" s="232"/>
-      <c r="O3" s="228" t="s">
+      <c r="H3" s="233"/>
+      <c r="I3" s="233"/>
+      <c r="J3" s="233"/>
+      <c r="K3" s="233"/>
+      <c r="L3" s="233"/>
+      <c r="M3" s="233"/>
+      <c r="N3" s="234"/>
+      <c r="O3" s="230" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="229"/>
-      <c r="Q3" s="229"/>
-      <c r="R3" s="229"/>
-      <c r="S3" s="229"/>
-      <c r="T3" s="230"/>
-      <c r="U3" s="233"/>
-      <c r="V3" s="234"/>
-      <c r="W3" s="234"/>
-      <c r="X3" s="234"/>
-      <c r="Y3" s="234"/>
-      <c r="Z3" s="234"/>
-      <c r="AA3" s="234"/>
-      <c r="AB3" s="234"/>
-      <c r="AC3" s="234"/>
-      <c r="AD3" s="234"/>
-      <c r="AE3" s="234"/>
-      <c r="AF3" s="234"/>
-      <c r="AG3" s="234"/>
-      <c r="AH3" s="234"/>
-      <c r="AI3" s="234"/>
-      <c r="AJ3" s="234"/>
-      <c r="AK3" s="234"/>
-      <c r="AL3" s="234"/>
-      <c r="AM3" s="234"/>
-      <c r="AN3" s="234"/>
-      <c r="AO3" s="234"/>
-      <c r="AP3" s="234"/>
-      <c r="AQ3" s="234"/>
-      <c r="AR3" s="234"/>
-      <c r="AS3" s="234"/>
-      <c r="AT3" s="234"/>
-      <c r="AU3" s="234"/>
-      <c r="AV3" s="235"/>
-      <c r="AW3" s="236" t="s">
+      <c r="P3" s="231"/>
+      <c r="Q3" s="231"/>
+      <c r="R3" s="231"/>
+      <c r="S3" s="231"/>
+      <c r="T3" s="232"/>
+      <c r="U3" s="235"/>
+      <c r="V3" s="236"/>
+      <c r="W3" s="236"/>
+      <c r="X3" s="236"/>
+      <c r="Y3" s="236"/>
+      <c r="Z3" s="236"/>
+      <c r="AA3" s="236"/>
+      <c r="AB3" s="236"/>
+      <c r="AC3" s="236"/>
+      <c r="AD3" s="236"/>
+      <c r="AE3" s="236"/>
+      <c r="AF3" s="236"/>
+      <c r="AG3" s="236"/>
+      <c r="AH3" s="236"/>
+      <c r="AI3" s="236"/>
+      <c r="AJ3" s="236"/>
+      <c r="AK3" s="236"/>
+      <c r="AL3" s="236"/>
+      <c r="AM3" s="236"/>
+      <c r="AN3" s="236"/>
+      <c r="AO3" s="236"/>
+      <c r="AP3" s="236"/>
+      <c r="AQ3" s="236"/>
+      <c r="AR3" s="236"/>
+      <c r="AS3" s="236"/>
+      <c r="AT3" s="236"/>
+      <c r="AU3" s="236"/>
+      <c r="AV3" s="237"/>
+      <c r="AW3" s="238" t="s">
         <v>16</v>
       </c>
-      <c r="AX3" s="237"/>
-      <c r="AY3" s="238"/>
-      <c r="AZ3" s="237"/>
-      <c r="BA3" s="237"/>
-      <c r="BB3" s="237"/>
-      <c r="BC3" s="237"/>
-      <c r="BD3" s="237"/>
-      <c r="BE3" s="237"/>
-      <c r="BF3" s="236" t="s">
+      <c r="AX3" s="239"/>
+      <c r="AY3" s="240"/>
+      <c r="AZ3" s="239"/>
+      <c r="BA3" s="239"/>
+      <c r="BB3" s="239"/>
+      <c r="BC3" s="239"/>
+      <c r="BD3" s="239"/>
+      <c r="BE3" s="239"/>
+      <c r="BF3" s="238" t="s">
         <v>17</v>
       </c>
-      <c r="BG3" s="237"/>
-      <c r="BH3" s="238"/>
-      <c r="BI3" s="237"/>
-      <c r="BJ3" s="234"/>
-      <c r="BK3" s="234"/>
-      <c r="BL3" s="234"/>
-      <c r="BM3" s="234"/>
-      <c r="BN3" s="235"/>
+      <c r="BG3" s="239"/>
+      <c r="BH3" s="240"/>
+      <c r="BI3" s="239"/>
+      <c r="BJ3" s="236"/>
+      <c r="BK3" s="236"/>
+      <c r="BL3" s="236"/>
+      <c r="BM3" s="236"/>
+      <c r="BN3" s="237"/>
     </row>
     <row r="4" spans="1:66" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
@@ -9148,36 +9148,36 @@
       <c r="AM4" s="29"/>
       <c r="AN4" s="29"/>
       <c r="AO4" s="29"/>
-      <c r="AP4" s="239" t="s">
+      <c r="AP4" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="AQ4" s="240"/>
-      <c r="AR4" s="240"/>
-      <c r="AS4" s="241" t="s">
+      <c r="AQ4" s="213"/>
+      <c r="AR4" s="213"/>
+      <c r="AS4" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="AT4" s="241"/>
-      <c r="AU4" s="241"/>
-      <c r="AV4" s="241"/>
-      <c r="AW4" s="241"/>
-      <c r="AX4" s="241"/>
-      <c r="AY4" s="241"/>
-      <c r="AZ4" s="241"/>
-      <c r="BA4" s="241"/>
-      <c r="BB4" s="241"/>
-      <c r="BC4" s="241"/>
-      <c r="BD4" s="241"/>
-      <c r="BE4" s="242" t="s">
+      <c r="AT4" s="214"/>
+      <c r="AU4" s="214"/>
+      <c r="AV4" s="214"/>
+      <c r="AW4" s="214"/>
+      <c r="AX4" s="214"/>
+      <c r="AY4" s="214"/>
+      <c r="AZ4" s="214"/>
+      <c r="BA4" s="214"/>
+      <c r="BB4" s="214"/>
+      <c r="BC4" s="214"/>
+      <c r="BD4" s="214"/>
+      <c r="BE4" s="215" t="s">
         <v>88</v>
       </c>
-      <c r="BF4" s="240"/>
-      <c r="BG4" s="240"/>
-      <c r="BH4" s="240"/>
-      <c r="BI4" s="240"/>
-      <c r="BJ4" s="240"/>
-      <c r="BK4" s="240"/>
-      <c r="BL4" s="240"/>
-      <c r="BM4" s="240"/>
+      <c r="BF4" s="213"/>
+      <c r="BG4" s="213"/>
+      <c r="BH4" s="213"/>
+      <c r="BI4" s="213"/>
+      <c r="BJ4" s="213"/>
+      <c r="BK4" s="213"/>
+      <c r="BL4" s="213"/>
+      <c r="BM4" s="213"/>
       <c r="BN4" s="30"/>
     </row>
     <row r="5" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9222,36 +9222,36 @@
       <c r="AM5" s="29"/>
       <c r="AN5" s="29"/>
       <c r="AO5" s="29"/>
-      <c r="AP5" s="243" t="s">
+      <c r="AP5" s="216" t="s">
         <v>20</v>
       </c>
-      <c r="AQ5" s="244"/>
-      <c r="AR5" s="245"/>
-      <c r="AS5" s="246" t="s">
+      <c r="AQ5" s="217"/>
+      <c r="AR5" s="218"/>
+      <c r="AS5" s="219" t="s">
         <v>80</v>
       </c>
-      <c r="AT5" s="247"/>
-      <c r="AU5" s="247"/>
-      <c r="AV5" s="247"/>
-      <c r="AW5" s="247"/>
-      <c r="AX5" s="247"/>
-      <c r="AY5" s="247"/>
-      <c r="AZ5" s="247"/>
-      <c r="BA5" s="247"/>
-      <c r="BB5" s="247"/>
-      <c r="BC5" s="247"/>
-      <c r="BD5" s="248"/>
-      <c r="BE5" s="249" t="s">
+      <c r="AT5" s="220"/>
+      <c r="AU5" s="220"/>
+      <c r="AV5" s="220"/>
+      <c r="AW5" s="220"/>
+      <c r="AX5" s="220"/>
+      <c r="AY5" s="220"/>
+      <c r="AZ5" s="220"/>
+      <c r="BA5" s="220"/>
+      <c r="BB5" s="220"/>
+      <c r="BC5" s="220"/>
+      <c r="BD5" s="221"/>
+      <c r="BE5" s="222" t="s">
         <v>21</v>
       </c>
-      <c r="BF5" s="247"/>
-      <c r="BG5" s="247"/>
-      <c r="BH5" s="247"/>
-      <c r="BI5" s="247"/>
-      <c r="BJ5" s="247"/>
-      <c r="BK5" s="247"/>
-      <c r="BL5" s="247"/>
-      <c r="BM5" s="248"/>
+      <c r="BF5" s="220"/>
+      <c r="BG5" s="220"/>
+      <c r="BH5" s="220"/>
+      <c r="BI5" s="220"/>
+      <c r="BJ5" s="220"/>
+      <c r="BK5" s="220"/>
+      <c r="BL5" s="220"/>
+      <c r="BM5" s="221"/>
       <c r="BN5" s="30"/>
     </row>
     <row r="6" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9296,36 +9296,36 @@
       <c r="AM6" s="29"/>
       <c r="AN6" s="29"/>
       <c r="AO6" s="29"/>
-      <c r="AP6" s="250" t="s">
+      <c r="AP6" s="202" t="s">
         <v>22</v>
       </c>
-      <c r="AQ6" s="251"/>
-      <c r="AR6" s="252"/>
-      <c r="AS6" s="202" t="s">
+      <c r="AQ6" s="208"/>
+      <c r="AR6" s="209"/>
+      <c r="AS6" s="206" t="s">
         <v>89</v>
       </c>
-      <c r="AT6" s="203"/>
-      <c r="AU6" s="203"/>
-      <c r="AV6" s="203"/>
-      <c r="AW6" s="203"/>
-      <c r="AX6" s="203"/>
-      <c r="AY6" s="203"/>
-      <c r="AZ6" s="203"/>
-      <c r="BA6" s="203"/>
-      <c r="BB6" s="203"/>
-      <c r="BC6" s="203"/>
-      <c r="BD6" s="204"/>
+      <c r="AT6" s="210"/>
+      <c r="AU6" s="210"/>
+      <c r="AV6" s="210"/>
+      <c r="AW6" s="210"/>
+      <c r="AX6" s="210"/>
+      <c r="AY6" s="210"/>
+      <c r="AZ6" s="210"/>
+      <c r="BA6" s="210"/>
+      <c r="BB6" s="210"/>
+      <c r="BC6" s="210"/>
+      <c r="BD6" s="211"/>
       <c r="BE6" s="205" t="s">
         <v>54</v>
       </c>
-      <c r="BF6" s="202"/>
-      <c r="BG6" s="202"/>
-      <c r="BH6" s="202"/>
-      <c r="BI6" s="202"/>
-      <c r="BJ6" s="202"/>
-      <c r="BK6" s="202"/>
-      <c r="BL6" s="202"/>
-      <c r="BM6" s="206"/>
+      <c r="BF6" s="206"/>
+      <c r="BG6" s="206"/>
+      <c r="BH6" s="206"/>
+      <c r="BI6" s="206"/>
+      <c r="BJ6" s="206"/>
+      <c r="BK6" s="206"/>
+      <c r="BL6" s="206"/>
+      <c r="BM6" s="207"/>
       <c r="BN6" s="30"/>
     </row>
     <row r="7" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9370,36 +9370,36 @@
       <c r="AM7" s="29"/>
       <c r="AN7" s="29"/>
       <c r="AO7" s="29"/>
-      <c r="AP7" s="250" t="s">
+      <c r="AP7" s="202" t="s">
         <v>91</v>
       </c>
-      <c r="AQ7" s="251"/>
-      <c r="AR7" s="252"/>
-      <c r="AS7" s="202" t="s">
+      <c r="AQ7" s="208"/>
+      <c r="AR7" s="209"/>
+      <c r="AS7" s="206" t="s">
         <v>90</v>
       </c>
-      <c r="AT7" s="203"/>
-      <c r="AU7" s="203"/>
-      <c r="AV7" s="203"/>
-      <c r="AW7" s="203"/>
-      <c r="AX7" s="203"/>
-      <c r="AY7" s="203"/>
-      <c r="AZ7" s="203"/>
-      <c r="BA7" s="203"/>
-      <c r="BB7" s="203"/>
-      <c r="BC7" s="203"/>
-      <c r="BD7" s="204"/>
+      <c r="AT7" s="210"/>
+      <c r="AU7" s="210"/>
+      <c r="AV7" s="210"/>
+      <c r="AW7" s="210"/>
+      <c r="AX7" s="210"/>
+      <c r="AY7" s="210"/>
+      <c r="AZ7" s="210"/>
+      <c r="BA7" s="210"/>
+      <c r="BB7" s="210"/>
+      <c r="BC7" s="210"/>
+      <c r="BD7" s="211"/>
       <c r="BE7" s="205" t="s">
         <v>54</v>
       </c>
-      <c r="BF7" s="202"/>
-      <c r="BG7" s="202"/>
-      <c r="BH7" s="202"/>
-      <c r="BI7" s="202"/>
-      <c r="BJ7" s="202"/>
-      <c r="BK7" s="202"/>
-      <c r="BL7" s="202"/>
-      <c r="BM7" s="206"/>
+      <c r="BF7" s="206"/>
+      <c r="BG7" s="206"/>
+      <c r="BH7" s="206"/>
+      <c r="BI7" s="206"/>
+      <c r="BJ7" s="206"/>
+      <c r="BK7" s="206"/>
+      <c r="BL7" s="206"/>
+      <c r="BM7" s="207"/>
       <c r="BN7" s="132"/>
     </row>
     <row r="8" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9444,36 +9444,36 @@
       <c r="AM8" s="29"/>
       <c r="AN8" s="29"/>
       <c r="AO8" s="29"/>
-      <c r="AP8" s="250" t="s">
+      <c r="AP8" s="202" t="s">
         <v>92</v>
       </c>
-      <c r="AQ8" s="251"/>
-      <c r="AR8" s="252"/>
-      <c r="AS8" s="202" t="s">
+      <c r="AQ8" s="208"/>
+      <c r="AR8" s="209"/>
+      <c r="AS8" s="206" t="s">
         <v>102</v>
       </c>
-      <c r="AT8" s="203"/>
-      <c r="AU8" s="203"/>
-      <c r="AV8" s="203"/>
-      <c r="AW8" s="203"/>
-      <c r="AX8" s="203"/>
-      <c r="AY8" s="203"/>
-      <c r="AZ8" s="203"/>
-      <c r="BA8" s="203"/>
-      <c r="BB8" s="203"/>
-      <c r="BC8" s="203"/>
-      <c r="BD8" s="204"/>
+      <c r="AT8" s="210"/>
+      <c r="AU8" s="210"/>
+      <c r="AV8" s="210"/>
+      <c r="AW8" s="210"/>
+      <c r="AX8" s="210"/>
+      <c r="AY8" s="210"/>
+      <c r="AZ8" s="210"/>
+      <c r="BA8" s="210"/>
+      <c r="BB8" s="210"/>
+      <c r="BC8" s="210"/>
+      <c r="BD8" s="211"/>
       <c r="BE8" s="205" t="s">
         <v>54</v>
       </c>
-      <c r="BF8" s="202"/>
-      <c r="BG8" s="202"/>
-      <c r="BH8" s="202"/>
-      <c r="BI8" s="202"/>
-      <c r="BJ8" s="202"/>
-      <c r="BK8" s="202"/>
-      <c r="BL8" s="202"/>
-      <c r="BM8" s="206"/>
+      <c r="BF8" s="206"/>
+      <c r="BG8" s="206"/>
+      <c r="BH8" s="206"/>
+      <c r="BI8" s="206"/>
+      <c r="BJ8" s="206"/>
+      <c r="BK8" s="206"/>
+      <c r="BL8" s="206"/>
+      <c r="BM8" s="207"/>
       <c r="BN8" s="30"/>
     </row>
     <row r="9" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9518,36 +9518,36 @@
       <c r="AM9" s="29"/>
       <c r="AN9" s="29"/>
       <c r="AO9" s="29"/>
-      <c r="AP9" s="250" t="s">
+      <c r="AP9" s="202" t="s">
         <v>93</v>
       </c>
-      <c r="AQ9" s="251"/>
-      <c r="AR9" s="252"/>
-      <c r="AS9" s="202" t="s">
+      <c r="AQ9" s="208"/>
+      <c r="AR9" s="209"/>
+      <c r="AS9" s="206" t="s">
         <v>107</v>
       </c>
-      <c r="AT9" s="203"/>
-      <c r="AU9" s="203"/>
-      <c r="AV9" s="203"/>
-      <c r="AW9" s="203"/>
-      <c r="AX9" s="203"/>
-      <c r="AY9" s="203"/>
-      <c r="AZ9" s="203"/>
-      <c r="BA9" s="203"/>
-      <c r="BB9" s="203"/>
-      <c r="BC9" s="203"/>
-      <c r="BD9" s="204"/>
+      <c r="AT9" s="210"/>
+      <c r="AU9" s="210"/>
+      <c r="AV9" s="210"/>
+      <c r="AW9" s="210"/>
+      <c r="AX9" s="210"/>
+      <c r="AY9" s="210"/>
+      <c r="AZ9" s="210"/>
+      <c r="BA9" s="210"/>
+      <c r="BB9" s="210"/>
+      <c r="BC9" s="210"/>
+      <c r="BD9" s="211"/>
       <c r="BE9" s="205" t="s">
         <v>54</v>
       </c>
-      <c r="BF9" s="202"/>
-      <c r="BG9" s="202"/>
-      <c r="BH9" s="202"/>
-      <c r="BI9" s="202"/>
-      <c r="BJ9" s="202"/>
-      <c r="BK9" s="202"/>
-      <c r="BL9" s="202"/>
-      <c r="BM9" s="206"/>
+      <c r="BF9" s="206"/>
+      <c r="BG9" s="206"/>
+      <c r="BH9" s="206"/>
+      <c r="BI9" s="206"/>
+      <c r="BJ9" s="206"/>
+      <c r="BK9" s="206"/>
+      <c r="BL9" s="206"/>
+      <c r="BM9" s="207"/>
       <c r="BN9" s="132"/>
     </row>
     <row r="10" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9592,36 +9592,36 @@
       <c r="AM10" s="29"/>
       <c r="AN10" s="29"/>
       <c r="AO10" s="29"/>
-      <c r="AP10" s="250" t="s">
+      <c r="AP10" s="202" t="s">
         <v>94</v>
       </c>
-      <c r="AQ10" s="251"/>
-      <c r="AR10" s="252"/>
-      <c r="AS10" s="202" t="s">
+      <c r="AQ10" s="208"/>
+      <c r="AR10" s="209"/>
+      <c r="AS10" s="206" t="s">
         <v>103</v>
       </c>
-      <c r="AT10" s="203"/>
-      <c r="AU10" s="203"/>
-      <c r="AV10" s="203"/>
-      <c r="AW10" s="203"/>
-      <c r="AX10" s="203"/>
-      <c r="AY10" s="203"/>
-      <c r="AZ10" s="203"/>
-      <c r="BA10" s="203"/>
-      <c r="BB10" s="203"/>
-      <c r="BC10" s="203"/>
-      <c r="BD10" s="204"/>
+      <c r="AT10" s="210"/>
+      <c r="AU10" s="210"/>
+      <c r="AV10" s="210"/>
+      <c r="AW10" s="210"/>
+      <c r="AX10" s="210"/>
+      <c r="AY10" s="210"/>
+      <c r="AZ10" s="210"/>
+      <c r="BA10" s="210"/>
+      <c r="BB10" s="210"/>
+      <c r="BC10" s="210"/>
+      <c r="BD10" s="211"/>
       <c r="BE10" s="205" t="s">
         <v>54</v>
       </c>
-      <c r="BF10" s="202"/>
-      <c r="BG10" s="202"/>
-      <c r="BH10" s="202"/>
-      <c r="BI10" s="202"/>
-      <c r="BJ10" s="202"/>
-      <c r="BK10" s="202"/>
-      <c r="BL10" s="202"/>
-      <c r="BM10" s="206"/>
+      <c r="BF10" s="206"/>
+      <c r="BG10" s="206"/>
+      <c r="BH10" s="206"/>
+      <c r="BI10" s="206"/>
+      <c r="BJ10" s="206"/>
+      <c r="BK10" s="206"/>
+      <c r="BL10" s="206"/>
+      <c r="BM10" s="207"/>
       <c r="BN10" s="30"/>
     </row>
     <row r="11" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9666,36 +9666,36 @@
       <c r="AM11" s="29"/>
       <c r="AN11" s="29"/>
       <c r="AO11" s="29"/>
-      <c r="AP11" s="250" t="s">
+      <c r="AP11" s="202" t="s">
         <v>95</v>
       </c>
-      <c r="AQ11" s="251"/>
-      <c r="AR11" s="252"/>
-      <c r="AS11" s="202" t="s">
+      <c r="AQ11" s="208"/>
+      <c r="AR11" s="209"/>
+      <c r="AS11" s="206" t="s">
         <v>108</v>
       </c>
-      <c r="AT11" s="203"/>
-      <c r="AU11" s="203"/>
-      <c r="AV11" s="203"/>
-      <c r="AW11" s="203"/>
-      <c r="AX11" s="203"/>
-      <c r="AY11" s="203"/>
-      <c r="AZ11" s="203"/>
-      <c r="BA11" s="203"/>
-      <c r="BB11" s="203"/>
-      <c r="BC11" s="203"/>
-      <c r="BD11" s="204"/>
+      <c r="AT11" s="210"/>
+      <c r="AU11" s="210"/>
+      <c r="AV11" s="210"/>
+      <c r="AW11" s="210"/>
+      <c r="AX11" s="210"/>
+      <c r="AY11" s="210"/>
+      <c r="AZ11" s="210"/>
+      <c r="BA11" s="210"/>
+      <c r="BB11" s="210"/>
+      <c r="BC11" s="210"/>
+      <c r="BD11" s="211"/>
       <c r="BE11" s="205" t="s">
         <v>54</v>
       </c>
-      <c r="BF11" s="202"/>
-      <c r="BG11" s="202"/>
-      <c r="BH11" s="202"/>
-      <c r="BI11" s="202"/>
-      <c r="BJ11" s="202"/>
-      <c r="BK11" s="202"/>
-      <c r="BL11" s="202"/>
-      <c r="BM11" s="206"/>
+      <c r="BF11" s="206"/>
+      <c r="BG11" s="206"/>
+      <c r="BH11" s="206"/>
+      <c r="BI11" s="206"/>
+      <c r="BJ11" s="206"/>
+      <c r="BK11" s="206"/>
+      <c r="BL11" s="206"/>
+      <c r="BM11" s="207"/>
       <c r="BN11" s="132"/>
     </row>
     <row r="12" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9740,36 +9740,36 @@
       <c r="AM12" s="29"/>
       <c r="AN12" s="29"/>
       <c r="AO12" s="29"/>
-      <c r="AP12" s="250" t="s">
+      <c r="AP12" s="202" t="s">
         <v>23</v>
       </c>
-      <c r="AQ12" s="251"/>
-      <c r="AR12" s="252"/>
-      <c r="AS12" s="202" t="s">
+      <c r="AQ12" s="208"/>
+      <c r="AR12" s="209"/>
+      <c r="AS12" s="206" t="s">
         <v>104</v>
       </c>
-      <c r="AT12" s="203"/>
-      <c r="AU12" s="203"/>
-      <c r="AV12" s="203"/>
-      <c r="AW12" s="203"/>
-      <c r="AX12" s="203"/>
-      <c r="AY12" s="203"/>
-      <c r="AZ12" s="203"/>
-      <c r="BA12" s="203"/>
-      <c r="BB12" s="203"/>
-      <c r="BC12" s="203"/>
-      <c r="BD12" s="204"/>
+      <c r="AT12" s="210"/>
+      <c r="AU12" s="210"/>
+      <c r="AV12" s="210"/>
+      <c r="AW12" s="210"/>
+      <c r="AX12" s="210"/>
+      <c r="AY12" s="210"/>
+      <c r="AZ12" s="210"/>
+      <c r="BA12" s="210"/>
+      <c r="BB12" s="210"/>
+      <c r="BC12" s="210"/>
+      <c r="BD12" s="211"/>
       <c r="BE12" s="205" t="s">
         <v>54</v>
       </c>
-      <c r="BF12" s="202"/>
-      <c r="BG12" s="202"/>
-      <c r="BH12" s="202"/>
-      <c r="BI12" s="202"/>
-      <c r="BJ12" s="202"/>
-      <c r="BK12" s="202"/>
-      <c r="BL12" s="202"/>
-      <c r="BM12" s="206"/>
+      <c r="BF12" s="206"/>
+      <c r="BG12" s="206"/>
+      <c r="BH12" s="206"/>
+      <c r="BI12" s="206"/>
+      <c r="BJ12" s="206"/>
+      <c r="BK12" s="206"/>
+      <c r="BL12" s="206"/>
+      <c r="BM12" s="207"/>
       <c r="BN12" s="30"/>
     </row>
     <row r="13" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9814,36 +9814,36 @@
       <c r="AM13" s="29"/>
       <c r="AN13" s="29"/>
       <c r="AO13" s="29"/>
-      <c r="AP13" s="250" t="s">
+      <c r="AP13" s="202" t="s">
         <v>96</v>
       </c>
-      <c r="AQ13" s="251"/>
-      <c r="AR13" s="252"/>
-      <c r="AS13" s="202" t="s">
+      <c r="AQ13" s="208"/>
+      <c r="AR13" s="209"/>
+      <c r="AS13" s="206" t="s">
         <v>109</v>
       </c>
-      <c r="AT13" s="203"/>
-      <c r="AU13" s="203"/>
-      <c r="AV13" s="203"/>
-      <c r="AW13" s="203"/>
-      <c r="AX13" s="203"/>
-      <c r="AY13" s="203"/>
-      <c r="AZ13" s="203"/>
-      <c r="BA13" s="203"/>
-      <c r="BB13" s="203"/>
-      <c r="BC13" s="203"/>
-      <c r="BD13" s="204"/>
+      <c r="AT13" s="210"/>
+      <c r="AU13" s="210"/>
+      <c r="AV13" s="210"/>
+      <c r="AW13" s="210"/>
+      <c r="AX13" s="210"/>
+      <c r="AY13" s="210"/>
+      <c r="AZ13" s="210"/>
+      <c r="BA13" s="210"/>
+      <c r="BB13" s="210"/>
+      <c r="BC13" s="210"/>
+      <c r="BD13" s="211"/>
       <c r="BE13" s="205" t="s">
         <v>121</v>
       </c>
-      <c r="BF13" s="202"/>
-      <c r="BG13" s="202"/>
-      <c r="BH13" s="202"/>
-      <c r="BI13" s="202"/>
-      <c r="BJ13" s="202"/>
-      <c r="BK13" s="202"/>
-      <c r="BL13" s="202"/>
-      <c r="BM13" s="206"/>
+      <c r="BF13" s="206"/>
+      <c r="BG13" s="206"/>
+      <c r="BH13" s="206"/>
+      <c r="BI13" s="206"/>
+      <c r="BJ13" s="206"/>
+      <c r="BK13" s="206"/>
+      <c r="BL13" s="206"/>
+      <c r="BM13" s="207"/>
       <c r="BN13" s="132"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9888,36 +9888,36 @@
       <c r="AM14" s="29"/>
       <c r="AN14" s="29"/>
       <c r="AO14" s="29"/>
-      <c r="AP14" s="250" t="s">
+      <c r="AP14" s="202" t="s">
         <v>97</v>
       </c>
-      <c r="AQ14" s="251"/>
-      <c r="AR14" s="252"/>
-      <c r="AS14" s="202" t="s">
+      <c r="AQ14" s="208"/>
+      <c r="AR14" s="209"/>
+      <c r="AS14" s="206" t="s">
         <v>105</v>
       </c>
-      <c r="AT14" s="203"/>
-      <c r="AU14" s="203"/>
-      <c r="AV14" s="203"/>
-      <c r="AW14" s="203"/>
-      <c r="AX14" s="203"/>
-      <c r="AY14" s="203"/>
-      <c r="AZ14" s="203"/>
-      <c r="BA14" s="203"/>
-      <c r="BB14" s="203"/>
-      <c r="BC14" s="203"/>
-      <c r="BD14" s="204"/>
+      <c r="AT14" s="210"/>
+      <c r="AU14" s="210"/>
+      <c r="AV14" s="210"/>
+      <c r="AW14" s="210"/>
+      <c r="AX14" s="210"/>
+      <c r="AY14" s="210"/>
+      <c r="AZ14" s="210"/>
+      <c r="BA14" s="210"/>
+      <c r="BB14" s="210"/>
+      <c r="BC14" s="210"/>
+      <c r="BD14" s="211"/>
       <c r="BE14" s="205" t="s">
         <v>54</v>
       </c>
-      <c r="BF14" s="202"/>
-      <c r="BG14" s="202"/>
-      <c r="BH14" s="202"/>
-      <c r="BI14" s="202"/>
-      <c r="BJ14" s="202"/>
-      <c r="BK14" s="202"/>
-      <c r="BL14" s="202"/>
-      <c r="BM14" s="206"/>
+      <c r="BF14" s="206"/>
+      <c r="BG14" s="206"/>
+      <c r="BH14" s="206"/>
+      <c r="BI14" s="206"/>
+      <c r="BJ14" s="206"/>
+      <c r="BK14" s="206"/>
+      <c r="BL14" s="206"/>
+      <c r="BM14" s="207"/>
       <c r="BN14" s="30"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9962,36 +9962,36 @@
       <c r="AM15" s="29"/>
       <c r="AN15" s="29"/>
       <c r="AO15" s="29"/>
-      <c r="AP15" s="250" t="s">
+      <c r="AP15" s="202" t="s">
         <v>98</v>
       </c>
-      <c r="AQ15" s="251"/>
-      <c r="AR15" s="252"/>
-      <c r="AS15" s="202" t="s">
+      <c r="AQ15" s="208"/>
+      <c r="AR15" s="209"/>
+      <c r="AS15" s="206" t="s">
         <v>110</v>
       </c>
-      <c r="AT15" s="203"/>
-      <c r="AU15" s="203"/>
-      <c r="AV15" s="203"/>
-      <c r="AW15" s="203"/>
-      <c r="AX15" s="203"/>
-      <c r="AY15" s="203"/>
-      <c r="AZ15" s="203"/>
-      <c r="BA15" s="203"/>
-      <c r="BB15" s="203"/>
-      <c r="BC15" s="203"/>
-      <c r="BD15" s="204"/>
+      <c r="AT15" s="210"/>
+      <c r="AU15" s="210"/>
+      <c r="AV15" s="210"/>
+      <c r="AW15" s="210"/>
+      <c r="AX15" s="210"/>
+      <c r="AY15" s="210"/>
+      <c r="AZ15" s="210"/>
+      <c r="BA15" s="210"/>
+      <c r="BB15" s="210"/>
+      <c r="BC15" s="210"/>
+      <c r="BD15" s="211"/>
       <c r="BE15" s="205" t="s">
         <v>54</v>
       </c>
-      <c r="BF15" s="202"/>
-      <c r="BG15" s="202"/>
-      <c r="BH15" s="202"/>
-      <c r="BI15" s="202"/>
-      <c r="BJ15" s="202"/>
-      <c r="BK15" s="202"/>
-      <c r="BL15" s="202"/>
-      <c r="BM15" s="206"/>
+      <c r="BF15" s="206"/>
+      <c r="BG15" s="206"/>
+      <c r="BH15" s="206"/>
+      <c r="BI15" s="206"/>
+      <c r="BJ15" s="206"/>
+      <c r="BK15" s="206"/>
+      <c r="BL15" s="206"/>
+      <c r="BM15" s="207"/>
       <c r="BN15" s="132"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10036,36 +10036,36 @@
       <c r="AM16" s="29"/>
       <c r="AN16" s="29"/>
       <c r="AO16" s="29"/>
-      <c r="AP16" s="250" t="s">
+      <c r="AP16" s="202" t="s">
         <v>99</v>
       </c>
-      <c r="AQ16" s="251"/>
-      <c r="AR16" s="252"/>
-      <c r="AS16" s="202" t="s">
+      <c r="AQ16" s="208"/>
+      <c r="AR16" s="209"/>
+      <c r="AS16" s="206" t="s">
         <v>106</v>
       </c>
-      <c r="AT16" s="203"/>
-      <c r="AU16" s="203"/>
-      <c r="AV16" s="203"/>
-      <c r="AW16" s="203"/>
-      <c r="AX16" s="203"/>
-      <c r="AY16" s="203"/>
-      <c r="AZ16" s="203"/>
-      <c r="BA16" s="203"/>
-      <c r="BB16" s="203"/>
-      <c r="BC16" s="203"/>
-      <c r="BD16" s="204"/>
+      <c r="AT16" s="210"/>
+      <c r="AU16" s="210"/>
+      <c r="AV16" s="210"/>
+      <c r="AW16" s="210"/>
+      <c r="AX16" s="210"/>
+      <c r="AY16" s="210"/>
+      <c r="AZ16" s="210"/>
+      <c r="BA16" s="210"/>
+      <c r="BB16" s="210"/>
+      <c r="BC16" s="210"/>
+      <c r="BD16" s="211"/>
       <c r="BE16" s="205" t="s">
         <v>54</v>
       </c>
-      <c r="BF16" s="202"/>
-      <c r="BG16" s="202"/>
-      <c r="BH16" s="202"/>
-      <c r="BI16" s="202"/>
-      <c r="BJ16" s="202"/>
-      <c r="BK16" s="202"/>
-      <c r="BL16" s="202"/>
-      <c r="BM16" s="206"/>
+      <c r="BF16" s="206"/>
+      <c r="BG16" s="206"/>
+      <c r="BH16" s="206"/>
+      <c r="BI16" s="206"/>
+      <c r="BJ16" s="206"/>
+      <c r="BK16" s="206"/>
+      <c r="BL16" s="206"/>
+      <c r="BM16" s="207"/>
       <c r="BN16" s="30"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10110,36 +10110,36 @@
       <c r="AM17" s="29"/>
       <c r="AN17" s="29"/>
       <c r="AO17" s="29"/>
-      <c r="AP17" s="250" t="s">
+      <c r="AP17" s="202" t="s">
         <v>100</v>
       </c>
-      <c r="AQ17" s="251"/>
-      <c r="AR17" s="252"/>
-      <c r="AS17" s="202" t="s">
+      <c r="AQ17" s="208"/>
+      <c r="AR17" s="209"/>
+      <c r="AS17" s="206" t="s">
         <v>111</v>
       </c>
-      <c r="AT17" s="203"/>
-      <c r="AU17" s="203"/>
-      <c r="AV17" s="203"/>
-      <c r="AW17" s="203"/>
-      <c r="AX17" s="203"/>
-      <c r="AY17" s="203"/>
-      <c r="AZ17" s="203"/>
-      <c r="BA17" s="203"/>
-      <c r="BB17" s="203"/>
-      <c r="BC17" s="203"/>
-      <c r="BD17" s="204"/>
+      <c r="AT17" s="210"/>
+      <c r="AU17" s="210"/>
+      <c r="AV17" s="210"/>
+      <c r="AW17" s="210"/>
+      <c r="AX17" s="210"/>
+      <c r="AY17" s="210"/>
+      <c r="AZ17" s="210"/>
+      <c r="BA17" s="210"/>
+      <c r="BB17" s="210"/>
+      <c r="BC17" s="210"/>
+      <c r="BD17" s="211"/>
       <c r="BE17" s="205" t="s">
         <v>54</v>
       </c>
-      <c r="BF17" s="202"/>
-      <c r="BG17" s="202"/>
-      <c r="BH17" s="202"/>
-      <c r="BI17" s="202"/>
-      <c r="BJ17" s="202"/>
-      <c r="BK17" s="202"/>
-      <c r="BL17" s="202"/>
-      <c r="BM17" s="206"/>
+      <c r="BF17" s="206"/>
+      <c r="BG17" s="206"/>
+      <c r="BH17" s="206"/>
+      <c r="BI17" s="206"/>
+      <c r="BJ17" s="206"/>
+      <c r="BK17" s="206"/>
+      <c r="BL17" s="206"/>
+      <c r="BM17" s="207"/>
       <c r="BN17" s="132"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10184,36 +10184,36 @@
       <c r="AM18" s="29"/>
       <c r="AN18" s="29"/>
       <c r="AO18" s="29"/>
-      <c r="AP18" s="250" t="s">
+      <c r="AP18" s="202" t="s">
         <v>101</v>
       </c>
-      <c r="AQ18" s="251"/>
-      <c r="AR18" s="252"/>
-      <c r="AS18" s="202" t="s">
+      <c r="AQ18" s="208"/>
+      <c r="AR18" s="209"/>
+      <c r="AS18" s="206" t="s">
         <v>68</v>
       </c>
-      <c r="AT18" s="203"/>
-      <c r="AU18" s="203"/>
-      <c r="AV18" s="203"/>
-      <c r="AW18" s="203"/>
-      <c r="AX18" s="203"/>
-      <c r="AY18" s="203"/>
-      <c r="AZ18" s="203"/>
-      <c r="BA18" s="203"/>
-      <c r="BB18" s="203"/>
-      <c r="BC18" s="203"/>
-      <c r="BD18" s="204"/>
+      <c r="AT18" s="210"/>
+      <c r="AU18" s="210"/>
+      <c r="AV18" s="210"/>
+      <c r="AW18" s="210"/>
+      <c r="AX18" s="210"/>
+      <c r="AY18" s="210"/>
+      <c r="AZ18" s="210"/>
+      <c r="BA18" s="210"/>
+      <c r="BB18" s="210"/>
+      <c r="BC18" s="210"/>
+      <c r="BD18" s="211"/>
       <c r="BE18" s="205" t="s">
         <v>53</v>
       </c>
-      <c r="BF18" s="202"/>
-      <c r="BG18" s="202"/>
-      <c r="BH18" s="202"/>
-      <c r="BI18" s="202"/>
-      <c r="BJ18" s="202"/>
-      <c r="BK18" s="202"/>
-      <c r="BL18" s="202"/>
-      <c r="BM18" s="206"/>
+      <c r="BF18" s="206"/>
+      <c r="BG18" s="206"/>
+      <c r="BH18" s="206"/>
+      <c r="BI18" s="206"/>
+      <c r="BJ18" s="206"/>
+      <c r="BK18" s="206"/>
+      <c r="BL18" s="206"/>
+      <c r="BM18" s="207"/>
       <c r="BN18" s="30"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10258,9 +10258,9 @@
       <c r="AM19" s="29"/>
       <c r="AN19" s="29"/>
       <c r="AO19" s="29"/>
-      <c r="AP19" s="250"/>
-      <c r="AQ19" s="253"/>
-      <c r="AR19" s="254"/>
+      <c r="AP19" s="202"/>
+      <c r="AQ19" s="203"/>
+      <c r="AR19" s="204"/>
       <c r="AS19" s="123"/>
       <c r="AT19" s="57"/>
       <c r="AU19" s="57"/>
@@ -10771,6 +10771,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="AS18:BD18"/>
+    <mergeCell ref="BE7:BM7"/>
+    <mergeCell ref="BE11:BM11"/>
+    <mergeCell ref="BE13:BM13"/>
+    <mergeCell ref="BE15:BM15"/>
+    <mergeCell ref="BE17:BM17"/>
+    <mergeCell ref="AS13:BD13"/>
+    <mergeCell ref="AS14:BD14"/>
+    <mergeCell ref="AS15:BD15"/>
+    <mergeCell ref="AS16:BD16"/>
+    <mergeCell ref="AS17:BD17"/>
+    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="U2:AV2"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BH2"/>
+    <mergeCell ref="BI2:BN2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="U3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BE3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="AW2:AY2"/>
+    <mergeCell ref="BI3:BN3"/>
+    <mergeCell ref="AP4:AR4"/>
+    <mergeCell ref="AS4:BD4"/>
+    <mergeCell ref="BE4:BM4"/>
+    <mergeCell ref="AP5:AR5"/>
+    <mergeCell ref="AS5:BD5"/>
+    <mergeCell ref="BE5:BM5"/>
+    <mergeCell ref="AP6:AR6"/>
+    <mergeCell ref="AS6:BD6"/>
+    <mergeCell ref="BE6:BM6"/>
+    <mergeCell ref="AS10:BD10"/>
+    <mergeCell ref="BE10:BM10"/>
+    <mergeCell ref="AP7:AR7"/>
+    <mergeCell ref="AS7:BD7"/>
+    <mergeCell ref="BE9:BM9"/>
+    <mergeCell ref="AP8:AR8"/>
+    <mergeCell ref="AP9:AR9"/>
+    <mergeCell ref="AP10:AR10"/>
+    <mergeCell ref="AS8:BD8"/>
+    <mergeCell ref="AS9:BD9"/>
     <mergeCell ref="AP19:AR19"/>
     <mergeCell ref="BE8:BM8"/>
     <mergeCell ref="BE12:BM12"/>
@@ -10787,53 +10834,6 @@
     <mergeCell ref="AP17:AR17"/>
     <mergeCell ref="AS11:BD11"/>
     <mergeCell ref="AS12:BD12"/>
-    <mergeCell ref="AP6:AR6"/>
-    <mergeCell ref="AS6:BD6"/>
-    <mergeCell ref="BE6:BM6"/>
-    <mergeCell ref="AS10:BD10"/>
-    <mergeCell ref="BE10:BM10"/>
-    <mergeCell ref="AP7:AR7"/>
-    <mergeCell ref="AS7:BD7"/>
-    <mergeCell ref="BE9:BM9"/>
-    <mergeCell ref="AP8:AR8"/>
-    <mergeCell ref="AP9:AR9"/>
-    <mergeCell ref="AP10:AR10"/>
-    <mergeCell ref="AS8:BD8"/>
-    <mergeCell ref="AS9:BD9"/>
-    <mergeCell ref="AP4:AR4"/>
-    <mergeCell ref="AS4:BD4"/>
-    <mergeCell ref="BE4:BM4"/>
-    <mergeCell ref="AP5:AR5"/>
-    <mergeCell ref="AS5:BD5"/>
-    <mergeCell ref="BE5:BM5"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BH2"/>
-    <mergeCell ref="BI2:BN2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:N3"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="U3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BE3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="AW2:AY2"/>
-    <mergeCell ref="BI3:BN3"/>
-    <mergeCell ref="A1:Z1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="U2:AV2"/>
-    <mergeCell ref="AS18:BD18"/>
-    <mergeCell ref="BE7:BM7"/>
-    <mergeCell ref="BE11:BM11"/>
-    <mergeCell ref="BE13:BM13"/>
-    <mergeCell ref="BE15:BM15"/>
-    <mergeCell ref="BE17:BM17"/>
-    <mergeCell ref="AS13:BD13"/>
-    <mergeCell ref="AS14:BD14"/>
-    <mergeCell ref="AS15:BD15"/>
-    <mergeCell ref="AS16:BD16"/>
-    <mergeCell ref="AS17:BD17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11180,34 +11180,34 @@
       <c r="BK1" s="21"/>
     </row>
     <row r="2" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="241" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="208"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="208"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="208"/>
-      <c r="T2" s="208"/>
-      <c r="U2" s="208"/>
-      <c r="V2" s="208"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="208"/>
-      <c r="Y2" s="208"/>
-      <c r="Z2" s="208"/>
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="242"/>
+      <c r="K2" s="242"/>
+      <c r="L2" s="242"/>
+      <c r="M2" s="242"/>
+      <c r="N2" s="242"/>
+      <c r="O2" s="242"/>
+      <c r="P2" s="242"/>
+      <c r="Q2" s="242"/>
+      <c r="R2" s="242"/>
+      <c r="S2" s="242"/>
+      <c r="T2" s="242"/>
+      <c r="U2" s="242"/>
+      <c r="V2" s="242"/>
+      <c r="W2" s="242"/>
+      <c r="X2" s="242"/>
+      <c r="Y2" s="242"/>
+      <c r="Z2" s="242"/>
       <c r="AP2" s="25"/>
       <c r="AQ2" s="25"/>
       <c r="AR2" s="25"/>
@@ -11232,32 +11232,32 @@
       <c r="BK2" s="26"/>
     </row>
     <row r="3" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="207"/>
-      <c r="B3" s="208"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="208"/>
-      <c r="M3" s="208"/>
-      <c r="N3" s="208"/>
-      <c r="O3" s="208"/>
-      <c r="P3" s="208"/>
-      <c r="Q3" s="208"/>
-      <c r="R3" s="208"/>
-      <c r="S3" s="208"/>
-      <c r="T3" s="208"/>
-      <c r="U3" s="208"/>
-      <c r="V3" s="208"/>
-      <c r="W3" s="208"/>
-      <c r="X3" s="208"/>
-      <c r="Y3" s="208"/>
-      <c r="Z3" s="208"/>
+      <c r="A3" s="241"/>
+      <c r="B3" s="242"/>
+      <c r="C3" s="242"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="242"/>
+      <c r="G3" s="242"/>
+      <c r="H3" s="242"/>
+      <c r="I3" s="242"/>
+      <c r="J3" s="242"/>
+      <c r="K3" s="242"/>
+      <c r="L3" s="242"/>
+      <c r="M3" s="242"/>
+      <c r="N3" s="242"/>
+      <c r="O3" s="242"/>
+      <c r="P3" s="242"/>
+      <c r="Q3" s="242"/>
+      <c r="R3" s="242"/>
+      <c r="S3" s="242"/>
+      <c r="T3" s="242"/>
+      <c r="U3" s="242"/>
+      <c r="V3" s="242"/>
+      <c r="W3" s="242"/>
+      <c r="X3" s="242"/>
+      <c r="Y3" s="242"/>
+      <c r="Z3" s="242"/>
       <c r="AP3" s="25"/>
       <c r="AQ3" s="25"/>
       <c r="AR3" s="25"/>
@@ -11282,85 +11282,85 @@
       <c r="BK3" s="25"/>
     </row>
     <row r="4" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="255" t="s">
+      <c r="A4" s="294" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="256"/>
-      <c r="C4" s="256"/>
-      <c r="D4" s="256"/>
-      <c r="E4" s="256"/>
-      <c r="F4" s="257"/>
-      <c r="G4" s="258" t="s">
+      <c r="B4" s="295"/>
+      <c r="C4" s="295"/>
+      <c r="D4" s="295"/>
+      <c r="E4" s="295"/>
+      <c r="F4" s="296"/>
+      <c r="G4" s="297" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="259"/>
-      <c r="I4" s="259"/>
-      <c r="J4" s="259"/>
-      <c r="K4" s="259"/>
-      <c r="L4" s="259"/>
-      <c r="M4" s="259"/>
-      <c r="N4" s="260"/>
-      <c r="O4" s="261" t="s">
+      <c r="H4" s="298"/>
+      <c r="I4" s="298"/>
+      <c r="J4" s="298"/>
+      <c r="K4" s="298"/>
+      <c r="L4" s="298"/>
+      <c r="M4" s="298"/>
+      <c r="N4" s="299"/>
+      <c r="O4" s="300" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="262"/>
-      <c r="Q4" s="262"/>
-      <c r="R4" s="262"/>
-      <c r="S4" s="262"/>
-      <c r="T4" s="263"/>
-      <c r="U4" s="264" t="s">
+      <c r="P4" s="301"/>
+      <c r="Q4" s="301"/>
+      <c r="R4" s="301"/>
+      <c r="S4" s="301"/>
+      <c r="T4" s="302"/>
+      <c r="U4" s="303" t="s">
         <v>80</v>
       </c>
-      <c r="V4" s="265"/>
-      <c r="W4" s="265"/>
-      <c r="X4" s="265"/>
-      <c r="Y4" s="265"/>
-      <c r="Z4" s="265"/>
-      <c r="AA4" s="265"/>
-      <c r="AB4" s="265"/>
-      <c r="AC4" s="265"/>
-      <c r="AD4" s="265"/>
-      <c r="AE4" s="265"/>
-      <c r="AF4" s="265"/>
-      <c r="AG4" s="265"/>
-      <c r="AH4" s="265"/>
-      <c r="AI4" s="265"/>
-      <c r="AJ4" s="265"/>
-      <c r="AK4" s="265"/>
-      <c r="AL4" s="265"/>
-      <c r="AM4" s="265"/>
-      <c r="AN4" s="265"/>
-      <c r="AO4" s="265"/>
-      <c r="AP4" s="265"/>
-      <c r="AQ4" s="265"/>
-      <c r="AR4" s="265"/>
-      <c r="AS4" s="265"/>
-      <c r="AT4" s="265"/>
-      <c r="AU4" s="266"/>
-      <c r="AV4" s="292" t="s">
+      <c r="V4" s="304"/>
+      <c r="W4" s="304"/>
+      <c r="X4" s="304"/>
+      <c r="Y4" s="304"/>
+      <c r="Z4" s="304"/>
+      <c r="AA4" s="304"/>
+      <c r="AB4" s="304"/>
+      <c r="AC4" s="304"/>
+      <c r="AD4" s="304"/>
+      <c r="AE4" s="304"/>
+      <c r="AF4" s="304"/>
+      <c r="AG4" s="304"/>
+      <c r="AH4" s="304"/>
+      <c r="AI4" s="304"/>
+      <c r="AJ4" s="304"/>
+      <c r="AK4" s="304"/>
+      <c r="AL4" s="304"/>
+      <c r="AM4" s="304"/>
+      <c r="AN4" s="304"/>
+      <c r="AO4" s="304"/>
+      <c r="AP4" s="304"/>
+      <c r="AQ4" s="304"/>
+      <c r="AR4" s="304"/>
+      <c r="AS4" s="304"/>
+      <c r="AT4" s="304"/>
+      <c r="AU4" s="305"/>
+      <c r="AV4" s="291" t="s">
         <v>11</v>
       </c>
-      <c r="AW4" s="293"/>
-      <c r="AX4" s="294"/>
-      <c r="AY4" s="267">
+      <c r="AW4" s="292"/>
+      <c r="AX4" s="293"/>
+      <c r="AY4" s="269">
         <v>45427</v>
       </c>
-      <c r="AZ4" s="268"/>
-      <c r="BA4" s="268"/>
-      <c r="BB4" s="268"/>
-      <c r="BC4" s="268"/>
-      <c r="BD4" s="268"/>
-      <c r="BE4" s="269" t="s">
+      <c r="AZ4" s="270"/>
+      <c r="BA4" s="270"/>
+      <c r="BB4" s="270"/>
+      <c r="BC4" s="270"/>
+      <c r="BD4" s="270"/>
+      <c r="BE4" s="271" t="s">
         <v>12</v>
       </c>
-      <c r="BF4" s="270"/>
-      <c r="BG4" s="271"/>
-      <c r="BH4" s="272" t="s">
+      <c r="BF4" s="272"/>
+      <c r="BG4" s="273"/>
+      <c r="BH4" s="274" t="s">
         <v>83</v>
       </c>
-      <c r="BI4" s="273"/>
-      <c r="BJ4" s="273"/>
-      <c r="BK4" s="274"/>
+      <c r="BI4" s="262"/>
+      <c r="BJ4" s="262"/>
+      <c r="BK4" s="263"/>
     </row>
     <row r="5" spans="1:65" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="275" t="s">
@@ -11430,12 +11430,12 @@
       <c r="BE5" s="289" t="s">
         <v>17</v>
       </c>
-      <c r="BF5" s="290"/>
-      <c r="BG5" s="291"/>
-      <c r="BH5" s="290"/>
-      <c r="BI5" s="273"/>
-      <c r="BJ5" s="273"/>
-      <c r="BK5" s="274"/>
+      <c r="BF5" s="261"/>
+      <c r="BG5" s="290"/>
+      <c r="BH5" s="261"/>
+      <c r="BI5" s="262"/>
+      <c r="BJ5" s="262"/>
+      <c r="BK5" s="263"/>
     </row>
     <row r="6" spans="1:65" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A6" s="32"/>
@@ -11477,96 +11477,96 @@
       <c r="AK6" s="33"/>
       <c r="AL6" s="33"/>
       <c r="AM6" s="33"/>
-      <c r="AN6" s="301"/>
-      <c r="AO6" s="302"/>
-      <c r="AP6" s="302"/>
-      <c r="AQ6" s="301"/>
-      <c r="AR6" s="301"/>
-      <c r="AS6" s="301"/>
-      <c r="AT6" s="301"/>
-      <c r="AU6" s="301"/>
-      <c r="AV6" s="301"/>
-      <c r="AW6" s="301"/>
-      <c r="AX6" s="301"/>
-      <c r="AY6" s="301"/>
-      <c r="AZ6" s="301"/>
-      <c r="BA6" s="301"/>
-      <c r="BB6" s="301"/>
-      <c r="BC6" s="301"/>
-      <c r="BD6" s="302"/>
-      <c r="BE6" s="302"/>
-      <c r="BF6" s="302"/>
-      <c r="BG6" s="302"/>
-      <c r="BH6" s="302"/>
-      <c r="BI6" s="302"/>
-      <c r="BJ6" s="302"/>
-      <c r="BK6" s="302"/>
+      <c r="AN6" s="264"/>
+      <c r="AO6" s="265"/>
+      <c r="AP6" s="265"/>
+      <c r="AQ6" s="264"/>
+      <c r="AR6" s="264"/>
+      <c r="AS6" s="264"/>
+      <c r="AT6" s="264"/>
+      <c r="AU6" s="264"/>
+      <c r="AV6" s="264"/>
+      <c r="AW6" s="264"/>
+      <c r="AX6" s="264"/>
+      <c r="AY6" s="264"/>
+      <c r="AZ6" s="264"/>
+      <c r="BA6" s="264"/>
+      <c r="BB6" s="264"/>
+      <c r="BC6" s="264"/>
+      <c r="BD6" s="265"/>
+      <c r="BE6" s="265"/>
+      <c r="BF6" s="265"/>
+      <c r="BG6" s="265"/>
+      <c r="BH6" s="265"/>
+      <c r="BI6" s="265"/>
+      <c r="BJ6" s="265"/>
+      <c r="BK6" s="265"/>
     </row>
     <row r="7" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="34"/>
-      <c r="C7" s="303" t="s">
+      <c r="C7" s="266" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="304"/>
-      <c r="E7" s="304"/>
-      <c r="F7" s="304"/>
-      <c r="G7" s="304"/>
-      <c r="H7" s="304"/>
-      <c r="I7" s="304"/>
-      <c r="J7" s="304"/>
-      <c r="K7" s="304"/>
-      <c r="L7" s="304"/>
-      <c r="M7" s="304"/>
-      <c r="N7" s="304"/>
-      <c r="O7" s="304"/>
-      <c r="P7" s="304"/>
-      <c r="Q7" s="304"/>
-      <c r="R7" s="304"/>
-      <c r="S7" s="304"/>
-      <c r="T7" s="304"/>
-      <c r="U7" s="304"/>
-      <c r="V7" s="304"/>
-      <c r="W7" s="304"/>
-      <c r="X7" s="304"/>
-      <c r="Y7" s="304"/>
-      <c r="Z7" s="304"/>
-      <c r="AA7" s="304"/>
-      <c r="AB7" s="304"/>
-      <c r="AC7" s="304"/>
-      <c r="AD7" s="304"/>
-      <c r="AE7" s="304"/>
-      <c r="AF7" s="304"/>
-      <c r="AG7" s="304"/>
-      <c r="AH7" s="304"/>
-      <c r="AI7" s="304"/>
-      <c r="AJ7" s="304"/>
-      <c r="AK7" s="304"/>
-      <c r="AL7" s="304"/>
-      <c r="AM7" s="304"/>
-      <c r="AN7" s="304"/>
-      <c r="AO7" s="304"/>
-      <c r="AP7" s="304"/>
-      <c r="AQ7" s="304"/>
-      <c r="AR7" s="304"/>
-      <c r="AS7" s="304"/>
-      <c r="AT7" s="304"/>
-      <c r="AU7" s="304"/>
-      <c r="AV7" s="304"/>
-      <c r="AW7" s="304"/>
-      <c r="AX7" s="304"/>
-      <c r="AY7" s="304"/>
-      <c r="AZ7" s="304"/>
-      <c r="BA7" s="304"/>
-      <c r="BB7" s="304"/>
-      <c r="BC7" s="304"/>
-      <c r="BD7" s="304"/>
-      <c r="BE7" s="304"/>
-      <c r="BF7" s="304"/>
-      <c r="BG7" s="304"/>
-      <c r="BH7" s="304"/>
-      <c r="BI7" s="304"/>
-      <c r="BJ7" s="304"/>
-      <c r="BK7" s="305"/>
+      <c r="D7" s="267"/>
+      <c r="E7" s="267"/>
+      <c r="F7" s="267"/>
+      <c r="G7" s="267"/>
+      <c r="H7" s="267"/>
+      <c r="I7" s="267"/>
+      <c r="J7" s="267"/>
+      <c r="K7" s="267"/>
+      <c r="L7" s="267"/>
+      <c r="M7" s="267"/>
+      <c r="N7" s="267"/>
+      <c r="O7" s="267"/>
+      <c r="P7" s="267"/>
+      <c r="Q7" s="267"/>
+      <c r="R7" s="267"/>
+      <c r="S7" s="267"/>
+      <c r="T7" s="267"/>
+      <c r="U7" s="267"/>
+      <c r="V7" s="267"/>
+      <c r="W7" s="267"/>
+      <c r="X7" s="267"/>
+      <c r="Y7" s="267"/>
+      <c r="Z7" s="267"/>
+      <c r="AA7" s="267"/>
+      <c r="AB7" s="267"/>
+      <c r="AC7" s="267"/>
+      <c r="AD7" s="267"/>
+      <c r="AE7" s="267"/>
+      <c r="AF7" s="267"/>
+      <c r="AG7" s="267"/>
+      <c r="AH7" s="267"/>
+      <c r="AI7" s="267"/>
+      <c r="AJ7" s="267"/>
+      <c r="AK7" s="267"/>
+      <c r="AL7" s="267"/>
+      <c r="AM7" s="267"/>
+      <c r="AN7" s="267"/>
+      <c r="AO7" s="267"/>
+      <c r="AP7" s="267"/>
+      <c r="AQ7" s="267"/>
+      <c r="AR7" s="267"/>
+      <c r="AS7" s="267"/>
+      <c r="AT7" s="267"/>
+      <c r="AU7" s="267"/>
+      <c r="AV7" s="267"/>
+      <c r="AW7" s="267"/>
+      <c r="AX7" s="267"/>
+      <c r="AY7" s="267"/>
+      <c r="AZ7" s="267"/>
+      <c r="BA7" s="267"/>
+      <c r="BB7" s="267"/>
+      <c r="BC7" s="267"/>
+      <c r="BD7" s="267"/>
+      <c r="BE7" s="267"/>
+      <c r="BF7" s="267"/>
+      <c r="BG7" s="267"/>
+      <c r="BH7" s="267"/>
+      <c r="BI7" s="267"/>
+      <c r="BJ7" s="267"/>
+      <c r="BK7" s="268"/>
     </row>
     <row r="8" spans="1:65" s="74" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="77"/>
@@ -11836,69 +11836,69 @@
     <row r="12" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="34"/>
       <c r="B12" s="36"/>
-      <c r="C12" s="295" t="s">
+      <c r="C12" s="255" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="296"/>
-      <c r="E12" s="296"/>
-      <c r="F12" s="296"/>
-      <c r="G12" s="296"/>
-      <c r="H12" s="296"/>
-      <c r="I12" s="296"/>
-      <c r="J12" s="296"/>
-      <c r="K12" s="296"/>
-      <c r="L12" s="296"/>
-      <c r="M12" s="296"/>
-      <c r="N12" s="296"/>
-      <c r="O12" s="296"/>
-      <c r="P12" s="296"/>
-      <c r="Q12" s="296"/>
-      <c r="R12" s="296"/>
-      <c r="S12" s="296"/>
-      <c r="T12" s="296"/>
-      <c r="U12" s="296"/>
-      <c r="V12" s="296"/>
-      <c r="W12" s="296"/>
-      <c r="X12" s="296"/>
-      <c r="Y12" s="296"/>
-      <c r="Z12" s="296"/>
-      <c r="AA12" s="296"/>
-      <c r="AB12" s="296"/>
-      <c r="AC12" s="296"/>
-      <c r="AD12" s="296"/>
-      <c r="AE12" s="296"/>
-      <c r="AF12" s="296"/>
-      <c r="AG12" s="296"/>
-      <c r="AH12" s="296"/>
-      <c r="AI12" s="296"/>
-      <c r="AJ12" s="296"/>
-      <c r="AK12" s="296"/>
-      <c r="AL12" s="296"/>
-      <c r="AM12" s="296"/>
-      <c r="AN12" s="296"/>
-      <c r="AO12" s="296"/>
-      <c r="AP12" s="296"/>
-      <c r="AQ12" s="296"/>
-      <c r="AR12" s="296"/>
-      <c r="AS12" s="296"/>
-      <c r="AT12" s="296"/>
-      <c r="AU12" s="296"/>
-      <c r="AV12" s="296"/>
-      <c r="AW12" s="296"/>
-      <c r="AX12" s="296"/>
-      <c r="AY12" s="296"/>
-      <c r="AZ12" s="296"/>
-      <c r="BA12" s="296"/>
-      <c r="BB12" s="296"/>
-      <c r="BC12" s="296"/>
-      <c r="BD12" s="296"/>
-      <c r="BE12" s="296"/>
-      <c r="BF12" s="296"/>
-      <c r="BG12" s="296"/>
-      <c r="BH12" s="296"/>
-      <c r="BI12" s="296"/>
-      <c r="BJ12" s="296"/>
-      <c r="BK12" s="297"/>
+      <c r="D12" s="256"/>
+      <c r="E12" s="256"/>
+      <c r="F12" s="256"/>
+      <c r="G12" s="256"/>
+      <c r="H12" s="256"/>
+      <c r="I12" s="256"/>
+      <c r="J12" s="256"/>
+      <c r="K12" s="256"/>
+      <c r="L12" s="256"/>
+      <c r="M12" s="256"/>
+      <c r="N12" s="256"/>
+      <c r="O12" s="256"/>
+      <c r="P12" s="256"/>
+      <c r="Q12" s="256"/>
+      <c r="R12" s="256"/>
+      <c r="S12" s="256"/>
+      <c r="T12" s="256"/>
+      <c r="U12" s="256"/>
+      <c r="V12" s="256"/>
+      <c r="W12" s="256"/>
+      <c r="X12" s="256"/>
+      <c r="Y12" s="256"/>
+      <c r="Z12" s="256"/>
+      <c r="AA12" s="256"/>
+      <c r="AB12" s="256"/>
+      <c r="AC12" s="256"/>
+      <c r="AD12" s="256"/>
+      <c r="AE12" s="256"/>
+      <c r="AF12" s="256"/>
+      <c r="AG12" s="256"/>
+      <c r="AH12" s="256"/>
+      <c r="AI12" s="256"/>
+      <c r="AJ12" s="256"/>
+      <c r="AK12" s="256"/>
+      <c r="AL12" s="256"/>
+      <c r="AM12" s="256"/>
+      <c r="AN12" s="256"/>
+      <c r="AO12" s="256"/>
+      <c r="AP12" s="256"/>
+      <c r="AQ12" s="256"/>
+      <c r="AR12" s="256"/>
+      <c r="AS12" s="256"/>
+      <c r="AT12" s="256"/>
+      <c r="AU12" s="256"/>
+      <c r="AV12" s="256"/>
+      <c r="AW12" s="256"/>
+      <c r="AX12" s="256"/>
+      <c r="AY12" s="256"/>
+      <c r="AZ12" s="256"/>
+      <c r="BA12" s="256"/>
+      <c r="BB12" s="256"/>
+      <c r="BC12" s="256"/>
+      <c r="BD12" s="256"/>
+      <c r="BE12" s="256"/>
+      <c r="BF12" s="256"/>
+      <c r="BG12" s="256"/>
+      <c r="BH12" s="256"/>
+      <c r="BI12" s="256"/>
+      <c r="BJ12" s="256"/>
+      <c r="BK12" s="257"/>
     </row>
     <row r="13" spans="1:65" s="74" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="75"/>
@@ -11968,69 +11968,69 @@
     <row r="14" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="34"/>
       <c r="B14" s="36"/>
-      <c r="C14" s="298" t="s">
+      <c r="C14" s="258" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="299"/>
-      <c r="E14" s="299"/>
-      <c r="F14" s="299"/>
-      <c r="G14" s="299"/>
-      <c r="H14" s="299"/>
-      <c r="I14" s="299"/>
-      <c r="J14" s="299"/>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
-      <c r="M14" s="299"/>
-      <c r="N14" s="299"/>
-      <c r="O14" s="299"/>
-      <c r="P14" s="299"/>
-      <c r="Q14" s="299"/>
-      <c r="R14" s="299"/>
-      <c r="S14" s="299"/>
-      <c r="T14" s="299"/>
-      <c r="U14" s="299"/>
-      <c r="V14" s="299"/>
-      <c r="W14" s="299"/>
-      <c r="X14" s="299"/>
-      <c r="Y14" s="299"/>
-      <c r="Z14" s="299"/>
-      <c r="AA14" s="299"/>
-      <c r="AB14" s="299"/>
-      <c r="AC14" s="299"/>
-      <c r="AD14" s="299"/>
-      <c r="AE14" s="299"/>
-      <c r="AF14" s="299"/>
-      <c r="AG14" s="299"/>
-      <c r="AH14" s="299"/>
-      <c r="AI14" s="299"/>
-      <c r="AJ14" s="299"/>
-      <c r="AK14" s="299"/>
-      <c r="AL14" s="299"/>
-      <c r="AM14" s="299"/>
-      <c r="AN14" s="299"/>
-      <c r="AO14" s="299"/>
-      <c r="AP14" s="299"/>
-      <c r="AQ14" s="299"/>
-      <c r="AR14" s="299"/>
-      <c r="AS14" s="299"/>
-      <c r="AT14" s="299"/>
-      <c r="AU14" s="299"/>
-      <c r="AV14" s="299"/>
-      <c r="AW14" s="299"/>
-      <c r="AX14" s="299"/>
-      <c r="AY14" s="299"/>
-      <c r="AZ14" s="299"/>
-      <c r="BA14" s="299"/>
-      <c r="BB14" s="299"/>
-      <c r="BC14" s="299"/>
-      <c r="BD14" s="299"/>
-      <c r="BE14" s="299"/>
-      <c r="BF14" s="299"/>
-      <c r="BG14" s="299"/>
-      <c r="BH14" s="299"/>
-      <c r="BI14" s="299"/>
-      <c r="BJ14" s="299"/>
-      <c r="BK14" s="300"/>
+      <c r="D14" s="259"/>
+      <c r="E14" s="259"/>
+      <c r="F14" s="259"/>
+      <c r="G14" s="259"/>
+      <c r="H14" s="259"/>
+      <c r="I14" s="259"/>
+      <c r="J14" s="259"/>
+      <c r="K14" s="259"/>
+      <c r="L14" s="259"/>
+      <c r="M14" s="259"/>
+      <c r="N14" s="259"/>
+      <c r="O14" s="259"/>
+      <c r="P14" s="259"/>
+      <c r="Q14" s="259"/>
+      <c r="R14" s="259"/>
+      <c r="S14" s="259"/>
+      <c r="T14" s="259"/>
+      <c r="U14" s="259"/>
+      <c r="V14" s="259"/>
+      <c r="W14" s="259"/>
+      <c r="X14" s="259"/>
+      <c r="Y14" s="259"/>
+      <c r="Z14" s="259"/>
+      <c r="AA14" s="259"/>
+      <c r="AB14" s="259"/>
+      <c r="AC14" s="259"/>
+      <c r="AD14" s="259"/>
+      <c r="AE14" s="259"/>
+      <c r="AF14" s="259"/>
+      <c r="AG14" s="259"/>
+      <c r="AH14" s="259"/>
+      <c r="AI14" s="259"/>
+      <c r="AJ14" s="259"/>
+      <c r="AK14" s="259"/>
+      <c r="AL14" s="259"/>
+      <c r="AM14" s="259"/>
+      <c r="AN14" s="259"/>
+      <c r="AO14" s="259"/>
+      <c r="AP14" s="259"/>
+      <c r="AQ14" s="259"/>
+      <c r="AR14" s="259"/>
+      <c r="AS14" s="259"/>
+      <c r="AT14" s="259"/>
+      <c r="AU14" s="259"/>
+      <c r="AV14" s="259"/>
+      <c r="AW14" s="259"/>
+      <c r="AX14" s="259"/>
+      <c r="AY14" s="259"/>
+      <c r="AZ14" s="259"/>
+      <c r="BA14" s="259"/>
+      <c r="BB14" s="259"/>
+      <c r="BC14" s="259"/>
+      <c r="BD14" s="259"/>
+      <c r="BE14" s="259"/>
+      <c r="BF14" s="259"/>
+      <c r="BG14" s="259"/>
+      <c r="BH14" s="259"/>
+      <c r="BI14" s="259"/>
+      <c r="BJ14" s="259"/>
+      <c r="BK14" s="260"/>
     </row>
     <row r="15" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="52"/>
@@ -12501,13 +12501,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C12:BK12"/>
-    <mergeCell ref="C14:BK14"/>
-    <mergeCell ref="BH5:BK5"/>
-    <mergeCell ref="AN6:AP6"/>
-    <mergeCell ref="AQ6:BB6"/>
-    <mergeCell ref="BC6:BK6"/>
-    <mergeCell ref="C7:BK7"/>
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AU4"/>
     <mergeCell ref="AY4:BD4"/>
     <mergeCell ref="BE4:BG4"/>
     <mergeCell ref="BH4:BK4"/>
@@ -12519,11 +12517,13 @@
     <mergeCell ref="AY5:BD5"/>
     <mergeCell ref="BE5:BG5"/>
     <mergeCell ref="AV4:AX4"/>
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AU4"/>
+    <mergeCell ref="C12:BK12"/>
+    <mergeCell ref="C14:BK14"/>
+    <mergeCell ref="BH5:BK5"/>
+    <mergeCell ref="AN6:AP6"/>
+    <mergeCell ref="AQ6:BB6"/>
+    <mergeCell ref="BC6:BK6"/>
+    <mergeCell ref="C7:BK7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12534,7 +12534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A36C11-62C1-42C6-8B6F-4B217536EE87}">
   <dimension ref="A1:BL35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="AL1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:BL18"/>
     </sheetView>
   </sheetViews>
@@ -12742,35 +12742,35 @@
       <c r="BL1" s="21"/>
     </row>
     <row r="2" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="241" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="208"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="208"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="208"/>
-      <c r="T2" s="208"/>
-      <c r="U2" s="208"/>
-      <c r="V2" s="208"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="208"/>
-      <c r="Y2" s="208"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="208"/>
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="242"/>
+      <c r="K2" s="242"/>
+      <c r="L2" s="242"/>
+      <c r="M2" s="242"/>
+      <c r="N2" s="242"/>
+      <c r="O2" s="242"/>
+      <c r="P2" s="242"/>
+      <c r="Q2" s="242"/>
+      <c r="R2" s="242"/>
+      <c r="S2" s="242"/>
+      <c r="T2" s="242"/>
+      <c r="U2" s="242"/>
+      <c r="V2" s="242"/>
+      <c r="W2" s="242"/>
+      <c r="X2" s="242"/>
+      <c r="Y2" s="242"/>
+      <c r="Z2" s="242"/>
+      <c r="AA2" s="242"/>
       <c r="AP2" s="25"/>
       <c r="AQ2" s="25"/>
       <c r="AR2" s="25"/>
@@ -12796,33 +12796,33 @@
       <c r="BL2" s="26"/>
     </row>
     <row r="3" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="306"/>
-      <c r="B3" s="307"/>
-      <c r="C3" s="307"/>
-      <c r="D3" s="307"/>
-      <c r="E3" s="307"/>
-      <c r="F3" s="307"/>
-      <c r="G3" s="307"/>
-      <c r="H3" s="307"/>
-      <c r="I3" s="307"/>
-      <c r="J3" s="307"/>
-      <c r="K3" s="307"/>
-      <c r="L3" s="307"/>
-      <c r="M3" s="307"/>
-      <c r="N3" s="307"/>
-      <c r="O3" s="307"/>
-      <c r="P3" s="307"/>
-      <c r="Q3" s="307"/>
-      <c r="R3" s="307"/>
-      <c r="S3" s="307"/>
-      <c r="T3" s="307"/>
-      <c r="U3" s="307"/>
-      <c r="V3" s="307"/>
-      <c r="W3" s="307"/>
-      <c r="X3" s="307"/>
-      <c r="Y3" s="307"/>
-      <c r="Z3" s="307"/>
-      <c r="AA3" s="307"/>
+      <c r="A3" s="376"/>
+      <c r="B3" s="377"/>
+      <c r="C3" s="377"/>
+      <c r="D3" s="377"/>
+      <c r="E3" s="377"/>
+      <c r="F3" s="377"/>
+      <c r="G3" s="377"/>
+      <c r="H3" s="377"/>
+      <c r="I3" s="377"/>
+      <c r="J3" s="377"/>
+      <c r="K3" s="377"/>
+      <c r="L3" s="377"/>
+      <c r="M3" s="377"/>
+      <c r="N3" s="377"/>
+      <c r="O3" s="377"/>
+      <c r="P3" s="377"/>
+      <c r="Q3" s="377"/>
+      <c r="R3" s="377"/>
+      <c r="S3" s="377"/>
+      <c r="T3" s="377"/>
+      <c r="U3" s="377"/>
+      <c r="V3" s="377"/>
+      <c r="W3" s="377"/>
+      <c r="X3" s="377"/>
+      <c r="Y3" s="377"/>
+      <c r="Z3" s="377"/>
+      <c r="AA3" s="377"/>
       <c r="AB3" s="45"/>
       <c r="AC3" s="45"/>
       <c r="AD3" s="45"/>
@@ -12862,404 +12862,404 @@
       <c r="BL3" s="67"/>
     </row>
     <row r="4" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="308" t="s">
+      <c r="A4" s="378" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="309"/>
-      <c r="C4" s="309"/>
-      <c r="D4" s="309"/>
-      <c r="E4" s="309"/>
-      <c r="F4" s="310"/>
-      <c r="G4" s="311" t="s">
+      <c r="B4" s="379"/>
+      <c r="C4" s="379"/>
+      <c r="D4" s="379"/>
+      <c r="E4" s="379"/>
+      <c r="F4" s="380"/>
+      <c r="G4" s="381" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="312"/>
-      <c r="I4" s="312"/>
-      <c r="J4" s="312"/>
-      <c r="K4" s="312"/>
-      <c r="L4" s="312"/>
-      <c r="M4" s="312"/>
-      <c r="N4" s="312"/>
-      <c r="O4" s="313"/>
-      <c r="P4" s="314" t="s">
+      <c r="H4" s="382"/>
+      <c r="I4" s="382"/>
+      <c r="J4" s="382"/>
+      <c r="K4" s="382"/>
+      <c r="L4" s="382"/>
+      <c r="M4" s="382"/>
+      <c r="N4" s="382"/>
+      <c r="O4" s="383"/>
+      <c r="P4" s="384" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="315"/>
-      <c r="R4" s="315"/>
-      <c r="S4" s="315"/>
-      <c r="T4" s="315"/>
-      <c r="U4" s="316"/>
-      <c r="V4" s="317" t="s">
+      <c r="Q4" s="385"/>
+      <c r="R4" s="385"/>
+      <c r="S4" s="385"/>
+      <c r="T4" s="385"/>
+      <c r="U4" s="386"/>
+      <c r="V4" s="387" t="s">
         <v>80</v>
       </c>
-      <c r="W4" s="318"/>
-      <c r="X4" s="318"/>
-      <c r="Y4" s="318"/>
-      <c r="Z4" s="318"/>
-      <c r="AA4" s="318"/>
-      <c r="AB4" s="318"/>
-      <c r="AC4" s="318"/>
-      <c r="AD4" s="318"/>
-      <c r="AE4" s="318"/>
-      <c r="AF4" s="318"/>
-      <c r="AG4" s="318"/>
-      <c r="AH4" s="318"/>
-      <c r="AI4" s="318"/>
-      <c r="AJ4" s="318"/>
-      <c r="AK4" s="318"/>
-      <c r="AL4" s="318"/>
-      <c r="AM4" s="318"/>
-      <c r="AN4" s="318"/>
-      <c r="AO4" s="318"/>
-      <c r="AP4" s="318"/>
-      <c r="AQ4" s="318"/>
-      <c r="AR4" s="318"/>
-      <c r="AS4" s="318"/>
-      <c r="AT4" s="318"/>
-      <c r="AU4" s="318"/>
-      <c r="AV4" s="319"/>
-      <c r="AW4" s="320" t="s">
+      <c r="W4" s="388"/>
+      <c r="X4" s="388"/>
+      <c r="Y4" s="388"/>
+      <c r="Z4" s="388"/>
+      <c r="AA4" s="388"/>
+      <c r="AB4" s="388"/>
+      <c r="AC4" s="388"/>
+      <c r="AD4" s="388"/>
+      <c r="AE4" s="388"/>
+      <c r="AF4" s="388"/>
+      <c r="AG4" s="388"/>
+      <c r="AH4" s="388"/>
+      <c r="AI4" s="388"/>
+      <c r="AJ4" s="388"/>
+      <c r="AK4" s="388"/>
+      <c r="AL4" s="388"/>
+      <c r="AM4" s="388"/>
+      <c r="AN4" s="388"/>
+      <c r="AO4" s="388"/>
+      <c r="AP4" s="388"/>
+      <c r="AQ4" s="388"/>
+      <c r="AR4" s="388"/>
+      <c r="AS4" s="388"/>
+      <c r="AT4" s="388"/>
+      <c r="AU4" s="388"/>
+      <c r="AV4" s="389"/>
+      <c r="AW4" s="390" t="s">
         <v>11</v>
       </c>
-      <c r="AX4" s="321"/>
-      <c r="AY4" s="322"/>
-      <c r="AZ4" s="267">
+      <c r="AX4" s="391"/>
+      <c r="AY4" s="392"/>
+      <c r="AZ4" s="269">
         <v>45427</v>
       </c>
-      <c r="BA4" s="268"/>
-      <c r="BB4" s="268"/>
-      <c r="BC4" s="268"/>
-      <c r="BD4" s="268"/>
-      <c r="BE4" s="268"/>
-      <c r="BF4" s="320" t="s">
+      <c r="BA4" s="270"/>
+      <c r="BB4" s="270"/>
+      <c r="BC4" s="270"/>
+      <c r="BD4" s="270"/>
+      <c r="BE4" s="270"/>
+      <c r="BF4" s="390" t="s">
         <v>12</v>
       </c>
-      <c r="BG4" s="321"/>
-      <c r="BH4" s="323"/>
-      <c r="BI4" s="324" t="s">
+      <c r="BG4" s="391"/>
+      <c r="BH4" s="393"/>
+      <c r="BI4" s="394" t="s">
         <v>83</v>
       </c>
-      <c r="BJ4" s="273"/>
-      <c r="BK4" s="273"/>
-      <c r="BL4" s="274"/>
+      <c r="BJ4" s="262"/>
+      <c r="BK4" s="262"/>
+      <c r="BL4" s="263"/>
     </row>
     <row r="5" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="325" t="s">
+      <c r="A5" s="349" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="326"/>
-      <c r="C5" s="326"/>
-      <c r="D5" s="326"/>
-      <c r="E5" s="326"/>
-      <c r="F5" s="327"/>
-      <c r="G5" s="224"/>
-      <c r="H5" s="224"/>
-      <c r="I5" s="224"/>
-      <c r="J5" s="224"/>
-      <c r="K5" s="224"/>
-      <c r="L5" s="224"/>
-      <c r="M5" s="224"/>
-      <c r="N5" s="224"/>
-      <c r="O5" s="328"/>
-      <c r="P5" s="325" t="s">
+      <c r="B5" s="350"/>
+      <c r="C5" s="350"/>
+      <c r="D5" s="350"/>
+      <c r="E5" s="350"/>
+      <c r="F5" s="351"/>
+      <c r="G5" s="226"/>
+      <c r="H5" s="226"/>
+      <c r="I5" s="226"/>
+      <c r="J5" s="226"/>
+      <c r="K5" s="226"/>
+      <c r="L5" s="226"/>
+      <c r="M5" s="226"/>
+      <c r="N5" s="226"/>
+      <c r="O5" s="352"/>
+      <c r="P5" s="349" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="326"/>
-      <c r="R5" s="326"/>
-      <c r="S5" s="326"/>
-      <c r="T5" s="326"/>
-      <c r="U5" s="327"/>
-      <c r="V5" s="329"/>
-      <c r="W5" s="222"/>
-      <c r="X5" s="222"/>
-      <c r="Y5" s="222"/>
-      <c r="Z5" s="222"/>
-      <c r="AA5" s="222"/>
-      <c r="AB5" s="222"/>
-      <c r="AC5" s="222"/>
-      <c r="AD5" s="222"/>
-      <c r="AE5" s="222"/>
-      <c r="AF5" s="222"/>
-      <c r="AG5" s="222"/>
-      <c r="AH5" s="222"/>
-      <c r="AI5" s="222"/>
-      <c r="AJ5" s="222"/>
-      <c r="AK5" s="222"/>
-      <c r="AL5" s="222"/>
-      <c r="AM5" s="222"/>
-      <c r="AN5" s="222"/>
-      <c r="AO5" s="330"/>
-      <c r="AP5" s="330"/>
-      <c r="AQ5" s="330"/>
-      <c r="AR5" s="330"/>
-      <c r="AS5" s="330"/>
-      <c r="AT5" s="330"/>
-      <c r="AU5" s="330"/>
-      <c r="AV5" s="331"/>
-      <c r="AW5" s="332" t="s">
+      <c r="Q5" s="350"/>
+      <c r="R5" s="350"/>
+      <c r="S5" s="350"/>
+      <c r="T5" s="350"/>
+      <c r="U5" s="351"/>
+      <c r="V5" s="353"/>
+      <c r="W5" s="224"/>
+      <c r="X5" s="224"/>
+      <c r="Y5" s="224"/>
+      <c r="Z5" s="224"/>
+      <c r="AA5" s="224"/>
+      <c r="AB5" s="224"/>
+      <c r="AC5" s="224"/>
+      <c r="AD5" s="224"/>
+      <c r="AE5" s="224"/>
+      <c r="AF5" s="224"/>
+      <c r="AG5" s="224"/>
+      <c r="AH5" s="224"/>
+      <c r="AI5" s="224"/>
+      <c r="AJ5" s="224"/>
+      <c r="AK5" s="224"/>
+      <c r="AL5" s="224"/>
+      <c r="AM5" s="224"/>
+      <c r="AN5" s="224"/>
+      <c r="AO5" s="354"/>
+      <c r="AP5" s="354"/>
+      <c r="AQ5" s="354"/>
+      <c r="AR5" s="354"/>
+      <c r="AS5" s="354"/>
+      <c r="AT5" s="354"/>
+      <c r="AU5" s="354"/>
+      <c r="AV5" s="355"/>
+      <c r="AW5" s="356" t="s">
         <v>16</v>
       </c>
-      <c r="AX5" s="333"/>
-      <c r="AY5" s="334"/>
-      <c r="AZ5" s="333"/>
-      <c r="BA5" s="333"/>
-      <c r="BB5" s="333"/>
-      <c r="BC5" s="333"/>
-      <c r="BD5" s="333"/>
-      <c r="BE5" s="333"/>
-      <c r="BF5" s="332" t="s">
+      <c r="AX5" s="357"/>
+      <c r="AY5" s="358"/>
+      <c r="AZ5" s="357"/>
+      <c r="BA5" s="357"/>
+      <c r="BB5" s="357"/>
+      <c r="BC5" s="357"/>
+      <c r="BD5" s="357"/>
+      <c r="BE5" s="357"/>
+      <c r="BF5" s="356" t="s">
         <v>17</v>
       </c>
-      <c r="BG5" s="333"/>
-      <c r="BH5" s="333"/>
-      <c r="BI5" s="332"/>
-      <c r="BJ5" s="330"/>
-      <c r="BK5" s="330"/>
-      <c r="BL5" s="331"/>
+      <c r="BG5" s="357"/>
+      <c r="BH5" s="357"/>
+      <c r="BI5" s="356"/>
+      <c r="BJ5" s="354"/>
+      <c r="BK5" s="354"/>
+      <c r="BL5" s="355"/>
     </row>
     <row r="6" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="335" t="s">
+      <c r="A6" s="359" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="336"/>
-      <c r="C6" s="336"/>
-      <c r="D6" s="336"/>
-      <c r="E6" s="336"/>
-      <c r="F6" s="336"/>
-      <c r="G6" s="336"/>
-      <c r="H6" s="336"/>
-      <c r="I6" s="336"/>
-      <c r="J6" s="336"/>
-      <c r="K6" s="336"/>
-      <c r="L6" s="336"/>
-      <c r="M6" s="336"/>
-      <c r="N6" s="336"/>
-      <c r="O6" s="336"/>
-      <c r="P6" s="336"/>
-      <c r="Q6" s="336"/>
-      <c r="R6" s="336"/>
-      <c r="S6" s="336"/>
-      <c r="T6" s="336"/>
-      <c r="U6" s="336"/>
-      <c r="V6" s="336"/>
-      <c r="W6" s="336"/>
-      <c r="X6" s="336"/>
-      <c r="Y6" s="336"/>
-      <c r="Z6" s="336"/>
-      <c r="AA6" s="336"/>
-      <c r="AB6" s="337"/>
-      <c r="AC6" s="335" t="s">
+      <c r="B6" s="360"/>
+      <c r="C6" s="360"/>
+      <c r="D6" s="360"/>
+      <c r="E6" s="360"/>
+      <c r="F6" s="360"/>
+      <c r="G6" s="360"/>
+      <c r="H6" s="360"/>
+      <c r="I6" s="360"/>
+      <c r="J6" s="360"/>
+      <c r="K6" s="360"/>
+      <c r="L6" s="360"/>
+      <c r="M6" s="360"/>
+      <c r="N6" s="360"/>
+      <c r="O6" s="360"/>
+      <c r="P6" s="360"/>
+      <c r="Q6" s="360"/>
+      <c r="R6" s="360"/>
+      <c r="S6" s="360"/>
+      <c r="T6" s="360"/>
+      <c r="U6" s="360"/>
+      <c r="V6" s="360"/>
+      <c r="W6" s="360"/>
+      <c r="X6" s="360"/>
+      <c r="Y6" s="360"/>
+      <c r="Z6" s="360"/>
+      <c r="AA6" s="360"/>
+      <c r="AB6" s="361"/>
+      <c r="AC6" s="359" t="s">
         <v>29</v>
       </c>
-      <c r="AD6" s="336"/>
-      <c r="AE6" s="336"/>
-      <c r="AF6" s="336"/>
-      <c r="AG6" s="336"/>
-      <c r="AH6" s="336"/>
-      <c r="AI6" s="336"/>
-      <c r="AJ6" s="336"/>
-      <c r="AK6" s="336"/>
-      <c r="AL6" s="336"/>
-      <c r="AM6" s="336"/>
-      <c r="AN6" s="336"/>
-      <c r="AO6" s="338" t="s">
+      <c r="AD6" s="360"/>
+      <c r="AE6" s="360"/>
+      <c r="AF6" s="360"/>
+      <c r="AG6" s="360"/>
+      <c r="AH6" s="360"/>
+      <c r="AI6" s="360"/>
+      <c r="AJ6" s="360"/>
+      <c r="AK6" s="360"/>
+      <c r="AL6" s="360"/>
+      <c r="AM6" s="360"/>
+      <c r="AN6" s="360"/>
+      <c r="AO6" s="362" t="s">
         <v>30</v>
       </c>
-      <c r="AP6" s="339"/>
-      <c r="AQ6" s="339"/>
-      <c r="AR6" s="339"/>
-      <c r="AS6" s="339"/>
-      <c r="AT6" s="339"/>
-      <c r="AU6" s="339"/>
-      <c r="AV6" s="339"/>
-      <c r="AW6" s="339"/>
-      <c r="AX6" s="339"/>
-      <c r="AY6" s="339"/>
-      <c r="AZ6" s="339"/>
-      <c r="BA6" s="339"/>
-      <c r="BB6" s="339"/>
-      <c r="BC6" s="339"/>
-      <c r="BD6" s="339"/>
-      <c r="BE6" s="339"/>
-      <c r="BF6" s="339"/>
-      <c r="BG6" s="339"/>
-      <c r="BH6" s="339"/>
-      <c r="BI6" s="339"/>
-      <c r="BJ6" s="339"/>
-      <c r="BK6" s="339"/>
-      <c r="BL6" s="340"/>
+      <c r="AP6" s="363"/>
+      <c r="AQ6" s="363"/>
+      <c r="AR6" s="363"/>
+      <c r="AS6" s="363"/>
+      <c r="AT6" s="363"/>
+      <c r="AU6" s="363"/>
+      <c r="AV6" s="363"/>
+      <c r="AW6" s="363"/>
+      <c r="AX6" s="363"/>
+      <c r="AY6" s="363"/>
+      <c r="AZ6" s="363"/>
+      <c r="BA6" s="363"/>
+      <c r="BB6" s="363"/>
+      <c r="BC6" s="363"/>
+      <c r="BD6" s="363"/>
+      <c r="BE6" s="363"/>
+      <c r="BF6" s="363"/>
+      <c r="BG6" s="363"/>
+      <c r="BH6" s="363"/>
+      <c r="BI6" s="363"/>
+      <c r="BJ6" s="363"/>
+      <c r="BK6" s="363"/>
+      <c r="BL6" s="364"/>
     </row>
     <row r="7" spans="1:64" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="344" t="s">
+      <c r="B7" s="368" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="345"/>
-      <c r="D7" s="345"/>
-      <c r="E7" s="345"/>
-      <c r="F7" s="345"/>
-      <c r="G7" s="345"/>
-      <c r="H7" s="345"/>
-      <c r="I7" s="345"/>
-      <c r="J7" s="345"/>
-      <c r="K7" s="345"/>
-      <c r="L7" s="346"/>
-      <c r="M7" s="347" t="s">
+      <c r="C7" s="369"/>
+      <c r="D7" s="369"/>
+      <c r="E7" s="369"/>
+      <c r="F7" s="369"/>
+      <c r="G7" s="369"/>
+      <c r="H7" s="369"/>
+      <c r="I7" s="369"/>
+      <c r="J7" s="369"/>
+      <c r="K7" s="369"/>
+      <c r="L7" s="370"/>
+      <c r="M7" s="371" t="s">
         <v>33</v>
       </c>
-      <c r="N7" s="348"/>
-      <c r="O7" s="348"/>
-      <c r="P7" s="349"/>
-      <c r="Q7" s="347" t="s">
+      <c r="N7" s="372"/>
+      <c r="O7" s="372"/>
+      <c r="P7" s="373"/>
+      <c r="Q7" s="371" t="s">
         <v>34</v>
       </c>
-      <c r="R7" s="349"/>
-      <c r="S7" s="347" t="s">
+      <c r="R7" s="373"/>
+      <c r="S7" s="371" t="s">
         <v>72</v>
       </c>
-      <c r="T7" s="349"/>
-      <c r="U7" s="347" t="s">
+      <c r="T7" s="373"/>
+      <c r="U7" s="371" t="s">
         <v>35</v>
       </c>
-      <c r="V7" s="349"/>
-      <c r="W7" s="347" t="s">
+      <c r="V7" s="373"/>
+      <c r="W7" s="371" t="s">
         <v>36</v>
       </c>
-      <c r="X7" s="349"/>
-      <c r="Y7" s="344" t="s">
+      <c r="X7" s="373"/>
+      <c r="Y7" s="368" t="s">
         <v>37</v>
       </c>
-      <c r="Z7" s="345"/>
-      <c r="AA7" s="345"/>
-      <c r="AB7" s="350"/>
-      <c r="AC7" s="351" t="s">
+      <c r="Z7" s="369"/>
+      <c r="AA7" s="369"/>
+      <c r="AB7" s="374"/>
+      <c r="AC7" s="375" t="s">
         <v>38</v>
       </c>
-      <c r="AD7" s="345"/>
-      <c r="AE7" s="345"/>
-      <c r="AF7" s="345"/>
-      <c r="AG7" s="346"/>
-      <c r="AH7" s="348" t="s">
+      <c r="AD7" s="369"/>
+      <c r="AE7" s="369"/>
+      <c r="AF7" s="369"/>
+      <c r="AG7" s="370"/>
+      <c r="AH7" s="372" t="s">
         <v>19</v>
       </c>
-      <c r="AI7" s="348"/>
-      <c r="AJ7" s="348"/>
-      <c r="AK7" s="348"/>
-      <c r="AL7" s="348"/>
-      <c r="AM7" s="348"/>
-      <c r="AN7" s="348"/>
-      <c r="AO7" s="341"/>
-      <c r="AP7" s="342"/>
-      <c r="AQ7" s="342"/>
-      <c r="AR7" s="342"/>
-      <c r="AS7" s="342"/>
-      <c r="AT7" s="342"/>
-      <c r="AU7" s="342"/>
-      <c r="AV7" s="342"/>
-      <c r="AW7" s="342"/>
-      <c r="AX7" s="342"/>
-      <c r="AY7" s="342"/>
-      <c r="AZ7" s="342"/>
-      <c r="BA7" s="342"/>
-      <c r="BB7" s="342"/>
-      <c r="BC7" s="342"/>
-      <c r="BD7" s="342"/>
-      <c r="BE7" s="342"/>
-      <c r="BF7" s="342"/>
-      <c r="BG7" s="342"/>
-      <c r="BH7" s="342"/>
-      <c r="BI7" s="342"/>
-      <c r="BJ7" s="342"/>
-      <c r="BK7" s="342"/>
-      <c r="BL7" s="343"/>
+      <c r="AI7" s="372"/>
+      <c r="AJ7" s="372"/>
+      <c r="AK7" s="372"/>
+      <c r="AL7" s="372"/>
+      <c r="AM7" s="372"/>
+      <c r="AN7" s="372"/>
+      <c r="AO7" s="365"/>
+      <c r="AP7" s="366"/>
+      <c r="AQ7" s="366"/>
+      <c r="AR7" s="366"/>
+      <c r="AS7" s="366"/>
+      <c r="AT7" s="366"/>
+      <c r="AU7" s="366"/>
+      <c r="AV7" s="366"/>
+      <c r="AW7" s="366"/>
+      <c r="AX7" s="366"/>
+      <c r="AY7" s="366"/>
+      <c r="AZ7" s="366"/>
+      <c r="BA7" s="366"/>
+      <c r="BB7" s="366"/>
+      <c r="BC7" s="366"/>
+      <c r="BD7" s="366"/>
+      <c r="BE7" s="366"/>
+      <c r="BF7" s="366"/>
+      <c r="BG7" s="366"/>
+      <c r="BH7" s="366"/>
+      <c r="BI7" s="366"/>
+      <c r="BJ7" s="366"/>
+      <c r="BK7" s="366"/>
+      <c r="BL7" s="367"/>
     </row>
     <row r="8" spans="1:64" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="49">
         <v>1</v>
       </c>
-      <c r="B8" s="371" t="s">
+      <c r="B8" s="344" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="372"/>
-      <c r="D8" s="372"/>
-      <c r="E8" s="372"/>
-      <c r="F8" s="372"/>
-      <c r="G8" s="372"/>
-      <c r="H8" s="372"/>
-      <c r="I8" s="372"/>
-      <c r="J8" s="372"/>
-      <c r="K8" s="372"/>
-      <c r="L8" s="373"/>
-      <c r="M8" s="356" t="s">
+      <c r="C8" s="345"/>
+      <c r="D8" s="345"/>
+      <c r="E8" s="345"/>
+      <c r="F8" s="345"/>
+      <c r="G8" s="345"/>
+      <c r="H8" s="345"/>
+      <c r="I8" s="345"/>
+      <c r="J8" s="345"/>
+      <c r="K8" s="345"/>
+      <c r="L8" s="346"/>
+      <c r="M8" s="329" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="357"/>
-      <c r="O8" s="357"/>
-      <c r="P8" s="358"/>
-      <c r="Q8" s="359">
+      <c r="N8" s="330"/>
+      <c r="O8" s="330"/>
+      <c r="P8" s="331"/>
+      <c r="Q8" s="337">
         <v>6</v>
       </c>
-      <c r="R8" s="360"/>
-      <c r="S8" s="356" t="s">
+      <c r="R8" s="338"/>
+      <c r="S8" s="329" t="s">
         <v>46</v>
       </c>
-      <c r="T8" s="358"/>
-      <c r="U8" s="361" t="s">
+      <c r="T8" s="331"/>
+      <c r="U8" s="334" t="s">
         <v>47</v>
       </c>
-      <c r="V8" s="362"/>
-      <c r="W8" s="356" t="s">
+      <c r="V8" s="335"/>
+      <c r="W8" s="329" t="s">
         <v>39</v>
       </c>
-      <c r="X8" s="358"/>
-      <c r="Y8" s="356" t="s">
+      <c r="X8" s="331"/>
+      <c r="Y8" s="329" t="s">
         <v>40</v>
       </c>
-      <c r="Z8" s="357"/>
-      <c r="AA8" s="357"/>
-      <c r="AB8" s="358"/>
-      <c r="AC8" s="363" t="s">
+      <c r="Z8" s="330"/>
+      <c r="AA8" s="330"/>
+      <c r="AB8" s="331"/>
+      <c r="AC8" s="307" t="s">
         <v>62</v>
       </c>
-      <c r="AD8" s="364"/>
-      <c r="AE8" s="364"/>
-      <c r="AF8" s="364"/>
-      <c r="AG8" s="365"/>
-      <c r="AH8" s="374" t="s">
+      <c r="AD8" s="308"/>
+      <c r="AE8" s="308"/>
+      <c r="AF8" s="308"/>
+      <c r="AG8" s="309"/>
+      <c r="AH8" s="347" t="s">
         <v>63</v>
       </c>
-      <c r="AI8" s="375"/>
-      <c r="AJ8" s="375"/>
-      <c r="AK8" s="375"/>
-      <c r="AL8" s="375"/>
-      <c r="AM8" s="375"/>
-      <c r="AN8" s="375"/>
-      <c r="AO8" s="352"/>
-      <c r="AP8" s="353"/>
-      <c r="AQ8" s="353"/>
-      <c r="AR8" s="353"/>
-      <c r="AS8" s="353"/>
-      <c r="AT8" s="353"/>
-      <c r="AU8" s="353"/>
-      <c r="AV8" s="353"/>
-      <c r="AW8" s="353"/>
-      <c r="AX8" s="353"/>
-      <c r="AY8" s="353"/>
-      <c r="AZ8" s="353"/>
-      <c r="BA8" s="353"/>
-      <c r="BB8" s="353"/>
-      <c r="BC8" s="353"/>
-      <c r="BD8" s="353"/>
-      <c r="BE8" s="353"/>
-      <c r="BF8" s="353"/>
-      <c r="BG8" s="353"/>
-      <c r="BH8" s="353"/>
-      <c r="BI8" s="353"/>
-      <c r="BJ8" s="353"/>
-      <c r="BK8" s="353"/>
-      <c r="BL8" s="354"/>
+      <c r="AI8" s="348"/>
+      <c r="AJ8" s="348"/>
+      <c r="AK8" s="348"/>
+      <c r="AL8" s="348"/>
+      <c r="AM8" s="348"/>
+      <c r="AN8" s="348"/>
+      <c r="AO8" s="341"/>
+      <c r="AP8" s="342"/>
+      <c r="AQ8" s="342"/>
+      <c r="AR8" s="342"/>
+      <c r="AS8" s="342"/>
+      <c r="AT8" s="342"/>
+      <c r="AU8" s="342"/>
+      <c r="AV8" s="342"/>
+      <c r="AW8" s="342"/>
+      <c r="AX8" s="342"/>
+      <c r="AY8" s="342"/>
+      <c r="AZ8" s="342"/>
+      <c r="BA8" s="342"/>
+      <c r="BB8" s="342"/>
+      <c r="BC8" s="342"/>
+      <c r="BD8" s="342"/>
+      <c r="BE8" s="342"/>
+      <c r="BF8" s="342"/>
+      <c r="BG8" s="342"/>
+      <c r="BH8" s="342"/>
+      <c r="BI8" s="342"/>
+      <c r="BJ8" s="342"/>
+      <c r="BK8" s="342"/>
+      <c r="BL8" s="343"/>
     </row>
     <row r="9" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="49">
@@ -13268,84 +13268,84 @@
       <c r="B9" s="205" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="203"/>
-      <c r="D9" s="203"/>
-      <c r="E9" s="203"/>
-      <c r="F9" s="203"/>
-      <c r="G9" s="203"/>
-      <c r="H9" s="203"/>
-      <c r="I9" s="203"/>
-      <c r="J9" s="203"/>
-      <c r="K9" s="203"/>
-      <c r="L9" s="355"/>
-      <c r="M9" s="356" t="s">
+      <c r="C9" s="210"/>
+      <c r="D9" s="210"/>
+      <c r="E9" s="210"/>
+      <c r="F9" s="210"/>
+      <c r="G9" s="210"/>
+      <c r="H9" s="210"/>
+      <c r="I9" s="210"/>
+      <c r="J9" s="210"/>
+      <c r="K9" s="210"/>
+      <c r="L9" s="328"/>
+      <c r="M9" s="329" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="357"/>
-      <c r="O9" s="357"/>
-      <c r="P9" s="358"/>
-      <c r="Q9" s="359">
+      <c r="N9" s="330"/>
+      <c r="O9" s="330"/>
+      <c r="P9" s="331"/>
+      <c r="Q9" s="337">
         <v>4</v>
       </c>
-      <c r="R9" s="360"/>
-      <c r="S9" s="356" t="s">
+      <c r="R9" s="338"/>
+      <c r="S9" s="329" t="s">
         <v>46</v>
       </c>
-      <c r="T9" s="358"/>
-      <c r="U9" s="361" t="s">
+      <c r="T9" s="331"/>
+      <c r="U9" s="334" t="s">
         <v>47</v>
       </c>
-      <c r="V9" s="362"/>
-      <c r="W9" s="356" t="s">
+      <c r="V9" s="335"/>
+      <c r="W9" s="329" t="s">
         <v>39</v>
       </c>
-      <c r="X9" s="358"/>
-      <c r="Y9" s="356" t="s">
+      <c r="X9" s="331"/>
+      <c r="Y9" s="329" t="s">
         <v>40</v>
       </c>
-      <c r="Z9" s="357"/>
-      <c r="AA9" s="357"/>
-      <c r="AB9" s="358"/>
-      <c r="AC9" s="363" t="s">
+      <c r="Z9" s="330"/>
+      <c r="AA9" s="330"/>
+      <c r="AB9" s="331"/>
+      <c r="AC9" s="307" t="s">
         <v>62</v>
       </c>
-      <c r="AD9" s="364"/>
-      <c r="AE9" s="364"/>
-      <c r="AF9" s="364"/>
-      <c r="AG9" s="365"/>
-      <c r="AH9" s="366" t="s">
+      <c r="AD9" s="308"/>
+      <c r="AE9" s="308"/>
+      <c r="AF9" s="308"/>
+      <c r="AG9" s="309"/>
+      <c r="AH9" s="310" t="s">
         <v>64</v>
       </c>
-      <c r="AI9" s="367"/>
-      <c r="AJ9" s="367"/>
-      <c r="AK9" s="367"/>
-      <c r="AL9" s="367"/>
-      <c r="AM9" s="367"/>
-      <c r="AN9" s="367"/>
-      <c r="AO9" s="368"/>
-      <c r="AP9" s="369"/>
-      <c r="AQ9" s="369"/>
-      <c r="AR9" s="369"/>
-      <c r="AS9" s="369"/>
-      <c r="AT9" s="369"/>
-      <c r="AU9" s="369"/>
-      <c r="AV9" s="369"/>
-      <c r="AW9" s="369"/>
-      <c r="AX9" s="369"/>
-      <c r="AY9" s="369"/>
-      <c r="AZ9" s="369"/>
-      <c r="BA9" s="369"/>
-      <c r="BB9" s="369"/>
-      <c r="BC9" s="369"/>
-      <c r="BD9" s="369"/>
-      <c r="BE9" s="369"/>
-      <c r="BF9" s="369"/>
-      <c r="BG9" s="369"/>
-      <c r="BH9" s="369"/>
-      <c r="BI9" s="369"/>
-      <c r="BJ9" s="369"/>
-      <c r="BK9" s="369"/>
-      <c r="BL9" s="370"/>
+      <c r="AI9" s="311"/>
+      <c r="AJ9" s="311"/>
+      <c r="AK9" s="311"/>
+      <c r="AL9" s="311"/>
+      <c r="AM9" s="311"/>
+      <c r="AN9" s="311"/>
+      <c r="AO9" s="312"/>
+      <c r="AP9" s="313"/>
+      <c r="AQ9" s="313"/>
+      <c r="AR9" s="313"/>
+      <c r="AS9" s="313"/>
+      <c r="AT9" s="313"/>
+      <c r="AU9" s="313"/>
+      <c r="AV9" s="313"/>
+      <c r="AW9" s="313"/>
+      <c r="AX9" s="313"/>
+      <c r="AY9" s="313"/>
+      <c r="AZ9" s="313"/>
+      <c r="BA9" s="313"/>
+      <c r="BB9" s="313"/>
+      <c r="BC9" s="313"/>
+      <c r="BD9" s="313"/>
+      <c r="BE9" s="313"/>
+      <c r="BF9" s="313"/>
+      <c r="BG9" s="313"/>
+      <c r="BH9" s="313"/>
+      <c r="BI9" s="313"/>
+      <c r="BJ9" s="313"/>
+      <c r="BK9" s="313"/>
+      <c r="BL9" s="314"/>
     </row>
     <row r="10" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="49">
@@ -13354,84 +13354,84 @@
       <c r="B10" s="205" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="203"/>
-      <c r="D10" s="203"/>
-      <c r="E10" s="203"/>
-      <c r="F10" s="203"/>
-      <c r="G10" s="203"/>
-      <c r="H10" s="203"/>
-      <c r="I10" s="203"/>
-      <c r="J10" s="203"/>
-      <c r="K10" s="203"/>
-      <c r="L10" s="355"/>
-      <c r="M10" s="356" t="s">
+      <c r="C10" s="210"/>
+      <c r="D10" s="210"/>
+      <c r="E10" s="210"/>
+      <c r="F10" s="210"/>
+      <c r="G10" s="210"/>
+      <c r="H10" s="210"/>
+      <c r="I10" s="210"/>
+      <c r="J10" s="210"/>
+      <c r="K10" s="210"/>
+      <c r="L10" s="328"/>
+      <c r="M10" s="329" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="357"/>
-      <c r="O10" s="357"/>
-      <c r="P10" s="358"/>
-      <c r="Q10" s="359">
+      <c r="N10" s="330"/>
+      <c r="O10" s="330"/>
+      <c r="P10" s="331"/>
+      <c r="Q10" s="337">
         <v>2</v>
       </c>
-      <c r="R10" s="360"/>
-      <c r="S10" s="376" t="s">
+      <c r="R10" s="338"/>
+      <c r="S10" s="332" t="s">
         <v>46</v>
       </c>
-      <c r="T10" s="377"/>
-      <c r="U10" s="361" t="s">
+      <c r="T10" s="336"/>
+      <c r="U10" s="334" t="s">
         <v>47</v>
       </c>
-      <c r="V10" s="362"/>
-      <c r="W10" s="356" t="s">
+      <c r="V10" s="335"/>
+      <c r="W10" s="329" t="s">
         <v>39</v>
       </c>
-      <c r="X10" s="358"/>
-      <c r="Y10" s="356" t="s">
+      <c r="X10" s="331"/>
+      <c r="Y10" s="329" t="s">
         <v>40</v>
       </c>
-      <c r="Z10" s="357"/>
-      <c r="AA10" s="357"/>
-      <c r="AB10" s="358"/>
-      <c r="AC10" s="363" t="s">
+      <c r="Z10" s="330"/>
+      <c r="AA10" s="330"/>
+      <c r="AB10" s="331"/>
+      <c r="AC10" s="307" t="s">
         <v>62</v>
       </c>
-      <c r="AD10" s="364"/>
-      <c r="AE10" s="364"/>
-      <c r="AF10" s="364"/>
-      <c r="AG10" s="365"/>
-      <c r="AH10" s="366" t="s">
+      <c r="AD10" s="308"/>
+      <c r="AE10" s="308"/>
+      <c r="AF10" s="308"/>
+      <c r="AG10" s="309"/>
+      <c r="AH10" s="310" t="s">
         <v>65</v>
       </c>
-      <c r="AI10" s="367"/>
-      <c r="AJ10" s="367"/>
-      <c r="AK10" s="367"/>
-      <c r="AL10" s="367"/>
-      <c r="AM10" s="367"/>
-      <c r="AN10" s="367"/>
-      <c r="AO10" s="368"/>
-      <c r="AP10" s="369"/>
-      <c r="AQ10" s="369"/>
-      <c r="AR10" s="369"/>
-      <c r="AS10" s="369"/>
-      <c r="AT10" s="369"/>
-      <c r="AU10" s="369"/>
-      <c r="AV10" s="369"/>
-      <c r="AW10" s="369"/>
-      <c r="AX10" s="369"/>
-      <c r="AY10" s="369"/>
-      <c r="AZ10" s="369"/>
-      <c r="BA10" s="369"/>
-      <c r="BB10" s="369"/>
-      <c r="BC10" s="369"/>
-      <c r="BD10" s="369"/>
-      <c r="BE10" s="369"/>
-      <c r="BF10" s="369"/>
-      <c r="BG10" s="369"/>
-      <c r="BH10" s="369"/>
-      <c r="BI10" s="369"/>
-      <c r="BJ10" s="369"/>
-      <c r="BK10" s="369"/>
-      <c r="BL10" s="370"/>
+      <c r="AI10" s="311"/>
+      <c r="AJ10" s="311"/>
+      <c r="AK10" s="311"/>
+      <c r="AL10" s="311"/>
+      <c r="AM10" s="311"/>
+      <c r="AN10" s="311"/>
+      <c r="AO10" s="312"/>
+      <c r="AP10" s="313"/>
+      <c r="AQ10" s="313"/>
+      <c r="AR10" s="313"/>
+      <c r="AS10" s="313"/>
+      <c r="AT10" s="313"/>
+      <c r="AU10" s="313"/>
+      <c r="AV10" s="313"/>
+      <c r="AW10" s="313"/>
+      <c r="AX10" s="313"/>
+      <c r="AY10" s="313"/>
+      <c r="AZ10" s="313"/>
+      <c r="BA10" s="313"/>
+      <c r="BB10" s="313"/>
+      <c r="BC10" s="313"/>
+      <c r="BD10" s="313"/>
+      <c r="BE10" s="313"/>
+      <c r="BF10" s="313"/>
+      <c r="BG10" s="313"/>
+      <c r="BH10" s="313"/>
+      <c r="BI10" s="313"/>
+      <c r="BJ10" s="313"/>
+      <c r="BK10" s="313"/>
+      <c r="BL10" s="314"/>
     </row>
     <row r="11" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="49">
@@ -13440,84 +13440,84 @@
       <c r="B11" s="205" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="203"/>
-      <c r="D11" s="203"/>
-      <c r="E11" s="203"/>
-      <c r="F11" s="203"/>
-      <c r="G11" s="203"/>
-      <c r="H11" s="203"/>
-      <c r="I11" s="203"/>
-      <c r="J11" s="203"/>
-      <c r="K11" s="203"/>
-      <c r="L11" s="355"/>
-      <c r="M11" s="356" t="s">
+      <c r="C11" s="210"/>
+      <c r="D11" s="210"/>
+      <c r="E11" s="210"/>
+      <c r="F11" s="210"/>
+      <c r="G11" s="210"/>
+      <c r="H11" s="210"/>
+      <c r="I11" s="210"/>
+      <c r="J11" s="210"/>
+      <c r="K11" s="210"/>
+      <c r="L11" s="328"/>
+      <c r="M11" s="329" t="s">
         <v>121</v>
       </c>
-      <c r="N11" s="357"/>
-      <c r="O11" s="357"/>
-      <c r="P11" s="358"/>
-      <c r="Q11" s="359">
+      <c r="N11" s="330"/>
+      <c r="O11" s="330"/>
+      <c r="P11" s="331"/>
+      <c r="Q11" s="337">
         <v>2</v>
       </c>
-      <c r="R11" s="360"/>
-      <c r="S11" s="376" t="s">
+      <c r="R11" s="338"/>
+      <c r="S11" s="332" t="s">
         <v>72</v>
       </c>
-      <c r="T11" s="377"/>
-      <c r="U11" s="361" t="s">
+      <c r="T11" s="336"/>
+      <c r="U11" s="334" t="s">
         <v>47</v>
       </c>
-      <c r="V11" s="362"/>
-      <c r="W11" s="356" t="s">
+      <c r="V11" s="335"/>
+      <c r="W11" s="329" t="s">
         <v>39</v>
       </c>
-      <c r="X11" s="358"/>
-      <c r="Y11" s="356" t="s">
+      <c r="X11" s="331"/>
+      <c r="Y11" s="329" t="s">
         <v>40</v>
       </c>
-      <c r="Z11" s="357"/>
-      <c r="AA11" s="357"/>
-      <c r="AB11" s="358"/>
-      <c r="AC11" s="363" t="s">
+      <c r="Z11" s="330"/>
+      <c r="AA11" s="330"/>
+      <c r="AB11" s="331"/>
+      <c r="AC11" s="307" t="s">
         <v>62</v>
       </c>
-      <c r="AD11" s="364"/>
-      <c r="AE11" s="364"/>
-      <c r="AF11" s="364"/>
-      <c r="AG11" s="365"/>
-      <c r="AH11" s="366" t="s">
+      <c r="AD11" s="308"/>
+      <c r="AE11" s="308"/>
+      <c r="AF11" s="308"/>
+      <c r="AG11" s="309"/>
+      <c r="AH11" s="310" t="s">
         <v>66</v>
       </c>
-      <c r="AI11" s="367"/>
-      <c r="AJ11" s="367"/>
-      <c r="AK11" s="367"/>
-      <c r="AL11" s="367"/>
-      <c r="AM11" s="367"/>
-      <c r="AN11" s="367"/>
-      <c r="AO11" s="368"/>
-      <c r="AP11" s="369"/>
-      <c r="AQ11" s="369"/>
-      <c r="AR11" s="369"/>
-      <c r="AS11" s="369"/>
-      <c r="AT11" s="369"/>
-      <c r="AU11" s="369"/>
-      <c r="AV11" s="369"/>
-      <c r="AW11" s="369"/>
-      <c r="AX11" s="369"/>
-      <c r="AY11" s="369"/>
-      <c r="AZ11" s="369"/>
-      <c r="BA11" s="369"/>
-      <c r="BB11" s="369"/>
-      <c r="BC11" s="369"/>
-      <c r="BD11" s="369"/>
-      <c r="BE11" s="369"/>
-      <c r="BF11" s="369"/>
-      <c r="BG11" s="369"/>
-      <c r="BH11" s="369"/>
-      <c r="BI11" s="369"/>
-      <c r="BJ11" s="369"/>
-      <c r="BK11" s="369"/>
-      <c r="BL11" s="370"/>
+      <c r="AI11" s="311"/>
+      <c r="AJ11" s="311"/>
+      <c r="AK11" s="311"/>
+      <c r="AL11" s="311"/>
+      <c r="AM11" s="311"/>
+      <c r="AN11" s="311"/>
+      <c r="AO11" s="312"/>
+      <c r="AP11" s="313"/>
+      <c r="AQ11" s="313"/>
+      <c r="AR11" s="313"/>
+      <c r="AS11" s="313"/>
+      <c r="AT11" s="313"/>
+      <c r="AU11" s="313"/>
+      <c r="AV11" s="313"/>
+      <c r="AW11" s="313"/>
+      <c r="AX11" s="313"/>
+      <c r="AY11" s="313"/>
+      <c r="AZ11" s="313"/>
+      <c r="BA11" s="313"/>
+      <c r="BB11" s="313"/>
+      <c r="BC11" s="313"/>
+      <c r="BD11" s="313"/>
+      <c r="BE11" s="313"/>
+      <c r="BF11" s="313"/>
+      <c r="BG11" s="313"/>
+      <c r="BH11" s="313"/>
+      <c r="BI11" s="313"/>
+      <c r="BJ11" s="313"/>
+      <c r="BK11" s="313"/>
+      <c r="BL11" s="314"/>
     </row>
     <row r="12" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="49">
@@ -13526,86 +13526,86 @@
       <c r="B12" s="205" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="203"/>
-      <c r="D12" s="203"/>
-      <c r="E12" s="203"/>
-      <c r="F12" s="203"/>
-      <c r="G12" s="203"/>
-      <c r="H12" s="203"/>
-      <c r="I12" s="203"/>
-      <c r="J12" s="203"/>
-      <c r="K12" s="203"/>
-      <c r="L12" s="355"/>
-      <c r="M12" s="356" t="s">
+      <c r="C12" s="210"/>
+      <c r="D12" s="210"/>
+      <c r="E12" s="210"/>
+      <c r="F12" s="210"/>
+      <c r="G12" s="210"/>
+      <c r="H12" s="210"/>
+      <c r="I12" s="210"/>
+      <c r="J12" s="210"/>
+      <c r="K12" s="210"/>
+      <c r="L12" s="328"/>
+      <c r="M12" s="329" t="s">
         <v>54</v>
       </c>
-      <c r="N12" s="357"/>
-      <c r="O12" s="357"/>
-      <c r="P12" s="358"/>
-      <c r="Q12" s="359">
+      <c r="N12" s="330"/>
+      <c r="O12" s="330"/>
+      <c r="P12" s="331"/>
+      <c r="Q12" s="337">
         <v>8</v>
       </c>
-      <c r="R12" s="360"/>
-      <c r="S12" s="376" t="s">
+      <c r="R12" s="338"/>
+      <c r="S12" s="332" t="s">
         <v>46</v>
       </c>
-      <c r="T12" s="377"/>
-      <c r="U12" s="361" t="s">
+      <c r="T12" s="336"/>
+      <c r="U12" s="334" t="s">
         <v>47</v>
       </c>
-      <c r="V12" s="362"/>
-      <c r="W12" s="356" t="s">
+      <c r="V12" s="335"/>
+      <c r="W12" s="329" t="s">
         <v>39</v>
       </c>
-      <c r="X12" s="358"/>
-      <c r="Y12" s="356" t="s">
+      <c r="X12" s="331"/>
+      <c r="Y12" s="329" t="s">
         <v>40</v>
       </c>
-      <c r="Z12" s="357"/>
-      <c r="AA12" s="357"/>
-      <c r="AB12" s="358"/>
-      <c r="AC12" s="363" t="s">
+      <c r="Z12" s="330"/>
+      <c r="AA12" s="330"/>
+      <c r="AB12" s="331"/>
+      <c r="AC12" s="307" t="s">
         <v>62</v>
       </c>
-      <c r="AD12" s="364"/>
-      <c r="AE12" s="364"/>
-      <c r="AF12" s="364"/>
-      <c r="AG12" s="365"/>
-      <c r="AH12" s="366" t="s">
+      <c r="AD12" s="308"/>
+      <c r="AE12" s="308"/>
+      <c r="AF12" s="308"/>
+      <c r="AG12" s="309"/>
+      <c r="AH12" s="310" t="s">
         <v>61</v>
       </c>
-      <c r="AI12" s="378"/>
-      <c r="AJ12" s="378"/>
-      <c r="AK12" s="378"/>
-      <c r="AL12" s="378"/>
-      <c r="AM12" s="378"/>
-      <c r="AN12" s="379"/>
-      <c r="AO12" s="368" t="s">
+      <c r="AI12" s="339"/>
+      <c r="AJ12" s="339"/>
+      <c r="AK12" s="339"/>
+      <c r="AL12" s="339"/>
+      <c r="AM12" s="339"/>
+      <c r="AN12" s="340"/>
+      <c r="AO12" s="312" t="s">
         <v>82</v>
       </c>
-      <c r="AP12" s="369"/>
-      <c r="AQ12" s="369"/>
-      <c r="AR12" s="369"/>
-      <c r="AS12" s="369"/>
-      <c r="AT12" s="369"/>
-      <c r="AU12" s="369"/>
-      <c r="AV12" s="369"/>
-      <c r="AW12" s="369"/>
-      <c r="AX12" s="369"/>
-      <c r="AY12" s="369"/>
-      <c r="AZ12" s="369"/>
-      <c r="BA12" s="369"/>
-      <c r="BB12" s="369"/>
-      <c r="BC12" s="369"/>
-      <c r="BD12" s="369"/>
-      <c r="BE12" s="369"/>
-      <c r="BF12" s="369"/>
-      <c r="BG12" s="369"/>
-      <c r="BH12" s="369"/>
-      <c r="BI12" s="369"/>
-      <c r="BJ12" s="369"/>
-      <c r="BK12" s="369"/>
-      <c r="BL12" s="370"/>
+      <c r="AP12" s="313"/>
+      <c r="AQ12" s="313"/>
+      <c r="AR12" s="313"/>
+      <c r="AS12" s="313"/>
+      <c r="AT12" s="313"/>
+      <c r="AU12" s="313"/>
+      <c r="AV12" s="313"/>
+      <c r="AW12" s="313"/>
+      <c r="AX12" s="313"/>
+      <c r="AY12" s="313"/>
+      <c r="AZ12" s="313"/>
+      <c r="BA12" s="313"/>
+      <c r="BB12" s="313"/>
+      <c r="BC12" s="313"/>
+      <c r="BD12" s="313"/>
+      <c r="BE12" s="313"/>
+      <c r="BF12" s="313"/>
+      <c r="BG12" s="313"/>
+      <c r="BH12" s="313"/>
+      <c r="BI12" s="313"/>
+      <c r="BJ12" s="313"/>
+      <c r="BK12" s="313"/>
+      <c r="BL12" s="314"/>
     </row>
     <row r="13" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="49">
@@ -13614,350 +13614,350 @@
       <c r="B13" s="205" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="203"/>
-      <c r="D13" s="203"/>
-      <c r="E13" s="203"/>
-      <c r="F13" s="203"/>
-      <c r="G13" s="203"/>
-      <c r="H13" s="203"/>
-      <c r="I13" s="203"/>
-      <c r="J13" s="203"/>
-      <c r="K13" s="203"/>
-      <c r="L13" s="355"/>
-      <c r="M13" s="356" t="s">
+      <c r="C13" s="210"/>
+      <c r="D13" s="210"/>
+      <c r="E13" s="210"/>
+      <c r="F13" s="210"/>
+      <c r="G13" s="210"/>
+      <c r="H13" s="210"/>
+      <c r="I13" s="210"/>
+      <c r="J13" s="210"/>
+      <c r="K13" s="210"/>
+      <c r="L13" s="328"/>
+      <c r="M13" s="329" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="357"/>
-      <c r="O13" s="357"/>
-      <c r="P13" s="358"/>
-      <c r="Q13" s="359">
+      <c r="N13" s="330"/>
+      <c r="O13" s="330"/>
+      <c r="P13" s="331"/>
+      <c r="Q13" s="337">
         <v>8</v>
       </c>
-      <c r="R13" s="360"/>
-      <c r="S13" s="376" t="s">
+      <c r="R13" s="338"/>
+      <c r="S13" s="332" t="s">
         <v>46</v>
       </c>
-      <c r="T13" s="377"/>
-      <c r="U13" s="361" t="s">
+      <c r="T13" s="336"/>
+      <c r="U13" s="334" t="s">
         <v>47</v>
       </c>
-      <c r="V13" s="362"/>
-      <c r="W13" s="356" t="s">
+      <c r="V13" s="335"/>
+      <c r="W13" s="329" t="s">
         <v>39</v>
       </c>
-      <c r="X13" s="358"/>
-      <c r="Y13" s="356" t="s">
+      <c r="X13" s="331"/>
+      <c r="Y13" s="329" t="s">
         <v>40</v>
       </c>
-      <c r="Z13" s="357"/>
-      <c r="AA13" s="357"/>
-      <c r="AB13" s="358"/>
-      <c r="AC13" s="363" t="s">
+      <c r="Z13" s="330"/>
+      <c r="AA13" s="330"/>
+      <c r="AB13" s="331"/>
+      <c r="AC13" s="307" t="s">
         <v>62</v>
       </c>
-      <c r="AD13" s="364"/>
-      <c r="AE13" s="364"/>
-      <c r="AF13" s="364"/>
-      <c r="AG13" s="365"/>
-      <c r="AH13" s="366" t="s">
+      <c r="AD13" s="308"/>
+      <c r="AE13" s="308"/>
+      <c r="AF13" s="308"/>
+      <c r="AG13" s="309"/>
+      <c r="AH13" s="310" t="s">
         <v>67</v>
       </c>
-      <c r="AI13" s="378"/>
-      <c r="AJ13" s="378"/>
-      <c r="AK13" s="378"/>
-      <c r="AL13" s="378"/>
-      <c r="AM13" s="378"/>
-      <c r="AN13" s="379"/>
-      <c r="AO13" s="368" t="s">
+      <c r="AI13" s="339"/>
+      <c r="AJ13" s="339"/>
+      <c r="AK13" s="339"/>
+      <c r="AL13" s="339"/>
+      <c r="AM13" s="339"/>
+      <c r="AN13" s="340"/>
+      <c r="AO13" s="312" t="s">
         <v>82</v>
       </c>
-      <c r="AP13" s="369"/>
-      <c r="AQ13" s="369"/>
-      <c r="AR13" s="369"/>
-      <c r="AS13" s="369"/>
-      <c r="AT13" s="369"/>
-      <c r="AU13" s="369"/>
-      <c r="AV13" s="369"/>
-      <c r="AW13" s="369"/>
-      <c r="AX13" s="369"/>
-      <c r="AY13" s="369"/>
-      <c r="AZ13" s="369"/>
-      <c r="BA13" s="369"/>
-      <c r="BB13" s="369"/>
-      <c r="BC13" s="369"/>
-      <c r="BD13" s="369"/>
-      <c r="BE13" s="369"/>
-      <c r="BF13" s="369"/>
-      <c r="BG13" s="369"/>
-      <c r="BH13" s="369"/>
-      <c r="BI13" s="369"/>
-      <c r="BJ13" s="369"/>
-      <c r="BK13" s="369"/>
-      <c r="BL13" s="370"/>
+      <c r="AP13" s="313"/>
+      <c r="AQ13" s="313"/>
+      <c r="AR13" s="313"/>
+      <c r="AS13" s="313"/>
+      <c r="AT13" s="313"/>
+      <c r="AU13" s="313"/>
+      <c r="AV13" s="313"/>
+      <c r="AW13" s="313"/>
+      <c r="AX13" s="313"/>
+      <c r="AY13" s="313"/>
+      <c r="AZ13" s="313"/>
+      <c r="BA13" s="313"/>
+      <c r="BB13" s="313"/>
+      <c r="BC13" s="313"/>
+      <c r="BD13" s="313"/>
+      <c r="BE13" s="313"/>
+      <c r="BF13" s="313"/>
+      <c r="BG13" s="313"/>
+      <c r="BH13" s="313"/>
+      <c r="BI13" s="313"/>
+      <c r="BJ13" s="313"/>
+      <c r="BK13" s="313"/>
+      <c r="BL13" s="314"/>
     </row>
     <row r="14" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="49"/>
-      <c r="B14" s="380"/>
-      <c r="C14" s="203"/>
-      <c r="D14" s="203"/>
-      <c r="E14" s="203"/>
-      <c r="F14" s="203"/>
-      <c r="G14" s="203"/>
-      <c r="H14" s="203"/>
-      <c r="I14" s="203"/>
-      <c r="J14" s="203"/>
-      <c r="K14" s="203"/>
-      <c r="L14" s="355"/>
-      <c r="M14" s="356"/>
-      <c r="N14" s="357"/>
-      <c r="O14" s="357"/>
-      <c r="P14" s="358"/>
+      <c r="B14" s="327"/>
+      <c r="C14" s="210"/>
+      <c r="D14" s="210"/>
+      <c r="E14" s="210"/>
+      <c r="F14" s="210"/>
+      <c r="G14" s="210"/>
+      <c r="H14" s="210"/>
+      <c r="I14" s="210"/>
+      <c r="J14" s="210"/>
+      <c r="K14" s="210"/>
+      <c r="L14" s="328"/>
+      <c r="M14" s="329"/>
+      <c r="N14" s="330"/>
+      <c r="O14" s="330"/>
+      <c r="P14" s="331"/>
       <c r="Q14" s="54"/>
       <c r="R14" s="66"/>
-      <c r="S14" s="376"/>
-      <c r="T14" s="377"/>
-      <c r="U14" s="361"/>
-      <c r="V14" s="362"/>
-      <c r="W14" s="356"/>
-      <c r="X14" s="358"/>
-      <c r="Y14" s="356"/>
-      <c r="Z14" s="357"/>
-      <c r="AA14" s="357"/>
-      <c r="AB14" s="358"/>
-      <c r="AC14" s="363"/>
-      <c r="AD14" s="364"/>
-      <c r="AE14" s="364"/>
-      <c r="AF14" s="364"/>
-      <c r="AG14" s="365"/>
-      <c r="AH14" s="366"/>
-      <c r="AI14" s="367"/>
-      <c r="AJ14" s="367"/>
-      <c r="AK14" s="367"/>
-      <c r="AL14" s="367"/>
-      <c r="AM14" s="367"/>
-      <c r="AN14" s="367"/>
-      <c r="AO14" s="368"/>
-      <c r="AP14" s="369"/>
-      <c r="AQ14" s="369"/>
-      <c r="AR14" s="369"/>
-      <c r="AS14" s="369"/>
-      <c r="AT14" s="369"/>
-      <c r="AU14" s="369"/>
-      <c r="AV14" s="369"/>
-      <c r="AW14" s="369"/>
-      <c r="AX14" s="369"/>
-      <c r="AY14" s="369"/>
-      <c r="AZ14" s="369"/>
-      <c r="BA14" s="369"/>
-      <c r="BB14" s="369"/>
-      <c r="BC14" s="369"/>
-      <c r="BD14" s="369"/>
-      <c r="BE14" s="369"/>
-      <c r="BF14" s="369"/>
-      <c r="BG14" s="369"/>
-      <c r="BH14" s="369"/>
-      <c r="BI14" s="369"/>
-      <c r="BJ14" s="369"/>
-      <c r="BK14" s="369"/>
-      <c r="BL14" s="370"/>
+      <c r="S14" s="332"/>
+      <c r="T14" s="336"/>
+      <c r="U14" s="334"/>
+      <c r="V14" s="335"/>
+      <c r="W14" s="329"/>
+      <c r="X14" s="331"/>
+      <c r="Y14" s="329"/>
+      <c r="Z14" s="330"/>
+      <c r="AA14" s="330"/>
+      <c r="AB14" s="331"/>
+      <c r="AC14" s="307"/>
+      <c r="AD14" s="308"/>
+      <c r="AE14" s="308"/>
+      <c r="AF14" s="308"/>
+      <c r="AG14" s="309"/>
+      <c r="AH14" s="310"/>
+      <c r="AI14" s="311"/>
+      <c r="AJ14" s="311"/>
+      <c r="AK14" s="311"/>
+      <c r="AL14" s="311"/>
+      <c r="AM14" s="311"/>
+      <c r="AN14" s="311"/>
+      <c r="AO14" s="312"/>
+      <c r="AP14" s="313"/>
+      <c r="AQ14" s="313"/>
+      <c r="AR14" s="313"/>
+      <c r="AS14" s="313"/>
+      <c r="AT14" s="313"/>
+      <c r="AU14" s="313"/>
+      <c r="AV14" s="313"/>
+      <c r="AW14" s="313"/>
+      <c r="AX14" s="313"/>
+      <c r="AY14" s="313"/>
+      <c r="AZ14" s="313"/>
+      <c r="BA14" s="313"/>
+      <c r="BB14" s="313"/>
+      <c r="BC14" s="313"/>
+      <c r="BD14" s="313"/>
+      <c r="BE14" s="313"/>
+      <c r="BF14" s="313"/>
+      <c r="BG14" s="313"/>
+      <c r="BH14" s="313"/>
+      <c r="BI14" s="313"/>
+      <c r="BJ14" s="313"/>
+      <c r="BK14" s="313"/>
+      <c r="BL14" s="314"/>
     </row>
     <row r="15" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="49"/>
-      <c r="B15" s="380"/>
-      <c r="C15" s="203"/>
-      <c r="D15" s="203"/>
-      <c r="E15" s="203"/>
-      <c r="F15" s="203"/>
-      <c r="G15" s="203"/>
-      <c r="H15" s="203"/>
-      <c r="I15" s="203"/>
-      <c r="J15" s="203"/>
-      <c r="K15" s="203"/>
-      <c r="L15" s="355"/>
-      <c r="M15" s="356"/>
-      <c r="N15" s="357"/>
-      <c r="O15" s="357"/>
-      <c r="P15" s="358"/>
+      <c r="B15" s="327"/>
+      <c r="C15" s="210"/>
+      <c r="D15" s="210"/>
+      <c r="E15" s="210"/>
+      <c r="F15" s="210"/>
+      <c r="G15" s="210"/>
+      <c r="H15" s="210"/>
+      <c r="I15" s="210"/>
+      <c r="J15" s="210"/>
+      <c r="K15" s="210"/>
+      <c r="L15" s="328"/>
+      <c r="M15" s="329"/>
+      <c r="N15" s="330"/>
+      <c r="O15" s="330"/>
+      <c r="P15" s="331"/>
       <c r="Q15" s="65"/>
       <c r="R15" s="107"/>
-      <c r="S15" s="376"/>
-      <c r="T15" s="377"/>
-      <c r="U15" s="361"/>
-      <c r="V15" s="362"/>
-      <c r="W15" s="356"/>
-      <c r="X15" s="358"/>
-      <c r="Y15" s="356"/>
-      <c r="Z15" s="357"/>
-      <c r="AA15" s="357"/>
-      <c r="AB15" s="358"/>
-      <c r="AC15" s="363"/>
-      <c r="AD15" s="364"/>
-      <c r="AE15" s="364"/>
-      <c r="AF15" s="364"/>
-      <c r="AG15" s="365"/>
-      <c r="AH15" s="366"/>
-      <c r="AI15" s="367"/>
-      <c r="AJ15" s="367"/>
-      <c r="AK15" s="367"/>
-      <c r="AL15" s="367"/>
-      <c r="AM15" s="367"/>
-      <c r="AN15" s="367"/>
-      <c r="AO15" s="368"/>
-      <c r="AP15" s="369"/>
-      <c r="AQ15" s="369"/>
-      <c r="AR15" s="369"/>
-      <c r="AS15" s="369"/>
-      <c r="AT15" s="369"/>
-      <c r="AU15" s="369"/>
-      <c r="AV15" s="369"/>
-      <c r="AW15" s="369"/>
-      <c r="AX15" s="369"/>
-      <c r="AY15" s="369"/>
-      <c r="AZ15" s="369"/>
-      <c r="BA15" s="369"/>
-      <c r="BB15" s="369"/>
-      <c r="BC15" s="369"/>
-      <c r="BD15" s="369"/>
-      <c r="BE15" s="369"/>
-      <c r="BF15" s="369"/>
-      <c r="BG15" s="369"/>
-      <c r="BH15" s="369"/>
-      <c r="BI15" s="369"/>
-      <c r="BJ15" s="369"/>
-      <c r="BK15" s="369"/>
-      <c r="BL15" s="370"/>
+      <c r="S15" s="332"/>
+      <c r="T15" s="336"/>
+      <c r="U15" s="334"/>
+      <c r="V15" s="335"/>
+      <c r="W15" s="329"/>
+      <c r="X15" s="331"/>
+      <c r="Y15" s="329"/>
+      <c r="Z15" s="330"/>
+      <c r="AA15" s="330"/>
+      <c r="AB15" s="331"/>
+      <c r="AC15" s="307"/>
+      <c r="AD15" s="308"/>
+      <c r="AE15" s="308"/>
+      <c r="AF15" s="308"/>
+      <c r="AG15" s="309"/>
+      <c r="AH15" s="310"/>
+      <c r="AI15" s="311"/>
+      <c r="AJ15" s="311"/>
+      <c r="AK15" s="311"/>
+      <c r="AL15" s="311"/>
+      <c r="AM15" s="311"/>
+      <c r="AN15" s="311"/>
+      <c r="AO15" s="312"/>
+      <c r="AP15" s="313"/>
+      <c r="AQ15" s="313"/>
+      <c r="AR15" s="313"/>
+      <c r="AS15" s="313"/>
+      <c r="AT15" s="313"/>
+      <c r="AU15" s="313"/>
+      <c r="AV15" s="313"/>
+      <c r="AW15" s="313"/>
+      <c r="AX15" s="313"/>
+      <c r="AY15" s="313"/>
+      <c r="AZ15" s="313"/>
+      <c r="BA15" s="313"/>
+      <c r="BB15" s="313"/>
+      <c r="BC15" s="313"/>
+      <c r="BD15" s="313"/>
+      <c r="BE15" s="313"/>
+      <c r="BF15" s="313"/>
+      <c r="BG15" s="313"/>
+      <c r="BH15" s="313"/>
+      <c r="BI15" s="313"/>
+      <c r="BJ15" s="313"/>
+      <c r="BK15" s="313"/>
+      <c r="BL15" s="314"/>
     </row>
     <row r="16" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="49"/>
-      <c r="B16" s="380"/>
-      <c r="C16" s="203"/>
-      <c r="D16" s="203"/>
-      <c r="E16" s="203"/>
-      <c r="F16" s="203"/>
-      <c r="G16" s="203"/>
-      <c r="H16" s="203"/>
-      <c r="I16" s="203"/>
-      <c r="J16" s="203"/>
-      <c r="K16" s="203"/>
-      <c r="L16" s="355"/>
-      <c r="M16" s="356"/>
-      <c r="N16" s="357"/>
-      <c r="O16" s="357"/>
-      <c r="P16" s="358"/>
+      <c r="B16" s="327"/>
+      <c r="C16" s="210"/>
+      <c r="D16" s="210"/>
+      <c r="E16" s="210"/>
+      <c r="F16" s="210"/>
+      <c r="G16" s="210"/>
+      <c r="H16" s="210"/>
+      <c r="I16" s="210"/>
+      <c r="J16" s="210"/>
+      <c r="K16" s="210"/>
+      <c r="L16" s="328"/>
+      <c r="M16" s="329"/>
+      <c r="N16" s="330"/>
+      <c r="O16" s="330"/>
+      <c r="P16" s="331"/>
       <c r="Q16" s="54"/>
       <c r="R16" s="55"/>
-      <c r="S16" s="376"/>
-      <c r="T16" s="377"/>
-      <c r="U16" s="361"/>
-      <c r="V16" s="362"/>
-      <c r="W16" s="356"/>
-      <c r="X16" s="358"/>
-      <c r="Y16" s="356"/>
-      <c r="Z16" s="357"/>
-      <c r="AA16" s="357"/>
-      <c r="AB16" s="358"/>
-      <c r="AC16" s="363"/>
-      <c r="AD16" s="364"/>
-      <c r="AE16" s="364"/>
-      <c r="AF16" s="364"/>
-      <c r="AG16" s="365"/>
-      <c r="AH16" s="366"/>
-      <c r="AI16" s="367"/>
-      <c r="AJ16" s="367"/>
-      <c r="AK16" s="367"/>
-      <c r="AL16" s="367"/>
-      <c r="AM16" s="367"/>
-      <c r="AN16" s="367"/>
-      <c r="AO16" s="368"/>
-      <c r="AP16" s="369"/>
-      <c r="AQ16" s="369"/>
-      <c r="AR16" s="369"/>
-      <c r="AS16" s="369"/>
-      <c r="AT16" s="369"/>
-      <c r="AU16" s="369"/>
-      <c r="AV16" s="369"/>
-      <c r="AW16" s="369"/>
-      <c r="AX16" s="369"/>
-      <c r="AY16" s="369"/>
-      <c r="AZ16" s="369"/>
-      <c r="BA16" s="369"/>
-      <c r="BB16" s="369"/>
-      <c r="BC16" s="369"/>
-      <c r="BD16" s="369"/>
-      <c r="BE16" s="369"/>
-      <c r="BF16" s="369"/>
-      <c r="BG16" s="369"/>
-      <c r="BH16" s="369"/>
-      <c r="BI16" s="369"/>
-      <c r="BJ16" s="369"/>
-      <c r="BK16" s="369"/>
-      <c r="BL16" s="370"/>
+      <c r="S16" s="332"/>
+      <c r="T16" s="336"/>
+      <c r="U16" s="334"/>
+      <c r="V16" s="335"/>
+      <c r="W16" s="329"/>
+      <c r="X16" s="331"/>
+      <c r="Y16" s="329"/>
+      <c r="Z16" s="330"/>
+      <c r="AA16" s="330"/>
+      <c r="AB16" s="331"/>
+      <c r="AC16" s="307"/>
+      <c r="AD16" s="308"/>
+      <c r="AE16" s="308"/>
+      <c r="AF16" s="308"/>
+      <c r="AG16" s="309"/>
+      <c r="AH16" s="310"/>
+      <c r="AI16" s="311"/>
+      <c r="AJ16" s="311"/>
+      <c r="AK16" s="311"/>
+      <c r="AL16" s="311"/>
+      <c r="AM16" s="311"/>
+      <c r="AN16" s="311"/>
+      <c r="AO16" s="312"/>
+      <c r="AP16" s="313"/>
+      <c r="AQ16" s="313"/>
+      <c r="AR16" s="313"/>
+      <c r="AS16" s="313"/>
+      <c r="AT16" s="313"/>
+      <c r="AU16" s="313"/>
+      <c r="AV16" s="313"/>
+      <c r="AW16" s="313"/>
+      <c r="AX16" s="313"/>
+      <c r="AY16" s="313"/>
+      <c r="AZ16" s="313"/>
+      <c r="BA16" s="313"/>
+      <c r="BB16" s="313"/>
+      <c r="BC16" s="313"/>
+      <c r="BD16" s="313"/>
+      <c r="BE16" s="313"/>
+      <c r="BF16" s="313"/>
+      <c r="BG16" s="313"/>
+      <c r="BH16" s="313"/>
+      <c r="BI16" s="313"/>
+      <c r="BJ16" s="313"/>
+      <c r="BK16" s="313"/>
+      <c r="BL16" s="314"/>
     </row>
     <row r="17" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="49"/>
-      <c r="B17" s="380"/>
-      <c r="C17" s="203"/>
-      <c r="D17" s="203"/>
-      <c r="E17" s="203"/>
-      <c r="F17" s="203"/>
-      <c r="G17" s="203"/>
-      <c r="H17" s="203"/>
-      <c r="I17" s="203"/>
-      <c r="J17" s="203"/>
-      <c r="K17" s="203"/>
-      <c r="L17" s="355"/>
-      <c r="M17" s="356"/>
-      <c r="N17" s="357"/>
-      <c r="O17" s="357"/>
-      <c r="P17" s="358"/>
+      <c r="B17" s="327"/>
+      <c r="C17" s="210"/>
+      <c r="D17" s="210"/>
+      <c r="E17" s="210"/>
+      <c r="F17" s="210"/>
+      <c r="G17" s="210"/>
+      <c r="H17" s="210"/>
+      <c r="I17" s="210"/>
+      <c r="J17" s="210"/>
+      <c r="K17" s="210"/>
+      <c r="L17" s="328"/>
+      <c r="M17" s="329"/>
+      <c r="N17" s="330"/>
+      <c r="O17" s="330"/>
+      <c r="P17" s="331"/>
       <c r="Q17" s="54"/>
       <c r="R17" s="66"/>
-      <c r="S17" s="376"/>
-      <c r="T17" s="393"/>
-      <c r="U17" s="361"/>
-      <c r="V17" s="362"/>
-      <c r="W17" s="357"/>
-      <c r="X17" s="358"/>
-      <c r="Y17" s="356"/>
-      <c r="Z17" s="357"/>
-      <c r="AA17" s="357"/>
-      <c r="AB17" s="358"/>
-      <c r="AC17" s="363"/>
-      <c r="AD17" s="364"/>
-      <c r="AE17" s="364"/>
-      <c r="AF17" s="364"/>
-      <c r="AG17" s="365"/>
-      <c r="AH17" s="366"/>
-      <c r="AI17" s="367"/>
-      <c r="AJ17" s="367"/>
-      <c r="AK17" s="367"/>
-      <c r="AL17" s="367"/>
-      <c r="AM17" s="367"/>
-      <c r="AN17" s="367"/>
-      <c r="AO17" s="368"/>
-      <c r="AP17" s="369"/>
-      <c r="AQ17" s="369"/>
-      <c r="AR17" s="369"/>
-      <c r="AS17" s="369"/>
-      <c r="AT17" s="369"/>
-      <c r="AU17" s="369"/>
-      <c r="AV17" s="369"/>
-      <c r="AW17" s="369"/>
-      <c r="AX17" s="369"/>
-      <c r="AY17" s="369"/>
-      <c r="AZ17" s="369"/>
-      <c r="BA17" s="369"/>
-      <c r="BB17" s="369"/>
-      <c r="BC17" s="369"/>
-      <c r="BD17" s="369"/>
-      <c r="BE17" s="369"/>
-      <c r="BF17" s="369"/>
-      <c r="BG17" s="369"/>
-      <c r="BH17" s="369"/>
-      <c r="BI17" s="369"/>
-      <c r="BJ17" s="369"/>
-      <c r="BK17" s="369"/>
-      <c r="BL17" s="370"/>
+      <c r="S17" s="332"/>
+      <c r="T17" s="333"/>
+      <c r="U17" s="334"/>
+      <c r="V17" s="335"/>
+      <c r="W17" s="330"/>
+      <c r="X17" s="331"/>
+      <c r="Y17" s="329"/>
+      <c r="Z17" s="330"/>
+      <c r="AA17" s="330"/>
+      <c r="AB17" s="331"/>
+      <c r="AC17" s="307"/>
+      <c r="AD17" s="308"/>
+      <c r="AE17" s="308"/>
+      <c r="AF17" s="308"/>
+      <c r="AG17" s="309"/>
+      <c r="AH17" s="310"/>
+      <c r="AI17" s="311"/>
+      <c r="AJ17" s="311"/>
+      <c r="AK17" s="311"/>
+      <c r="AL17" s="311"/>
+      <c r="AM17" s="311"/>
+      <c r="AN17" s="311"/>
+      <c r="AO17" s="312"/>
+      <c r="AP17" s="313"/>
+      <c r="AQ17" s="313"/>
+      <c r="AR17" s="313"/>
+      <c r="AS17" s="313"/>
+      <c r="AT17" s="313"/>
+      <c r="AU17" s="313"/>
+      <c r="AV17" s="313"/>
+      <c r="AW17" s="313"/>
+      <c r="AX17" s="313"/>
+      <c r="AY17" s="313"/>
+      <c r="AZ17" s="313"/>
+      <c r="BA17" s="313"/>
+      <c r="BB17" s="313"/>
+      <c r="BC17" s="313"/>
+      <c r="BD17" s="313"/>
+      <c r="BE17" s="313"/>
+      <c r="BF17" s="313"/>
+      <c r="BG17" s="313"/>
+      <c r="BH17" s="313"/>
+      <c r="BI17" s="313"/>
+      <c r="BJ17" s="313"/>
+      <c r="BK17" s="313"/>
+      <c r="BL17" s="314"/>
     </row>
     <row r="18" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="49"/>
@@ -13972,27 +13972,27 @@
       <c r="J18" s="59"/>
       <c r="K18" s="59"/>
       <c r="L18" s="84"/>
-      <c r="M18" s="381"/>
-      <c r="N18" s="381"/>
-      <c r="O18" s="381"/>
-      <c r="P18" s="382"/>
+      <c r="M18" s="315"/>
+      <c r="N18" s="315"/>
+      <c r="O18" s="315"/>
+      <c r="P18" s="316"/>
       <c r="Q18" s="85"/>
       <c r="R18" s="86"/>
-      <c r="S18" s="383"/>
-      <c r="T18" s="384"/>
-      <c r="U18" s="385"/>
-      <c r="V18" s="386"/>
-      <c r="W18" s="387"/>
-      <c r="X18" s="388"/>
-      <c r="Y18" s="389"/>
-      <c r="Z18" s="387"/>
-      <c r="AA18" s="387"/>
-      <c r="AB18" s="388"/>
-      <c r="AC18" s="390"/>
-      <c r="AD18" s="391"/>
-      <c r="AE18" s="391"/>
-      <c r="AF18" s="391"/>
-      <c r="AG18" s="392"/>
+      <c r="S18" s="317"/>
+      <c r="T18" s="318"/>
+      <c r="U18" s="319"/>
+      <c r="V18" s="320"/>
+      <c r="W18" s="321"/>
+      <c r="X18" s="322"/>
+      <c r="Y18" s="323"/>
+      <c r="Z18" s="321"/>
+      <c r="AA18" s="321"/>
+      <c r="AB18" s="322"/>
+      <c r="AC18" s="324"/>
+      <c r="AD18" s="325"/>
+      <c r="AE18" s="325"/>
+      <c r="AF18" s="325"/>
+      <c r="AG18" s="326"/>
       <c r="AH18" s="87"/>
       <c r="AI18" s="88"/>
       <c r="AJ18" s="89"/>
@@ -14066,84 +14066,104 @@
       <c r="B28" s="50"/>
     </row>
     <row r="29" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="394"/>
-      <c r="B29" s="394"/>
+      <c r="A29" s="306"/>
+      <c r="B29" s="306"/>
     </row>
     <row r="30" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="394"/>
-      <c r="B30" s="394"/>
+      <c r="A30" s="306"/>
+      <c r="B30" s="306"/>
     </row>
     <row r="31" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="394"/>
-      <c r="B31" s="394"/>
+      <c r="A31" s="306"/>
+      <c r="B31" s="306"/>
     </row>
     <row r="32" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="394"/>
-      <c r="B32" s="394"/>
+      <c r="A32" s="306"/>
+      <c r="B32" s="306"/>
     </row>
     <row r="33" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="394"/>
-      <c r="B33" s="394"/>
+      <c r="A33" s="306"/>
+      <c r="B33" s="306"/>
     </row>
     <row r="34" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="394"/>
-      <c r="B34" s="394"/>
+      <c r="A34" s="306"/>
+      <c r="B34" s="306"/>
     </row>
     <row r="35" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="394"/>
-      <c r="B35" s="394"/>
+      <c r="A35" s="306"/>
+      <c r="B35" s="306"/>
     </row>
   </sheetData>
   <mergeCells count="138">
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="AC17:AG17"/>
-    <mergeCell ref="AH17:AN17"/>
-    <mergeCell ref="AO17:BL17"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="AC18:AG18"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="Y16:AB16"/>
-    <mergeCell ref="AC16:AG16"/>
-    <mergeCell ref="AH16:AN16"/>
-    <mergeCell ref="AO16:BL16"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:AB15"/>
-    <mergeCell ref="AC15:AG15"/>
-    <mergeCell ref="AH15:AN15"/>
-    <mergeCell ref="AO15:BL15"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="AC14:AG14"/>
-    <mergeCell ref="AH14:AN14"/>
-    <mergeCell ref="AO14:BL14"/>
+    <mergeCell ref="A2:AA3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:O4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="V4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:O5"/>
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="V5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AZ5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BL5"/>
+    <mergeCell ref="A6:AB6"/>
+    <mergeCell ref="AC6:AN6"/>
+    <mergeCell ref="AO6:BL7"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="AC7:AG7"/>
+    <mergeCell ref="AH7:AN7"/>
+    <mergeCell ref="AO8:BL8"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="AH9:AN9"/>
+    <mergeCell ref="AO9:BL9"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="AH8:AN8"/>
+    <mergeCell ref="AO10:BL10"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="AC11:AG11"/>
+    <mergeCell ref="AH11:AN11"/>
+    <mergeCell ref="AO11:BL11"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="AH10:AN10"/>
     <mergeCell ref="AO12:BL12"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="M13:P13"/>
@@ -14164,75 +14184,55 @@
     <mergeCell ref="Y12:AB12"/>
     <mergeCell ref="AC12:AG12"/>
     <mergeCell ref="AH12:AN12"/>
-    <mergeCell ref="AO10:BL10"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="AC11:AG11"/>
-    <mergeCell ref="AH11:AN11"/>
-    <mergeCell ref="AO11:BL11"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="AH10:AN10"/>
-    <mergeCell ref="AO8:BL8"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="AC9:AG9"/>
-    <mergeCell ref="AH9:AN9"/>
-    <mergeCell ref="AO9:BL9"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="AH8:AN8"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:O5"/>
-    <mergeCell ref="P5:U5"/>
-    <mergeCell ref="V5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AZ5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BL5"/>
-    <mergeCell ref="A6:AB6"/>
-    <mergeCell ref="AC6:AN6"/>
-    <mergeCell ref="AO6:BL7"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="AC7:AG7"/>
-    <mergeCell ref="AH7:AN7"/>
-    <mergeCell ref="A2:AA3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:O4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="V4:AV4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="AC14:AG14"/>
+    <mergeCell ref="AH14:AN14"/>
+    <mergeCell ref="AO14:BL14"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:AB15"/>
+    <mergeCell ref="AC15:AG15"/>
+    <mergeCell ref="AH15:AN15"/>
+    <mergeCell ref="AO15:BL15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="Y16:AB16"/>
+    <mergeCell ref="AC16:AG16"/>
+    <mergeCell ref="AH16:AN16"/>
+    <mergeCell ref="AO16:BL16"/>
+    <mergeCell ref="AO17:BL17"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="AC18:AG18"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="AC17:AG17"/>
+    <mergeCell ref="AH17:AN17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14243,8 +14243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FE8741-F49C-42F2-BC06-F1CBE4CC8F10}">
   <dimension ref="A1:BC11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:O8"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AH11" sqref="AH11:BC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14445,35 +14445,35 @@
       <c r="BC1" s="23"/>
     </row>
     <row r="2" spans="1:55" ht="10.8" x14ac:dyDescent="0.15">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="241" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="208"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="208"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="208"/>
-      <c r="T2" s="208"/>
-      <c r="U2" s="208"/>
-      <c r="V2" s="208"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="208"/>
-      <c r="Y2" s="208"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="208"/>
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="242"/>
+      <c r="K2" s="242"/>
+      <c r="L2" s="242"/>
+      <c r="M2" s="242"/>
+      <c r="N2" s="242"/>
+      <c r="O2" s="242"/>
+      <c r="P2" s="242"/>
+      <c r="Q2" s="242"/>
+      <c r="R2" s="242"/>
+      <c r="S2" s="242"/>
+      <c r="T2" s="242"/>
+      <c r="U2" s="242"/>
+      <c r="V2" s="242"/>
+      <c r="W2" s="242"/>
+      <c r="X2" s="242"/>
+      <c r="Y2" s="242"/>
+      <c r="Z2" s="242"/>
+      <c r="AA2" s="242"/>
       <c r="AH2" s="25"/>
       <c r="AI2" s="25"/>
       <c r="AJ2" s="25"/>
@@ -14498,33 +14498,33 @@
       <c r="BC2" s="27"/>
     </row>
     <row r="3" spans="1:55" ht="10.8" x14ac:dyDescent="0.15">
-      <c r="A3" s="306"/>
-      <c r="B3" s="307"/>
-      <c r="C3" s="307"/>
-      <c r="D3" s="307"/>
-      <c r="E3" s="307"/>
-      <c r="F3" s="307"/>
-      <c r="G3" s="307"/>
-      <c r="H3" s="307"/>
-      <c r="I3" s="307"/>
-      <c r="J3" s="307"/>
-      <c r="K3" s="307"/>
-      <c r="L3" s="307"/>
-      <c r="M3" s="307"/>
-      <c r="N3" s="307"/>
-      <c r="O3" s="307"/>
-      <c r="P3" s="307"/>
-      <c r="Q3" s="307"/>
-      <c r="R3" s="307"/>
-      <c r="S3" s="307"/>
-      <c r="T3" s="307"/>
-      <c r="U3" s="307"/>
-      <c r="V3" s="307"/>
-      <c r="W3" s="307"/>
-      <c r="X3" s="307"/>
-      <c r="Y3" s="307"/>
-      <c r="Z3" s="307"/>
-      <c r="AA3" s="307"/>
+      <c r="A3" s="376"/>
+      <c r="B3" s="377"/>
+      <c r="C3" s="377"/>
+      <c r="D3" s="377"/>
+      <c r="E3" s="377"/>
+      <c r="F3" s="377"/>
+      <c r="G3" s="377"/>
+      <c r="H3" s="377"/>
+      <c r="I3" s="377"/>
+      <c r="J3" s="377"/>
+      <c r="K3" s="377"/>
+      <c r="L3" s="377"/>
+      <c r="M3" s="377"/>
+      <c r="N3" s="377"/>
+      <c r="O3" s="377"/>
+      <c r="P3" s="377"/>
+      <c r="Q3" s="377"/>
+      <c r="R3" s="377"/>
+      <c r="S3" s="377"/>
+      <c r="T3" s="377"/>
+      <c r="U3" s="377"/>
+      <c r="V3" s="377"/>
+      <c r="W3" s="377"/>
+      <c r="X3" s="377"/>
+      <c r="Y3" s="377"/>
+      <c r="Z3" s="377"/>
+      <c r="AA3" s="377"/>
       <c r="AB3" s="45"/>
       <c r="AC3" s="45"/>
       <c r="AD3" s="45"/>
@@ -14555,77 +14555,77 @@
       <c r="BC3" s="47"/>
     </row>
     <row r="4" spans="1:55" ht="18" x14ac:dyDescent="0.15">
-      <c r="A4" s="308" t="s">
+      <c r="A4" s="378" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="309"/>
-      <c r="C4" s="309"/>
-      <c r="D4" s="309"/>
-      <c r="E4" s="309"/>
-      <c r="F4" s="310"/>
-      <c r="G4" s="311" t="s">
+      <c r="B4" s="379"/>
+      <c r="C4" s="379"/>
+      <c r="D4" s="379"/>
+      <c r="E4" s="379"/>
+      <c r="F4" s="380"/>
+      <c r="G4" s="381" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="312"/>
-      <c r="I4" s="312"/>
-      <c r="J4" s="312"/>
-      <c r="K4" s="312"/>
-      <c r="L4" s="312"/>
-      <c r="M4" s="312"/>
-      <c r="N4" s="312"/>
-      <c r="O4" s="313"/>
-      <c r="P4" s="314" t="s">
+      <c r="H4" s="382"/>
+      <c r="I4" s="382"/>
+      <c r="J4" s="382"/>
+      <c r="K4" s="382"/>
+      <c r="L4" s="382"/>
+      <c r="M4" s="382"/>
+      <c r="N4" s="382"/>
+      <c r="O4" s="383"/>
+      <c r="P4" s="384" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="315"/>
-      <c r="R4" s="315"/>
-      <c r="S4" s="315"/>
-      <c r="T4" s="315"/>
-      <c r="U4" s="316"/>
-      <c r="V4" s="317" t="s">
+      <c r="Q4" s="385"/>
+      <c r="R4" s="385"/>
+      <c r="S4" s="385"/>
+      <c r="T4" s="385"/>
+      <c r="U4" s="386"/>
+      <c r="V4" s="387" t="s">
         <v>80</v>
       </c>
-      <c r="W4" s="318"/>
-      <c r="X4" s="318"/>
-      <c r="Y4" s="318"/>
-      <c r="Z4" s="318"/>
-      <c r="AA4" s="318"/>
-      <c r="AB4" s="318"/>
-      <c r="AC4" s="318"/>
-      <c r="AD4" s="318"/>
-      <c r="AE4" s="318"/>
-      <c r="AF4" s="318"/>
-      <c r="AG4" s="318"/>
-      <c r="AH4" s="318"/>
-      <c r="AI4" s="318"/>
-      <c r="AJ4" s="318"/>
-      <c r="AK4" s="319"/>
-      <c r="AL4" s="320" t="s">
+      <c r="W4" s="388"/>
+      <c r="X4" s="388"/>
+      <c r="Y4" s="388"/>
+      <c r="Z4" s="388"/>
+      <c r="AA4" s="388"/>
+      <c r="AB4" s="388"/>
+      <c r="AC4" s="388"/>
+      <c r="AD4" s="388"/>
+      <c r="AE4" s="388"/>
+      <c r="AF4" s="388"/>
+      <c r="AG4" s="388"/>
+      <c r="AH4" s="388"/>
+      <c r="AI4" s="388"/>
+      <c r="AJ4" s="388"/>
+      <c r="AK4" s="389"/>
+      <c r="AL4" s="390" t="s">
         <v>11</v>
       </c>
-      <c r="AM4" s="321"/>
-      <c r="AN4" s="322"/>
-      <c r="AO4" s="267">
+      <c r="AM4" s="391"/>
+      <c r="AN4" s="392"/>
+      <c r="AO4" s="269">
         <v>45427</v>
       </c>
-      <c r="AP4" s="268"/>
-      <c r="AQ4" s="268"/>
-      <c r="AR4" s="268"/>
-      <c r="AS4" s="268"/>
-      <c r="AT4" s="268"/>
-      <c r="AU4" s="320" t="s">
+      <c r="AP4" s="270"/>
+      <c r="AQ4" s="270"/>
+      <c r="AR4" s="270"/>
+      <c r="AS4" s="270"/>
+      <c r="AT4" s="270"/>
+      <c r="AU4" s="390" t="s">
         <v>12</v>
       </c>
-      <c r="AV4" s="321"/>
-      <c r="AW4" s="322"/>
-      <c r="AX4" s="395" t="s">
+      <c r="AV4" s="391"/>
+      <c r="AW4" s="392"/>
+      <c r="AX4" s="402" t="s">
         <v>83</v>
       </c>
-      <c r="AY4" s="268"/>
-      <c r="AZ4" s="268"/>
-      <c r="BA4" s="268"/>
-      <c r="BB4" s="268"/>
-      <c r="BC4" s="396"/>
+      <c r="AY4" s="270"/>
+      <c r="AZ4" s="270"/>
+      <c r="BA4" s="270"/>
+      <c r="BB4" s="270"/>
+      <c r="BC4" s="403"/>
     </row>
     <row r="5" spans="1:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="280" t="s">
@@ -14636,17 +14636,17 @@
       <c r="D5" s="281"/>
       <c r="E5" s="281"/>
       <c r="F5" s="282"/>
-      <c r="G5" s="397" t="s">
+      <c r="G5" s="404" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="397"/>
-      <c r="I5" s="397"/>
-      <c r="J5" s="397"/>
-      <c r="K5" s="397"/>
-      <c r="L5" s="397"/>
-      <c r="M5" s="397"/>
-      <c r="N5" s="397"/>
-      <c r="O5" s="398"/>
+      <c r="H5" s="404"/>
+      <c r="I5" s="404"/>
+      <c r="J5" s="404"/>
+      <c r="K5" s="404"/>
+      <c r="L5" s="404"/>
+      <c r="M5" s="404"/>
+      <c r="N5" s="404"/>
+      <c r="O5" s="405"/>
       <c r="P5" s="280" t="s">
         <v>15</v>
       </c>
@@ -14755,344 +14755,334 @@
       <c r="A7" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="399" t="s">
+      <c r="B7" s="401" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="399"/>
-      <c r="D7" s="399"/>
-      <c r="E7" s="399"/>
-      <c r="F7" s="399"/>
-      <c r="G7" s="399"/>
-      <c r="H7" s="399"/>
-      <c r="I7" s="399"/>
-      <c r="J7" s="399"/>
-      <c r="K7" s="399"/>
-      <c r="L7" s="399"/>
-      <c r="M7" s="399"/>
-      <c r="N7" s="399"/>
-      <c r="O7" s="399"/>
-      <c r="P7" s="399" t="s">
+      <c r="C7" s="401"/>
+      <c r="D7" s="401"/>
+      <c r="E7" s="401"/>
+      <c r="F7" s="401"/>
+      <c r="G7" s="401"/>
+      <c r="H7" s="401"/>
+      <c r="I7" s="401"/>
+      <c r="J7" s="401"/>
+      <c r="K7" s="401"/>
+      <c r="L7" s="401"/>
+      <c r="M7" s="401"/>
+      <c r="N7" s="401"/>
+      <c r="O7" s="401"/>
+      <c r="P7" s="401" t="s">
         <v>43</v>
       </c>
-      <c r="Q7" s="399"/>
-      <c r="R7" s="399"/>
-      <c r="S7" s="399"/>
-      <c r="T7" s="399"/>
-      <c r="U7" s="399"/>
-      <c r="V7" s="399"/>
-      <c r="W7" s="399"/>
-      <c r="X7" s="399"/>
-      <c r="Y7" s="399"/>
-      <c r="Z7" s="399"/>
-      <c r="AA7" s="399"/>
-      <c r="AB7" s="399"/>
-      <c r="AC7" s="399"/>
-      <c r="AD7" s="399"/>
-      <c r="AE7" s="399"/>
-      <c r="AF7" s="399"/>
-      <c r="AG7" s="399"/>
-      <c r="AH7" s="399" t="s">
+      <c r="Q7" s="401"/>
+      <c r="R7" s="401"/>
+      <c r="S7" s="401"/>
+      <c r="T7" s="401"/>
+      <c r="U7" s="401"/>
+      <c r="V7" s="401"/>
+      <c r="W7" s="401"/>
+      <c r="X7" s="401"/>
+      <c r="Y7" s="401"/>
+      <c r="Z7" s="401"/>
+      <c r="AA7" s="401"/>
+      <c r="AB7" s="401"/>
+      <c r="AC7" s="401"/>
+      <c r="AD7" s="401"/>
+      <c r="AE7" s="401"/>
+      <c r="AF7" s="401"/>
+      <c r="AG7" s="401"/>
+      <c r="AH7" s="401" t="s">
         <v>44</v>
       </c>
-      <c r="AI7" s="399"/>
-      <c r="AJ7" s="399"/>
-      <c r="AK7" s="399"/>
-      <c r="AL7" s="399"/>
-      <c r="AM7" s="399"/>
-      <c r="AN7" s="399"/>
-      <c r="AO7" s="399"/>
-      <c r="AP7" s="399"/>
-      <c r="AQ7" s="399"/>
-      <c r="AR7" s="399"/>
-      <c r="AS7" s="399"/>
-      <c r="AT7" s="399"/>
-      <c r="AU7" s="399"/>
-      <c r="AV7" s="399"/>
-      <c r="AW7" s="399"/>
-      <c r="AX7" s="399"/>
-      <c r="AY7" s="399"/>
-      <c r="AZ7" s="399"/>
-      <c r="BA7" s="399"/>
-      <c r="BB7" s="399"/>
-      <c r="BC7" s="399"/>
+      <c r="AI7" s="401"/>
+      <c r="AJ7" s="401"/>
+      <c r="AK7" s="401"/>
+      <c r="AL7" s="401"/>
+      <c r="AM7" s="401"/>
+      <c r="AN7" s="401"/>
+      <c r="AO7" s="401"/>
+      <c r="AP7" s="401"/>
+      <c r="AQ7" s="401"/>
+      <c r="AR7" s="401"/>
+      <c r="AS7" s="401"/>
+      <c r="AT7" s="401"/>
+      <c r="AU7" s="401"/>
+      <c r="AV7" s="401"/>
+      <c r="AW7" s="401"/>
+      <c r="AX7" s="401"/>
+      <c r="AY7" s="401"/>
+      <c r="AZ7" s="401"/>
+      <c r="BA7" s="401"/>
+      <c r="BB7" s="401"/>
+      <c r="BC7" s="401"/>
     </row>
     <row r="8" spans="1:55" ht="10.8" x14ac:dyDescent="0.15">
       <c r="A8" s="122">
         <v>1</v>
       </c>
-      <c r="B8" s="400" t="s">
+      <c r="B8" s="395" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="401"/>
-      <c r="D8" s="401"/>
-      <c r="E8" s="401"/>
-      <c r="F8" s="401"/>
-      <c r="G8" s="401"/>
-      <c r="H8" s="401"/>
-      <c r="I8" s="401"/>
-      <c r="J8" s="401"/>
-      <c r="K8" s="401"/>
-      <c r="L8" s="401"/>
-      <c r="M8" s="401"/>
-      <c r="N8" s="401"/>
-      <c r="O8" s="401"/>
-      <c r="P8" s="402" t="s">
+      <c r="C8" s="396"/>
+      <c r="D8" s="396"/>
+      <c r="E8" s="396"/>
+      <c r="F8" s="396"/>
+      <c r="G8" s="396"/>
+      <c r="H8" s="396"/>
+      <c r="I8" s="396"/>
+      <c r="J8" s="396"/>
+      <c r="K8" s="396"/>
+      <c r="L8" s="396"/>
+      <c r="M8" s="396"/>
+      <c r="N8" s="396"/>
+      <c r="O8" s="396"/>
+      <c r="P8" s="398" t="s">
         <v>73</v>
       </c>
-      <c r="Q8" s="402"/>
-      <c r="R8" s="402"/>
-      <c r="S8" s="402"/>
-      <c r="T8" s="402"/>
-      <c r="U8" s="402"/>
-      <c r="V8" s="402"/>
-      <c r="W8" s="402"/>
-      <c r="X8" s="402"/>
-      <c r="Y8" s="402"/>
-      <c r="Z8" s="402"/>
-      <c r="AA8" s="402"/>
-      <c r="AB8" s="402"/>
-      <c r="AC8" s="402"/>
-      <c r="AD8" s="402"/>
-      <c r="AE8" s="402"/>
-      <c r="AF8" s="402"/>
-      <c r="AG8" s="402"/>
-      <c r="AH8" s="403" t="s">
+      <c r="Q8" s="398"/>
+      <c r="R8" s="398"/>
+      <c r="S8" s="398"/>
+      <c r="T8" s="398"/>
+      <c r="U8" s="398"/>
+      <c r="V8" s="398"/>
+      <c r="W8" s="398"/>
+      <c r="X8" s="398"/>
+      <c r="Y8" s="398"/>
+      <c r="Z8" s="398"/>
+      <c r="AA8" s="398"/>
+      <c r="AB8" s="398"/>
+      <c r="AC8" s="398"/>
+      <c r="AD8" s="398"/>
+      <c r="AE8" s="398"/>
+      <c r="AF8" s="398"/>
+      <c r="AG8" s="398"/>
+      <c r="AH8" s="399" t="s">
         <v>74</v>
       </c>
-      <c r="AI8" s="403"/>
-      <c r="AJ8" s="403"/>
-      <c r="AK8" s="403"/>
-      <c r="AL8" s="403"/>
-      <c r="AM8" s="403"/>
-      <c r="AN8" s="403"/>
-      <c r="AO8" s="403"/>
-      <c r="AP8" s="403"/>
-      <c r="AQ8" s="403"/>
-      <c r="AR8" s="403"/>
-      <c r="AS8" s="403"/>
-      <c r="AT8" s="403"/>
-      <c r="AU8" s="403"/>
-      <c r="AV8" s="403"/>
-      <c r="AW8" s="403"/>
-      <c r="AX8" s="403"/>
-      <c r="AY8" s="403"/>
-      <c r="AZ8" s="403"/>
-      <c r="BA8" s="403"/>
-      <c r="BB8" s="403"/>
-      <c r="BC8" s="404"/>
+      <c r="AI8" s="399"/>
+      <c r="AJ8" s="399"/>
+      <c r="AK8" s="399"/>
+      <c r="AL8" s="399"/>
+      <c r="AM8" s="399"/>
+      <c r="AN8" s="399"/>
+      <c r="AO8" s="399"/>
+      <c r="AP8" s="399"/>
+      <c r="AQ8" s="399"/>
+      <c r="AR8" s="399"/>
+      <c r="AS8" s="399"/>
+      <c r="AT8" s="399"/>
+      <c r="AU8" s="399"/>
+      <c r="AV8" s="399"/>
+      <c r="AW8" s="399"/>
+      <c r="AX8" s="399"/>
+      <c r="AY8" s="399"/>
+      <c r="AZ8" s="399"/>
+      <c r="BA8" s="399"/>
+      <c r="BB8" s="399"/>
+      <c r="BC8" s="400"/>
     </row>
     <row r="9" spans="1:55" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="122">
         <v>2</v>
       </c>
-      <c r="B9" s="400" t="s">
+      <c r="B9" s="395" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="401"/>
-      <c r="D9" s="401"/>
-      <c r="E9" s="401"/>
-      <c r="F9" s="401"/>
-      <c r="G9" s="401"/>
-      <c r="H9" s="401"/>
-      <c r="I9" s="401"/>
-      <c r="J9" s="401"/>
-      <c r="K9" s="401"/>
-      <c r="L9" s="401"/>
-      <c r="M9" s="401"/>
-      <c r="N9" s="401"/>
-      <c r="O9" s="405"/>
-      <c r="P9" s="402" t="s">
+      <c r="C9" s="396"/>
+      <c r="D9" s="396"/>
+      <c r="E9" s="396"/>
+      <c r="F9" s="396"/>
+      <c r="G9" s="396"/>
+      <c r="H9" s="396"/>
+      <c r="I9" s="396"/>
+      <c r="J9" s="396"/>
+      <c r="K9" s="396"/>
+      <c r="L9" s="396"/>
+      <c r="M9" s="396"/>
+      <c r="N9" s="396"/>
+      <c r="O9" s="397"/>
+      <c r="P9" s="398" t="s">
         <v>120</v>
       </c>
-      <c r="Q9" s="402"/>
-      <c r="R9" s="402"/>
-      <c r="S9" s="402"/>
-      <c r="T9" s="402"/>
-      <c r="U9" s="402"/>
-      <c r="V9" s="402"/>
-      <c r="W9" s="402"/>
-      <c r="X9" s="402"/>
-      <c r="Y9" s="402"/>
-      <c r="Z9" s="402"/>
-      <c r="AA9" s="402"/>
-      <c r="AB9" s="402"/>
-      <c r="AC9" s="402"/>
-      <c r="AD9" s="402"/>
-      <c r="AE9" s="402"/>
-      <c r="AF9" s="402"/>
-      <c r="AG9" s="402"/>
-      <c r="AH9" s="403" t="s">
+      <c r="Q9" s="398"/>
+      <c r="R9" s="398"/>
+      <c r="S9" s="398"/>
+      <c r="T9" s="398"/>
+      <c r="U9" s="398"/>
+      <c r="V9" s="398"/>
+      <c r="W9" s="398"/>
+      <c r="X9" s="398"/>
+      <c r="Y9" s="398"/>
+      <c r="Z9" s="398"/>
+      <c r="AA9" s="398"/>
+      <c r="AB9" s="398"/>
+      <c r="AC9" s="398"/>
+      <c r="AD9" s="398"/>
+      <c r="AE9" s="398"/>
+      <c r="AF9" s="398"/>
+      <c r="AG9" s="398"/>
+      <c r="AH9" s="399" t="s">
         <v>116</v>
       </c>
-      <c r="AI9" s="403"/>
-      <c r="AJ9" s="403"/>
-      <c r="AK9" s="403"/>
-      <c r="AL9" s="403"/>
-      <c r="AM9" s="403"/>
-      <c r="AN9" s="403"/>
-      <c r="AO9" s="403"/>
-      <c r="AP9" s="403"/>
-      <c r="AQ9" s="403"/>
-      <c r="AR9" s="403"/>
-      <c r="AS9" s="403"/>
-      <c r="AT9" s="403"/>
-      <c r="AU9" s="403"/>
-      <c r="AV9" s="403"/>
-      <c r="AW9" s="403"/>
-      <c r="AX9" s="403"/>
-      <c r="AY9" s="403"/>
-      <c r="AZ9" s="403"/>
-      <c r="BA9" s="403"/>
-      <c r="BB9" s="403"/>
-      <c r="BC9" s="404"/>
+      <c r="AI9" s="399"/>
+      <c r="AJ9" s="399"/>
+      <c r="AK9" s="399"/>
+      <c r="AL9" s="399"/>
+      <c r="AM9" s="399"/>
+      <c r="AN9" s="399"/>
+      <c r="AO9" s="399"/>
+      <c r="AP9" s="399"/>
+      <c r="AQ9" s="399"/>
+      <c r="AR9" s="399"/>
+      <c r="AS9" s="399"/>
+      <c r="AT9" s="399"/>
+      <c r="AU9" s="399"/>
+      <c r="AV9" s="399"/>
+      <c r="AW9" s="399"/>
+      <c r="AX9" s="399"/>
+      <c r="AY9" s="399"/>
+      <c r="AZ9" s="399"/>
+      <c r="BA9" s="399"/>
+      <c r="BB9" s="399"/>
+      <c r="BC9" s="400"/>
     </row>
     <row r="10" spans="1:55" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="122">
         <v>3</v>
       </c>
-      <c r="B10" s="400" t="s">
+      <c r="B10" s="395" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="401"/>
-      <c r="D10" s="401"/>
-      <c r="E10" s="401"/>
-      <c r="F10" s="401"/>
-      <c r="G10" s="401"/>
-      <c r="H10" s="401"/>
-      <c r="I10" s="401"/>
-      <c r="J10" s="401"/>
-      <c r="K10" s="401"/>
-      <c r="L10" s="401"/>
-      <c r="M10" s="401"/>
-      <c r="N10" s="401"/>
-      <c r="O10" s="405"/>
-      <c r="P10" s="402" t="s">
+      <c r="C10" s="396"/>
+      <c r="D10" s="396"/>
+      <c r="E10" s="396"/>
+      <c r="F10" s="396"/>
+      <c r="G10" s="396"/>
+      <c r="H10" s="396"/>
+      <c r="I10" s="396"/>
+      <c r="J10" s="396"/>
+      <c r="K10" s="396"/>
+      <c r="L10" s="396"/>
+      <c r="M10" s="396"/>
+      <c r="N10" s="396"/>
+      <c r="O10" s="397"/>
+      <c r="P10" s="398" t="s">
         <v>115</v>
       </c>
-      <c r="Q10" s="402"/>
-      <c r="R10" s="402"/>
-      <c r="S10" s="402"/>
-      <c r="T10" s="402"/>
-      <c r="U10" s="402"/>
-      <c r="V10" s="402"/>
-      <c r="W10" s="402"/>
-      <c r="X10" s="402"/>
-      <c r="Y10" s="402"/>
-      <c r="Z10" s="402"/>
-      <c r="AA10" s="402"/>
-      <c r="AB10" s="402"/>
-      <c r="AC10" s="402"/>
-      <c r="AD10" s="402"/>
-      <c r="AE10" s="402"/>
-      <c r="AF10" s="402"/>
-      <c r="AG10" s="402"/>
-      <c r="AH10" s="403" t="s">
+      <c r="Q10" s="398"/>
+      <c r="R10" s="398"/>
+      <c r="S10" s="398"/>
+      <c r="T10" s="398"/>
+      <c r="U10" s="398"/>
+      <c r="V10" s="398"/>
+      <c r="W10" s="398"/>
+      <c r="X10" s="398"/>
+      <c r="Y10" s="398"/>
+      <c r="Z10" s="398"/>
+      <c r="AA10" s="398"/>
+      <c r="AB10" s="398"/>
+      <c r="AC10" s="398"/>
+      <c r="AD10" s="398"/>
+      <c r="AE10" s="398"/>
+      <c r="AF10" s="398"/>
+      <c r="AG10" s="398"/>
+      <c r="AH10" s="399" t="s">
         <v>117</v>
       </c>
-      <c r="AI10" s="403"/>
-      <c r="AJ10" s="403"/>
-      <c r="AK10" s="403"/>
-      <c r="AL10" s="403"/>
-      <c r="AM10" s="403"/>
-      <c r="AN10" s="403"/>
-      <c r="AO10" s="403"/>
-      <c r="AP10" s="403"/>
-      <c r="AQ10" s="403"/>
-      <c r="AR10" s="403"/>
-      <c r="AS10" s="403"/>
-      <c r="AT10" s="403"/>
-      <c r="AU10" s="403"/>
-      <c r="AV10" s="403"/>
-      <c r="AW10" s="403"/>
-      <c r="AX10" s="403"/>
-      <c r="AY10" s="403"/>
-      <c r="AZ10" s="403"/>
-      <c r="BA10" s="403"/>
-      <c r="BB10" s="403"/>
-      <c r="BC10" s="404"/>
+      <c r="AI10" s="399"/>
+      <c r="AJ10" s="399"/>
+      <c r="AK10" s="399"/>
+      <c r="AL10" s="399"/>
+      <c r="AM10" s="399"/>
+      <c r="AN10" s="399"/>
+      <c r="AO10" s="399"/>
+      <c r="AP10" s="399"/>
+      <c r="AQ10" s="399"/>
+      <c r="AR10" s="399"/>
+      <c r="AS10" s="399"/>
+      <c r="AT10" s="399"/>
+      <c r="AU10" s="399"/>
+      <c r="AV10" s="399"/>
+      <c r="AW10" s="399"/>
+      <c r="AX10" s="399"/>
+      <c r="AY10" s="399"/>
+      <c r="AZ10" s="399"/>
+      <c r="BA10" s="399"/>
+      <c r="BB10" s="399"/>
+      <c r="BC10" s="400"/>
     </row>
     <row r="11" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="122">
         <v>4</v>
       </c>
-      <c r="B11" s="400" t="s">
+      <c r="B11" s="395" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="401"/>
-      <c r="D11" s="401"/>
-      <c r="E11" s="401"/>
-      <c r="F11" s="401"/>
-      <c r="G11" s="401"/>
-      <c r="H11" s="401"/>
-      <c r="I11" s="401"/>
-      <c r="J11" s="401"/>
-      <c r="K11" s="401"/>
-      <c r="L11" s="401"/>
-      <c r="M11" s="401"/>
-      <c r="N11" s="401"/>
-      <c r="O11" s="405"/>
-      <c r="P11" s="402" t="s">
+      <c r="C11" s="396"/>
+      <c r="D11" s="396"/>
+      <c r="E11" s="396"/>
+      <c r="F11" s="396"/>
+      <c r="G11" s="396"/>
+      <c r="H11" s="396"/>
+      <c r="I11" s="396"/>
+      <c r="J11" s="396"/>
+      <c r="K11" s="396"/>
+      <c r="L11" s="396"/>
+      <c r="M11" s="396"/>
+      <c r="N11" s="396"/>
+      <c r="O11" s="397"/>
+      <c r="P11" s="398" t="s">
         <v>75</v>
       </c>
-      <c r="Q11" s="402"/>
-      <c r="R11" s="402"/>
-      <c r="S11" s="402"/>
-      <c r="T11" s="402"/>
-      <c r="U11" s="402"/>
-      <c r="V11" s="402"/>
-      <c r="W11" s="402"/>
-      <c r="X11" s="402"/>
-      <c r="Y11" s="402"/>
-      <c r="Z11" s="402"/>
-      <c r="AA11" s="402"/>
-      <c r="AB11" s="402"/>
-      <c r="AC11" s="402"/>
-      <c r="AD11" s="402"/>
-      <c r="AE11" s="402"/>
-      <c r="AF11" s="402"/>
-      <c r="AG11" s="402"/>
-      <c r="AH11" s="403" t="s">
+      <c r="Q11" s="398"/>
+      <c r="R11" s="398"/>
+      <c r="S11" s="398"/>
+      <c r="T11" s="398"/>
+      <c r="U11" s="398"/>
+      <c r="V11" s="398"/>
+      <c r="W11" s="398"/>
+      <c r="X11" s="398"/>
+      <c r="Y11" s="398"/>
+      <c r="Z11" s="398"/>
+      <c r="AA11" s="398"/>
+      <c r="AB11" s="398"/>
+      <c r="AC11" s="398"/>
+      <c r="AD11" s="398"/>
+      <c r="AE11" s="398"/>
+      <c r="AF11" s="398"/>
+      <c r="AG11" s="398"/>
+      <c r="AH11" s="399" t="s">
         <v>76</v>
       </c>
-      <c r="AI11" s="403"/>
-      <c r="AJ11" s="403"/>
-      <c r="AK11" s="403"/>
-      <c r="AL11" s="403"/>
-      <c r="AM11" s="403"/>
-      <c r="AN11" s="403"/>
-      <c r="AO11" s="403"/>
-      <c r="AP11" s="403"/>
-      <c r="AQ11" s="403"/>
-      <c r="AR11" s="403"/>
-      <c r="AS11" s="403"/>
-      <c r="AT11" s="403"/>
-      <c r="AU11" s="403"/>
-      <c r="AV11" s="403"/>
-      <c r="AW11" s="403"/>
-      <c r="AX11" s="403"/>
-      <c r="AY11" s="403"/>
-      <c r="AZ11" s="403"/>
-      <c r="BA11" s="403"/>
-      <c r="BB11" s="403"/>
-      <c r="BC11" s="404"/>
+      <c r="AI11" s="399"/>
+      <c r="AJ11" s="399"/>
+      <c r="AK11" s="399"/>
+      <c r="AL11" s="399"/>
+      <c r="AM11" s="399"/>
+      <c r="AN11" s="399"/>
+      <c r="AO11" s="399"/>
+      <c r="AP11" s="399"/>
+      <c r="AQ11" s="399"/>
+      <c r="AR11" s="399"/>
+      <c r="AS11" s="399"/>
+      <c r="AT11" s="399"/>
+      <c r="AU11" s="399"/>
+      <c r="AV11" s="399"/>
+      <c r="AW11" s="399"/>
+      <c r="AX11" s="399"/>
+      <c r="AY11" s="399"/>
+      <c r="AZ11" s="399"/>
+      <c r="BA11" s="399"/>
+      <c r="BB11" s="399"/>
+      <c r="BC11" s="400"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B11:O11"/>
-    <mergeCell ref="P11:AG11"/>
-    <mergeCell ref="AH11:BC11"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="P9:AG9"/>
-    <mergeCell ref="AH9:BC9"/>
-    <mergeCell ref="B10:O10"/>
-    <mergeCell ref="P10:AG10"/>
-    <mergeCell ref="AH10:BC10"/>
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="P7:AG7"/>
-    <mergeCell ref="AH7:BC7"/>
-    <mergeCell ref="B8:O8"/>
-    <mergeCell ref="P8:AG8"/>
-    <mergeCell ref="AH8:BC8"/>
+    <mergeCell ref="A2:AA3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:O4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="V4:AK4"/>
     <mergeCell ref="AO4:AT4"/>
     <mergeCell ref="AU4:AW4"/>
     <mergeCell ref="AX4:BC4"/>
@@ -15105,11 +15095,21 @@
     <mergeCell ref="AU5:AW5"/>
     <mergeCell ref="AL4:AN4"/>
     <mergeCell ref="AX5:BC5"/>
-    <mergeCell ref="A2:AA3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:O4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="V4:AK4"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="P7:AG7"/>
+    <mergeCell ref="AH7:BC7"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="P8:AG8"/>
+    <mergeCell ref="AH8:BC8"/>
+    <mergeCell ref="B11:O11"/>
+    <mergeCell ref="P11:AG11"/>
+    <mergeCell ref="AH11:BC11"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="P9:AG9"/>
+    <mergeCell ref="AH9:BC9"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="P10:AG10"/>
+    <mergeCell ref="AH10:BC10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
